--- a/Find_detect/output_528/log_database_log_raw.xlsx
+++ b/Find_detect/output_528/log_database_log_raw.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,48 +467,67 @@
         - status must be 0 if the log entry is a normal operation or informational message.
         - Output **only** a list of tuples. No extra text or explanation.
         ## Input Logs:
-         (1) 2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000079443  socket_err_should_retry errno:104 (2) 2025-04-23 14:42:59.193 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942188452), ckpt_fil(1), ckpt_off(223807488), cur_lsn(2826942345610), l_next_seq(46659482246), g_next_seq(46630684983), cur_free(259502080), total_space(8589926400), used_space(35700224), free_space(8554226176), n_ep(1) (3) 2025-04-23 15:04:16.013 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit. (4) 2025-04-23 15:29:49.330 [INFO] database P0000050345 T0000000000000050345  version info: enterprise (5) 2025-04-23 15:11:43.274 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit. (6) 2025-04-23 16:00:38.836 [INFO] database P0000095243 T0000000000000095243  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (7) 2025-04-23 15:07:02.002 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit. (8) 2025-04-23 14:57:57.995 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit. (9) 2025-04-23 14:43:31.161 [INFO] database P0000010414 T0000000000000015201  utsk_dw_udp_bro used 31s, cur_bro_time = 1745390611, last_bro_time = 1745390580 (10) 2025-04-23 15:08:30.713 [ERROR] database P0000010414 T0000000000000015323  Reached the max session limit. (11) 2025-04-23 15:58:15.233 [INFO] database P0000091708 T0000000000000091708  INI parameter DW_PORT changed, the original value 0, new value 4566 (12) 2025-04-23 15:49:57.600 [INFO] database P0000079472 T0000000000000079472  INI parameter DPC_2PC changed, the original value 1, new value 0 (13) 2025-04-23 14:42:59.204 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (14) 2025-04-23 15:31:00.119 [INFO] database P0000052077 T0000000000000052077  INI parameter DW_PORT changed, the original value 0, new value 4566 (15) 2025-04-23 14:42:59.186 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942181083), ckpt_fil(1), ckpt_off(222162944), cur_lsn(2826942345304), l_next_seq(46659482240), g_next_seq(46630684977), cur_free(259026944), total_space(8589926400), used_space(37253120), free_space(8552673280), n_ep(1) (16) 2025-04-23 15:39:18.015 [INFO] database P0000064327 T0000000000000064327  info get from dcr disk, asm_host = localhost, asm_port = 1547395440, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (17) 2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000127206  socket_err_should_retry errno:104 (18) 2025-04-23 15:10:32.743 [WARNING] database P0000010414 T0000000000000123369  socket_err_should_retry errno:104 (19) 2025-04-23 15:35:44.511 [INFO] database P0000059105 T0000000000000059105  INI parameter DW_PORT changed, the original value 0, new value 4566 (20) 2025-04-23 14:58:55.554 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit. (21) 2025-04-23 15:08:04.426 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit. (22) 2025-04-23 15:04:51.975 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit. (23) 2025-04-23 14:45:01.185 [WARNING] database P0000010414 T0000000000000126115  socket_err_should_retry errno:104 (24) 2025-04-23 14:56:26.674 [ERROR] database P0000010414 T0000000000000015340  Reached the max session limit. (25) 2025-04-23 15:11:12.948 [WARNING] database P0000010414 T0000000000000077762  socket_err_should_retry errno:104 (26) 2025-04-23 14:48:45.628 [WARNING] database P0000010414 T0000000000000132706  socket_err_should_retry errno:38 (27) 2025-04-23 15:04:26.150 [ERROR] database P0000010414 T0000000000000015343  Reached the max session limit. (28) 2025-04-23 14:43:31.161 [WARNING] database P0000010414 T0000000000000015201  Get svr info time used:31 (29) 2025-04-23 14:45:21.121 [WARNING] database P0000010414 T0000000000000126757  socket_err_should_retry errno:38 (30) 2025-04-23 15:34:33.809 [INFO] database P0000057373 T0000000000000057373  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+         (1) 2025-04-23 14:59:47.357 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit. (2) 2025-04-23 15:57:04.145 [INFO] database P0000089970 T0000000000000089970  INI parameter DPC_2PC changed, the original value 1, new value 0 (3) 2025-04-23 15:53:32.152 [INFO] database P0000084718 T0000000000000084718  version info: enterprise (4) 2025-04-23 15:49:58.307 [INFO] database P0000079472 T0000000000000079472  info get from dcr disk, asm_host = localhost, asm_port = 1055164720, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (5) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000069168  socket_err_should_retry errno:104 (6) 2025-04-23 15:58:15.715 [INFO] database P0000091708 T0000000000000091708  dmshm2_attach, success, shm id 294913 (7) 2025-04-23 16:00:38.822 [INFO] database P0000095243 T0000000000000095243  info get from dcr disk, asm_host = localhost, asm_port = 1288713792, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (8) 2025-04-23 15:48:47.048 [INFO] database P0000077779 T0000000000000077779  dmshm2_attach, success, shm id 294913 (9) 2025-04-23 15:11:13.082 [ERROR] database P0000010414 T0000000000000015350  Reached the max session limit. (10) 2025-04-23 15:14:28.745 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit. (11) 2025-04-23 14:57:57.995 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit. (12) 2025-04-23 15:40:28.868 [INFO] database P0000066033 T0000000000000066033  INI parameter DPC_2PC changed, the original value 1, new value 0 (13) 2025-04-23 15:26:15.993 [INFO] database P0000045167 T0000000000000045167  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (14) 2025-04-23 14:53:03.044 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit. (15) 2025-04-23 15:26:15.744 [INFO] database P0000045167 T0000000000000045167  INI parameter DPC_2PC changed, the original value 1, new value 0 (16) 2025-04-23 15:10:30.019 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit. (17) 2025-04-23 15:28:38.273 [INFO] database P0000048633 T0000000000000048633  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (18) 2025-04-23 15:02:38.521 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit. (19) 2025-04-23 14:57:54.970 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit. (20) 2025-04-23 16:00:38.836 [INFO] database P0000095243 T0000000000000095243  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (21) 2025-04-23 14:55:38.427 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit. (22) 2025-04-23 15:28:38.272 [INFO] database P0000048633 T0000000000000048633  dmshm2_attach, success, shm id 294913 (23) 2025-04-23 15:51:09.106 [INFO] database P0000081263 T0000000000000081263  version info: enterprise (24) 2025-04-23 15:04:17.585 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit. (25) 2025-04-23 15:31:00.119 [INFO] database P0000052077 T0000000000000052077  INI parameter DW_PORT changed, the original value 0, new value 4566 (26) 2025-04-23 14:42:59.204 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942200438), ckpt_fil(1), ckpt_off(226969088), cur_lsn(2826942346072), l_next_seq(46659482256), g_next_seq(46630684993), cur_free(259532800), total_space(8589926400), used_space(32563712), free_space(8557362688), n_ep(1) (27) 2025-04-23 14:53:59.516 [ERROR] database P0000010414 T0000000000000015353  Reached the max session limit. (28) 2025-04-23 15:27:27.308 [INFO] database P0000046902 T0000000000000046902  dmshm2_attach, success, shm id 294913 (29) 2025-04-23 14:57:07.315 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit. (30) 2025-04-23 14:42:59.193 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (31) 2025-04-23 14:44:01.236 [WARNING] database P0000010414 T0000000000000124418  socket_err_should_retry errno:104 (32) 2025-04-23 15:21:31.608 [INFO] database P0000038061 T0000000000000038061  dmshm2_attach, success, shm id 294913 (33) 2025-04-23 15:26:16.000 [INFO] database P0000045167 T0000000000000045167  version info: enterprise (34) 2025-04-23 15:04:16.013 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit. (35) 2025-04-23 15:15:37.478 [ERROR] database P0000010414 T0000000000000015322  Reached the max session limit. (36) 2025-04-23 15:32:11.548 [INFO] database P0000053877 T0000000000000053877  dmshm2_attach, success, shm id 294913 (37) 2025-04-23 15:17:58.457 [INFO] database P0000032706 T0000000000000032706  info get from dcr disk, asm_host = localhost, asm_port = 1167375216, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (38) 2025-04-23 15:06:32.787 [ERROR] database P0000010414 T0000000000000015311  Reached the max session limit. (39) 2025-04-23 14:42:59.204 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (40) 2025-04-23 15:49:58.320 [INFO] database P0000079472 T0000000000000079472  dmshm2_attach, success, shm id 294913 (41) 2025-04-23 14:58:55.211 [ERROR] database P0000010414 T0000000000000015304  Reached the max session limit. (42) 2025-04-23 15:23:53.897 [INFO] database P0000041615 T0000000000000041615  dmshm2_attach, success, shm id 294913 (43) 2025-04-23 14:50:04.170 [WARNING] database P0000010414 T0000000000000133070  socket_err_should_retry errno:104 (44) 2025-04-23 14:54:31.535 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit. (45) 2025-04-23 15:36:55.937 [INFO] database P0000060808 T0000000000000060808  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (46) 2025-04-23 15:16:45.084 [FATAL] database P0000010414 T0000000000000010414  sigterm_handler receive signal 11 (47) 2025-04-23 15:02:23.613 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit. (48) 2025-04-23 14:42:59.186 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942181083), ckpt_fil(1), ckpt_off(222162944), cur_lsn(2826942345304), l_next_seq(46659482240), g_next_seq(46630684977), cur_free(259026944), total_space(8589926400), used_space(37253120), free_space(8552673280), n_ep(1) (49) 2025-04-23 15:53:32.130 [INFO] database P0000084718 T0000000000000084718  info get from dcr disk, asm_host = localhost, asm_port = -1557384896, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (50) 2025-04-23 15:46:24.354 [INFO] database P0000074366 T0000000000000074366  INI parameter DW_PORT changed, the original value 0, new value 4566 (51) 2025-04-23 14:50:01.882 [WARNING] database P0000010414 T0000000000000135098  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">
+(106, 0)
+(107, 0)
+(108, 1)
+(109, 1)
+(110, 0)
+(111, 1)
+(112, 0)
+(113, 1)
+(114, 1)
+(115, 0)
 (116, 0)
-(117, 0)
+(117, 1)
 (118, 1)
 (119, 1)
-(120, 0)
-(121, 1)
-(122, 1)
-(123, 0)
-(124, 0)
+(120, 1)
+(121, 0)
+(122, 0)
+(123, 1)
+(124, 1)
 (125, 1)
 (126, 0)
-(127, 0)
-(128, 1)
+(127, 1)
+(128, 0)
 (129, 0)
-(130, 1)
-(131, 1)
+(130, 0)
+(131, 0)
 (132, 1)
 (133, 1)
-(134, 0)
-(135, 0)
-(136, 0)
+(134, 1)
+(135, 1)
+(136, 1)
 (137, 0)
 (138, 1)
 (139, 1)
 (140, 0)
 (141, 0)
 (142, 0)
-(143, 1)
-(144, 1)
+(143, 0)
+(144, 0)
 (145, 0)
-(146, 1)</t>
+(146, 1)
+(147, 0)
+(148, 1)
+(149, 0)
+(150, 0)
+(151, 1)
+(152, 0)
+(153, 0)
+(154, 0)
+(155, 1)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['(1) 2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000079443  socket_err_should_retry errno:104', '(2) 2025-04-23 14:42:59.193 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942188452), ckpt_fil(1), ckpt_off(223807488), cur_lsn(2826942345610), l_next_seq(46659482246), g_next_seq(46630684983), cur_free(259502080), total_space(8589926400), used_space(35700224), free_space(8554226176), n_ep(1)', '(3) 2025-04-23 15:04:16.013 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit.', '(4) 2025-04-23 15:29:49.330 [INFO] database P0000050345 T0000000000000050345  version info: enterprise', '(5) 2025-04-23 15:11:43.274 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit.', '(6) 2025-04-23 16:00:38.836 [INFO] database P0000095243 T0000000000000095243  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(7) 2025-04-23 15:07:02.002 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit.', '(8) 2025-04-23 14:57:57.995 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit.', '(9) 2025-04-23 14:43:31.161 [INFO] database P0000010414 T0000000000000015201  utsk_dw_udp_bro used 31s, cur_bro_time = 1745390611, last_bro_time = 1745390580', '(10) 2025-04-23 15:08:30.713 [ERROR] database P0000010414 T0000000000000015323  Reached the max session limit.', '(11) 2025-04-23 15:58:15.233 [INFO] database P0000091708 T0000000000000091708  INI parameter DW_PORT changed, the original value 0, new value 4566', '(12) 2025-04-23 15:49:57.600 [INFO] database P0000079472 T0000000000000079472  INI parameter DPC_2PC changed, the original value 1, new value 0', '(13) 2025-04-23 14:42:59.204 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(14) 2025-04-23 15:31:00.119 [INFO] database P0000052077 T0000000000000052077  INI parameter DW_PORT changed, the original value 0, new value 4566', '(15) 2025-04-23 14:42:59.186 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942181083), ckpt_fil(1), ckpt_off(222162944), cur_lsn(2826942345304), l_next_seq(46659482240), g_next_seq(46630684977), cur_free(259026944), total_space(8589926400), used_space(37253120), free_space(8552673280), n_ep(1)', '(16) 2025-04-23 15:39:18.015 [INFO] database P0000064327 T0000000000000064327  info get from dcr disk, asm_host = localhost, asm_port = 1547395440, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(17) 2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000127206  socket_err_should_retry errno:104', '(18) 2025-04-23 15:10:32.743 [WARNING] database P0000010414 T0000000000000123369  socket_err_should_retry errno:104', '(19) 2025-04-23 15:35:44.511 [INFO] database P0000059105 T0000000000000059105  INI parameter DW_PORT changed, the original value 0, new value 4566', '(20) 2025-04-23 14:58:55.554 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.', '(21) 2025-04-23 15:08:04.426 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit.', '(22) 2025-04-23 15:04:51.975 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.', '(23) 2025-04-23 14:45:01.185 [WARNING] database P0000010414 T0000000000000126115  socket_err_should_retry errno:104', '(24) 2025-04-23 14:56:26.674 [ERROR] database P0000010414 T0000000000000015340  Reached the max session limit.', '(25) 2025-04-23 15:11:12.948 [WARNING] database P0000010414 T0000000000000077762  socket_err_should_retry errno:104', '(26) 2025-04-23 14:48:45.628 [WARNING] database P0000010414 T0000000000000132706  socket_err_should_retry errno:38', '(27) 2025-04-23 15:04:26.150 [ERROR] database P0000010414 T0000000000000015343  Reached the max session limit.', '(28) 2025-04-23 14:43:31.161 [WARNING] database P0000010414 T0000000000000015201  Get svr info time used:31', '(29) 2025-04-23 14:45:21.121 [WARNING] database P0000010414 T0000000000000126757  socket_err_should_retry errno:38', '(30) 2025-04-23 15:34:33.809 [INFO] database P0000057373 T0000000000000057373  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351']</t>
+          <t>['(1) 2025-04-23 14:59:47.357 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit.', '(2) 2025-04-23 15:57:04.145 [INFO] database P0000089970 T0000000000000089970  INI parameter DPC_2PC changed, the original value 1, new value 0', '(3) 2025-04-23 15:53:32.152 [INFO] database P0000084718 T0000000000000084718  version info: enterprise', '(4) 2025-04-23 15:49:58.307 [INFO] database P0000079472 T0000000000000079472  info get from dcr disk, asm_host = localhost, asm_port = 1055164720, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(5) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000069168  socket_err_should_retry errno:104', '(6) 2025-04-23 15:58:15.715 [INFO] database P0000091708 T0000000000000091708  dmshm2_attach, success, shm id 294913', '(7) 2025-04-23 16:00:38.822 [INFO] database P0000095243 T0000000000000095243  info get from dcr disk, asm_host = localhost, asm_port = 1288713792, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(8) 2025-04-23 15:48:47.048 [INFO] database P0000077779 T0000000000000077779  dmshm2_attach, success, shm id 294913', '(9) 2025-04-23 15:11:13.082 [ERROR] database P0000010414 T0000000000000015350  Reached the max session limit.', '(10) 2025-04-23 15:14:28.745 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit.', '(11) 2025-04-23 14:57:57.995 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit.', '(12) 2025-04-23 15:40:28.868 [INFO] database P0000066033 T0000000000000066033  INI parameter DPC_2PC changed, the original value 1, new value 0', '(13) 2025-04-23 15:26:15.993 [INFO] database P0000045167 T0000000000000045167  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(14) 2025-04-23 14:53:03.044 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.', '(15) 2025-04-23 15:26:15.744 [INFO] database P0000045167 T0000000000000045167  INI parameter DPC_2PC changed, the original value 1, new value 0', '(16) 2025-04-23 15:10:30.019 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.', '(17) 2025-04-23 15:28:38.273 [INFO] database P0000048633 T0000000000000048633  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(18) 2025-04-23 15:02:38.521 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.', '(19) 2025-04-23 14:57:54.970 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.', '(20) 2025-04-23 16:00:38.836 [INFO] database P0000095243 T0000000000000095243  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(21) 2025-04-23 14:55:38.427 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit.', '(22) 2025-04-23 15:28:38.272 [INFO] database P0000048633 T0000000000000048633  dmshm2_attach, success, shm id 294913', '(23) 2025-04-23 15:51:09.106 [INFO] database P0000081263 T0000000000000081263  version info: enterprise', '(24) 2025-04-23 15:04:17.585 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit.', '(25) 2025-04-23 15:31:00.119 [INFO] database P0000052077 T0000000000000052077  INI parameter DW_PORT changed, the original value 0, new value 4566', '(26) 2025-04-23 14:42:59.204 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942200438), ckpt_fil(1), ckpt_off(226969088), cur_lsn(2826942346072), l_next_seq(46659482256), g_next_seq(46630684993), cur_free(259532800), total_space(8589926400), used_space(32563712), free_space(8557362688), n_ep(1)', '(27) 2025-04-23 14:53:59.516 [ERROR] database P0000010414 T0000000000000015353  Reached the max session limit.', '(28) 2025-04-23 15:27:27.308 [INFO] database P0000046902 T0000000000000046902  dmshm2_attach, success, shm id 294913', '(29) 2025-04-23 14:57:07.315 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.', '(30) 2025-04-23 14:42:59.193 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(31) 2025-04-23 14:44:01.236 [WARNING] database P0000010414 T0000000000000124418  socket_err_should_retry errno:104', '(32) 2025-04-23 15:21:31.608 [INFO] database P0000038061 T0000000000000038061  dmshm2_attach, success, shm id 294913', '(33) 2025-04-23 15:26:16.000 [INFO] database P0000045167 T0000000000000045167  version info: enterprise', '(34) 2025-04-23 15:04:16.013 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit.', '(35) 2025-04-23 15:15:37.478 [ERROR] database P0000010414 T0000000000000015322  Reached the max session limit.', '(36) 2025-04-23 15:32:11.548 [INFO] database P0000053877 T0000000000000053877  dmshm2_attach, success, shm id 294913', '(37) 2025-04-23 15:17:58.457 [INFO] database P0000032706 T0000000000000032706  info get from dcr disk, asm_host = localhost, asm_port = 1167375216, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(38) 2025-04-23 15:06:32.787 [ERROR] database P0000010414 T0000000000000015311  Reached the max session limit.', '(39) 2025-04-23 14:42:59.204 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(40) 2025-04-23 15:49:58.320 [INFO] database P0000079472 T0000000000000079472  dmshm2_attach, success, shm id 294913', '(41) 2025-04-23 14:58:55.211 [ERROR] database P0000010414 T0000000000000015304  Reached the max session limit.', '(42) 2025-04-23 15:23:53.897 [INFO] database P0000041615 T0000000000000041615  dmshm2_attach, success, shm id 294913', '(43) 2025-04-23 14:50:04.170 [WARNING] database P0000010414 T0000000000000133070  socket_err_should_retry errno:104', '(44) 2025-04-23 14:54:31.535 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit.', '(45) 2025-04-23 15:36:55.937 [INFO] database P0000060808 T0000000000000060808  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(46) 2025-04-23 15:16:45.084 [FATAL] database P0000010414 T0000000000000010414  sigterm_handler receive signal 11', '(47) 2025-04-23 15:02:23.613 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit.', '(48) 2025-04-23 14:42:59.186 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942181083), ckpt_fil(1), ckpt_off(222162944), cur_lsn(2826942345304), l_next_seq(46659482240), g_next_seq(46630684977), cur_free(259026944), total_space(8589926400), used_space(37253120), free_space(8552673280), n_ep(1)', '(49) 2025-04-23 15:53:32.130 [INFO] database P0000084718 T0000000000000084718  info get from dcr disk, asm_host = localhost, asm_port = -1557384896, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(50) 2025-04-23 15:46:24.354 [INFO] database P0000074366 T0000000000000074366  INI parameter DW_PORT changed, the original value 0, new value 4566', '(51) 2025-04-23 14:50:01.882 [WARNING] database P0000010414 T0000000000000135098  socket_err_should_retry errno:104']</t>
         </is>
       </c>
     </row>
@@ -529,42 +548,69 @@
         - status must be 0 if the log entry is a normal operation or informational message.
         - Output **only** a list of tuples. No extra text or explanation.
         ## Input Logs:
-         (31) 2025-04-23 15:41:42.829 [INFO] database P0000067641 T0000000000000067641  info get from dcr disk, asm_host = localhost, asm_port = -1636733808, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (32) 2025-04-23 14:50:04.170 [WARNING] database P0000010414 T0000000000000133540  socket_err_should_retry errno:104 (33) 2025-04-23 15:27:27.317 [INFO] database P0000046902 T0000000000000046902  version info: enterprise (34) 2025-04-23 15:10:52.473 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit. (35) 2025-04-23 15:10:03.790 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit. (36) 2025-04-23 15:20:20.262 [INFO] database P0000036263 T0000000000000036263  INI parameter DW_PORT changed, the original value 0, new value 4566 (37) 2025-04-23 15:29:49.022 [INFO] database P0000050345 T0000000000000050345  INI parameter DW_PORT changed, the original value 0, new value 4566 (38) 2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000125099  socket_err_should_retry errno:104 (39) 2025-04-23 15:20:20.633 [INFO] database P0000036263 T0000000000000036263  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (40) 2025-04-23 15:40:29.248 [INFO] database P0000066033 T0000000000000066033  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (41) 2025-04-23 15:38:06.944 [INFO] database P0000062613 T0000000000000062613  dmshm2_attach, success, shm id 294913 (42) 2025-04-23 15:54:41.967 [INFO] database P0000086447 T0000000000000086447  INI parameter DPC_2PC changed, the original value 1, new value 0 (43) 2025-04-23 15:58:15.702 [INFO] database P0000091708 T0000000000000091708  info get from dcr disk, asm_host = localhost, asm_port = 1974518400, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (44) 2025-04-23 14:43:00.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942206388), ckpt_fil(1), ckpt_off(228001792), cur_lsn(2826942354102), l_next_seq(46659482378), g_next_seq(46630685115), cur_free(260492800), total_space(8589926400), used_space(32491008), free_space(8557435392), n_ep(1) (45) 2025-04-23 15:49:58.321 [INFO] database P0000079472 T0000000000000079472  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (46) 2025-04-23 15:32:11.549 [INFO] database P0000053877 T0000000000000053877  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (47) 2025-04-23 15:57:04.523 [INFO] database P0000089970 T0000000000000089970  version info: enterprise (48) 2025-04-23 15:48:47.049 [INFO] database P0000077779 T0000000000000077779  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (49) 2025-04-23 14:57:44.004 [WARNING] database P0000010414 T0000000000000067469  socket_err_should_retry errno:104 (50) 2025-04-23 15:21:31.353 [INFO] database P0000038061 T0000000000000038061  INI parameter DW_PORT changed, the original value 0, new value 4566 (51) 2025-04-23 15:57:04.501 [INFO] database P0000089970 T0000000000000089970  info get from dcr disk, asm_host = localhost, asm_port = -1193106144, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (52) 2025-04-23 16:00:38.822 [INFO] database P0000095243 T0000000000000095243  info get from dcr disk, asm_host = localhost, asm_port = 1288713792, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (53) 2025-04-23 15:13:09.229 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit. (54) 2025-04-23 15:00:47.959 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit. (55) 2025-04-23 15:21:31.609 [INFO] database P0000038061 T0000000000000038061  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+         (52) 2025-04-23 15:14:02.347 [ERROR] database P0000010414 T0000000000000015342  Reached the max session limit. (53) 2025-04-23 15:41:40.698 [INFO] database P0000067641 T0000000000000067641  INI parameter DW_PORT changed, the original value 0, new value 4566 (54) 2025-04-23 15:40:28.865 [INFO] database P0000066033 T0000000000000066033  INI parameter DW_PORT changed, the original value 0, new value 4566 (55) 2025-04-23 15:06:35.720 [ERROR] database P0000010414 T0000000000000015342  Reached the max session limit. (56) 2025-04-23 15:47:35.765 [INFO] database P0000076042 T0000000000000076042  version info: enterprise (57) 2025-04-23 14:43:31.161 [INFO] database P0000010414 T0000000000000015201  utsk_get_dw_svr_info used 31 seconds (58) 2025-04-23 14:48:09.610 [WARNING] database P0000010414 T0000000000000131641  socket_err_should_retry errno:38 (59) 2025-04-23 15:40:29.234 [INFO] database P0000066033 T0000000000000066033  info get from dcr disk, asm_host = localhost, asm_port = -32346592, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (60) 2025-04-23 15:16:40.755 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit. (61) 2025-04-23 15:34:33.418 [INFO] database P0000057373 T0000000000000057373  INI parameter DW_PORT changed, the original value 0, new value 4566 (62) 2025-04-23 15:59:26.334 [INFO] database P0000093438 T0000000000000093438  INI parameter DPC_2PC changed, the original value 1, new value 0 (63) 2025-04-23 15:38:06.697 [INFO] database P0000062613 T0000000000000062613  INI parameter DPC_2PC changed, the original value 1, new value 0 (64) 2025-04-23 14:53:17.223 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit. (65) 2025-04-23 15:54:42.270 [INFO] database P0000086447 T0000000000000086447  dmshm2_attach, success, shm id 294913 (66) 2025-04-23 15:36:55.607 [INFO] database P0000060808 T0000000000000060808  INI parameter DPC_2PC changed, the original value 1, new value 0 (67) 2025-04-23 15:09:09.182 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit. (68) 2025-04-23 15:47:35.450 [INFO] database P0000076042 T0000000000000076042  INI parameter DW_PORT changed, the original value 0, new value 4566 (69) 2025-04-23 14:43:01.309 [WARNING] database P0000010414 T0000000000000122737  socket_err_should_retry errno:104 (70) 2025-04-23 15:17:58.487 [INFO] database P0000032706 T0000000000000032706  version info: enterprise (71) 2025-04-23 15:21:31.617 [INFO] database P0000038061 T0000000000000038061  version info: enterprise (72) 2025-04-23 14:55:03.044 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit. (73) 2025-04-23 15:45:14.253 [INFO] database P0000072676 T0000000000000072676  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (74) 2025-04-23 15:00:04.220 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit. (75) 2025-04-23 15:28:37.935 [INFO] database P0000048633 T0000000000000048633  INI parameter DW_PORT changed, the original value 0, new value 4566 (76) 2025-04-23 15:29:49.025 [INFO] database P0000050345 T0000000000000050345  INI parameter DPC_2PC changed, the original value 1, new value 0 (77) 2025-04-23 15:07:05.076 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit. (78) 2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000013572  checkpoint begin, used_space[37070336], free_space[8552856064]... (79) 2025-04-23 15:17:58.479 [INFO] database P0000032706 T0000000000000032706  dmshm2_attach, success, shm id 294913 (80) 2025-04-23 15:04:50.324 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit. (81) 2025-04-23 15:49:57.600 [INFO] database P0000079472 T0000000000000079472  INI parameter DPC_2PC changed, the original value 1, new value 0 (82) 2025-04-23 15:10:32.743 [WARNING] database P0000010414 T0000000000000123369  socket_err_should_retry errno:104 (83) 2025-04-23 15:32:11.535 [INFO] database P0000053877 T0000000000000053877  info get from dcr disk, asm_host = localhost, asm_port = -1909819136, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (84) 2025-04-23 15:00:41.280 [ERROR] database P0000010414 T0000000000000015348  Reached the max session limit. (85) 2025-04-23 15:55:54.132 [INFO] database P0000088185 T0000000000000088185  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (86) 2025-04-23 14:43:00.189 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (87) 2025-04-23 15:42:51.687 [INFO] database P0000069304 T0000000000000069304  version info: enterprise (88) 2025-04-23 15:20:20.632 [INFO] database P0000036263 T0000000000000036263  dmshm2_attach, success, shm id 294913 (89) 2025-04-23 15:12:29.704 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit. (90) 2025-04-23 15:14:59.739 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit. (91) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000081132  socket_err_should_retry errno:104 (92) 2025-04-23 14:45:01.185 [WARNING] database P0000010414 T0000000000000126115  socket_err_should_retry errno:104 (93) 2025-04-23 15:44:02.630 [INFO] database P0000070934 T0000000000000070934  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (94) 2025-04-23 15:27:26.851 [INFO] database P0000046902 T0000000000000046902  INI parameter DPC_2PC changed, the original value 1, new value 0 (95) 2025-04-23 16:01:48.494 [INFO] database P0000097032 T0000000000000097032  INI parameter DPC_2PC changed, the original value 1, new value 0 (96) 2025-04-23 14:55:26.228 [ERROR] database P0000010414 T0000000000000015300  Reached the max session limit. (97) 2025-04-23 15:35:44.844 [INFO] database P0000059105 T0000000000000059105  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (98) 2025-04-23 15:55:54.118 [INFO] database P0000088185 T0000000000000088185  info get from dcr disk, asm_host = localhost, asm_port = -667439056, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (99) 2025-04-23 14:58:42.689 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit. (100) 2025-04-23 14:53:13.964 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit. (101) 2025-04-23 15:03:13.279 [ERROR] database P0000010414 T0000000000000015343  Reached the max session limit. (102) 2025-04-23 14:58:22.627 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit. (103) 2025-04-23 14:57:52.311 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit. (104) 2025-04-23 15:20:20.262 [INFO] database P0000036263 T0000000000000036263  INI parameter DW_PORT changed, the original value 0, new value 4566 (105) 2025-04-23 16:00:38.844 [INFO] database P0000095243 T0000000000000095243  version info: enterprise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-(31, 0)
-(32, 1)
-(33, 0)
-(34, 1)
-(35, 1)
-(36, 0)
-(37, 0)
-(38, 0)
-(39, 0)
-(40, 0)
-(41, 0)
-(42, 0)
-(43, 0)
-(44, 0)
-(45, 0)
-(46, 0)
-(47, 0)
-(48, 0)
-(49, 1)
-(50, 0)
-(51, 0)
-(52, 0)
-(53, 1)
-(54, 1)
-(55, 0)</t>
+(156, 0)
+(157, 1)
+(158, 1)
+(159, 0)
+(160, 0)
+(161, 1)
+(162, 1)
+(163, 0)
+(164, 1)
+(165, 0)
+(166, 0)
+(167, 0)
+(168, 0)
+(169, 0)
+(170, 1)
+(171, 0)
+(172, 0)
+(173, 0)
+(174, 1)
+(175, 1)
+(176, 0)
+(177, 0)
+(178, 1)
+(179, 0)
+(180, 1)
+(181, 1)
+(182, 1)
+(183, 1)
+(184, 1)
+(185, 0)
+(186, 0)
+(187, 0)
+(188, 1)
+(189, 1)
+(190, 0)
+(191, 1)
+(192, 1)
+(193, 1)
+(194, 1)
+(195, 1)
+(196, 0)
+(197, 1)
+(198, 1)
+(199, 0)
+(200, 0)
+(201, 0)
+(202, 1)
+(203, 0)
+(204, 0)
+(205, 0)
+(206, 1)
+(207, 1)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['(31) 2025-04-23 15:41:42.829 [INFO] database P0000067641 T0000000000000067641  info get from dcr disk, asm_host = localhost, asm_port = -1636733808, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(32) 2025-04-23 14:50:04.170 [WARNING] database P0000010414 T0000000000000133540  socket_err_should_retry errno:104', '(33) 2025-04-23 15:27:27.317 [INFO] database P0000046902 T0000000000000046902  version info: enterprise', '(34) 2025-04-23 15:10:52.473 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit.', '(35) 2025-04-23 15:10:03.790 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit.', '(36) 2025-04-23 15:20:20.262 [INFO] database P0000036263 T0000000000000036263  INI parameter DW_PORT changed, the original value 0, new value 4566', '(37) 2025-04-23 15:29:49.022 [INFO] database P0000050345 T0000000000000050345  INI parameter DW_PORT changed, the original value 0, new value 4566', '(38) 2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000125099  socket_err_should_retry errno:104', '(39) 2025-04-23 15:20:20.633 [INFO] database P0000036263 T0000000000000036263  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(40) 2025-04-23 15:40:29.248 [INFO] database P0000066033 T0000000000000066033  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(41) 2025-04-23 15:38:06.944 [INFO] database P0000062613 T0000000000000062613  dmshm2_attach, success, shm id 294913', '(42) 2025-04-23 15:54:41.967 [INFO] database P0000086447 T0000000000000086447  INI parameter DPC_2PC changed, the original value 1, new value 0', '(43) 2025-04-23 15:58:15.702 [INFO] database P0000091708 T0000000000000091708  info get from dcr disk, asm_host = localhost, asm_port = 1974518400, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(44) 2025-04-23 14:43:00.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942206388), ckpt_fil(1), ckpt_off(228001792), cur_lsn(2826942354102), l_next_seq(46659482378), g_next_seq(46630685115), cur_free(260492800), total_space(8589926400), used_space(32491008), free_space(8557435392), n_ep(1)', '(45) 2025-04-23 15:49:58.321 [INFO] database P0000079472 T0000000000000079472  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(46) 2025-04-23 15:32:11.549 [INFO] database P0000053877 T0000000000000053877  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(47) 2025-04-23 15:57:04.523 [INFO] database P0000089970 T0000000000000089970  version info: enterprise', '(48) 2025-04-23 15:48:47.049 [INFO] database P0000077779 T0000000000000077779  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(49) 2025-04-23 14:57:44.004 [WARNING] database P0000010414 T0000000000000067469  socket_err_should_retry errno:104', '(50) 2025-04-23 15:21:31.353 [INFO] database P0000038061 T0000000000000038061  INI parameter DW_PORT changed, the original value 0, new value 4566', '(51) 2025-04-23 15:57:04.501 [INFO] database P0000089970 T0000000000000089970  info get from dcr disk, asm_host = localhost, asm_port = -1193106144, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(52) 2025-04-23 16:00:38.822 [INFO] database P0000095243 T0000000000000095243  info get from dcr disk, asm_host = localhost, asm_port = 1288713792, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(53) 2025-04-23 15:13:09.229 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.', '(54) 2025-04-23 15:00:47.959 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.', '(55) 2025-04-23 15:21:31.609 [INFO] database P0000038061 T0000000000000038061  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351']</t>
+          <t>['(52) 2025-04-23 15:14:02.347 [ERROR] database P0000010414 T0000000000000015342  Reached the max session limit.', '(53) 2025-04-23 15:41:40.698 [INFO] database P0000067641 T0000000000000067641  INI parameter DW_PORT changed, the original value 0, new value 4566', '(54) 2025-04-23 15:40:28.865 [INFO] database P0000066033 T0000000000000066033  INI parameter DW_PORT changed, the original value 0, new value 4566', '(55) 2025-04-23 15:06:35.720 [ERROR] database P0000010414 T0000000000000015342  Reached the max session limit.', '(56) 2025-04-23 15:47:35.765 [INFO] database P0000076042 T0000000000000076042  version info: enterprise', '(57) 2025-04-23 14:43:31.161 [INFO] database P0000010414 T0000000000000015201  utsk_get_dw_svr_info used 31 seconds', '(58) 2025-04-23 14:48:09.610 [WARNING] database P0000010414 T0000000000000131641  socket_err_should_retry errno:38', '(59) 2025-04-23 15:40:29.234 [INFO] database P0000066033 T0000000000000066033  info get from dcr disk, asm_host = localhost, asm_port = -32346592, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(60) 2025-04-23 15:16:40.755 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit.', '(61) 2025-04-23 15:34:33.418 [INFO] database P0000057373 T0000000000000057373  INI parameter DW_PORT changed, the original value 0, new value 4566', '(62) 2025-04-23 15:59:26.334 [INFO] database P0000093438 T0000000000000093438  INI parameter DPC_2PC changed, the original value 1, new value 0', '(63) 2025-04-23 15:38:06.697 [INFO] database P0000062613 T0000000000000062613  INI parameter DPC_2PC changed, the original value 1, new value 0', '(64) 2025-04-23 14:53:17.223 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit.', '(65) 2025-04-23 15:54:42.270 [INFO] database P0000086447 T0000000000000086447  dmshm2_attach, success, shm id 294913', '(66) 2025-04-23 15:36:55.607 [INFO] database P0000060808 T0000000000000060808  INI parameter DPC_2PC changed, the original value 1, new value 0', '(67) 2025-04-23 15:09:09.182 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit.', '(68) 2025-04-23 15:47:35.450 [INFO] database P0000076042 T0000000000000076042  INI parameter DW_PORT changed, the original value 0, new value 4566', '(69) 2025-04-23 14:43:01.309 [WARNING] database P0000010414 T0000000000000122737  socket_err_should_retry errno:104', '(70) 2025-04-23 15:17:58.487 [INFO] database P0000032706 T0000000000000032706  version info: enterprise', '(71) 2025-04-23 15:21:31.617 [INFO] database P0000038061 T0000000000000038061  version info: enterprise', '(72) 2025-04-23 14:55:03.044 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.', '(73) 2025-04-23 15:45:14.253 [INFO] database P0000072676 T0000000000000072676  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(74) 2025-04-23 15:00:04.220 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit.', '(75) 2025-04-23 15:28:37.935 [INFO] database P0000048633 T0000000000000048633  INI parameter DW_PORT changed, the original value 0, new value 4566', '(76) 2025-04-23 15:29:49.025 [INFO] database P0000050345 T0000000000000050345  INI parameter DPC_2PC changed, the original value 1, new value 0', '(77) 2025-04-23 15:07:05.076 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit.', '(78) 2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000013572  checkpoint begin, used_space[37070336], free_space[8552856064]...', '(79) 2025-04-23 15:17:58.479 [INFO] database P0000032706 T0000000000000032706  dmshm2_attach, success, shm id 294913', '(80) 2025-04-23 15:04:50.324 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit.', '(81) 2025-04-23 15:49:57.600 [INFO] database P0000079472 T0000000000000079472  INI parameter DPC_2PC changed, the original value 1, new value 0', '(82) 2025-04-23 15:10:32.743 [WARNING] database P0000010414 T0000000000000123369  socket_err_should_retry errno:104', '(83) 2025-04-23 15:32:11.535 [INFO] database P0000053877 T0000000000000053877  info get from dcr disk, asm_host = localhost, asm_port = -1909819136, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(84) 2025-04-23 15:00:41.280 [ERROR] database P0000010414 T0000000000000015348  Reached the max session limit.', '(85) 2025-04-23 15:55:54.132 [INFO] database P0000088185 T0000000000000088185  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(86) 2025-04-23 14:43:00.189 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(87) 2025-04-23 15:42:51.687 [INFO] database P0000069304 T0000000000000069304  version info: enterprise', '(88) 2025-04-23 15:20:20.632 [INFO] database P0000036263 T0000000000000036263  dmshm2_attach, success, shm id 294913', '(89) 2025-04-23 15:12:29.704 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit.', '(90) 2025-04-23 15:14:59.739 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit.', '(91) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000081132  socket_err_should_retry errno:104', '(92) 2025-04-23 14:45:01.185 [WARNING] database P0000010414 T0000000000000126115  socket_err_should_retry errno:104', '(93) 2025-04-23 15:44:02.630 [INFO] database P0000070934 T0000000000000070934  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(94) 2025-04-23 15:27:26.851 [INFO] database P0000046902 T0000000000000046902  INI parameter DPC_2PC changed, the original value 1, new value 0', '(95) 2025-04-23 16:01:48.494 [INFO] database P0000097032 T0000000000000097032  INI parameter DPC_2PC changed, the original value 1, new value 0', '(96) 2025-04-23 14:55:26.228 [ERROR] database P0000010414 T0000000000000015300  Reached the max session limit.', '(97) 2025-04-23 15:35:44.844 [INFO] database P0000059105 T0000000000000059105  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(98) 2025-04-23 15:55:54.118 [INFO] database P0000088185 T0000000000000088185  info get from dcr disk, asm_host = localhost, asm_port = -667439056, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(99) 2025-04-23 14:58:42.689 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit.', '(100) 2025-04-23 14:53:13.964 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit.', '(101) 2025-04-23 15:03:13.279 [ERROR] database P0000010414 T0000000000000015343  Reached the max session limit.', '(102) 2025-04-23 14:58:22.627 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit.', '(103) 2025-04-23 14:57:52.311 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit.', '(104) 2025-04-23 15:20:20.262 [INFO] database P0000036263 T0000000000000036263  INI parameter DW_PORT changed, the original value 0, new value 4566', '(105) 2025-04-23 16:00:38.844 [INFO] database P0000095243 T0000000000000095243  version info: enterprise']</t>
         </is>
       </c>
     </row>
@@ -585,18 +631,22 @@
         - status must be 0 if the log entry is a normal operation or informational message.
         - Output **only** a list of tuples. No extra text or explanation.
         ## Input Logs:
-         (56) 2025-04-23 14:59:50.202 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit. (57) 2025-04-23 15:10:32.744 [WARNING] database P0000010414 T0000000000000126573  socket_err_should_retry errno:104 (58) 2025-04-23 15:04:26.024 [WARNING] database P0000010414 T0000000000000083672  socket_err_should_retry errno:104 (59) 2025-04-23 14:55:48.356 [ERROR] database P0000010414 T0000000000000015297  Reached the max session limit. (60) 2025-04-23 15:33:22.587 [INFO] database P0000055615 T0000000000000055615  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (61) 2025-04-23 15:09:09.182 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit. (62) 2025-04-23 15:25:04.971 [INFO] database P0000043419 T0000000000000043419  info get from dcr disk, asm_host = localhost, asm_port = -495345360, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (63) 2025-04-23 14:43:00.190 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942206355), ckpt_fil(1), ckpt_off(228001792), cur_lsn(2826942351158), l_next_seq(46659482377), g_next_seq(46630685114), cur_free(260260864), total_space(8589926400), used_space(32259072), free_space(8557667328), n_ep(1) (64) 2025-04-23 14:59:47.357 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit. (65) 2025-04-23 15:53:30.940 [INFO] database P0000084718 T0000000000000084718  INI parameter DPC_2PC changed, the original value 1, new value 0 (66) 2025-04-23 15:51:08.696 [INFO] database P0000081263 T0000000000000081263  INI parameter DPC_2PC changed, the original value 1, new value 0 (67) 2025-04-23 14:48:09.610 [WARNING] database P0000010414 T0000000000000131641  socket_err_should_retry errno:38 (68) 2025-04-23 15:55:54.131 [INFO] database P0000088185 T0000000000000088185  dmshm2_attach, success, shm id 294913 (69) 2025-04-23 15:00:18.038 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit. (70) 2025-04-23 15:45:14.239 [INFO] database P0000072676 T0000000000000072676  info get from dcr disk, asm_host = localhost, asm_port = -1605455696, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (71) 2025-04-23 15:41:40.698 [INFO] database P0000067641 T0000000000000067641  INI parameter DW_PORT changed, the original value 0, new value 4566 (72) 2025-04-23 15:59:26.334 [INFO] database P0000093438 T0000000000000093438  INI parameter DPC_2PC changed, the original value 1, new value 0 (73) 2025-04-23 15:49:57.597 [INFO] database P0000079472 T0000000000000079472  INI parameter DW_PORT changed, the original value 0, new value 4566 (74) 2025-04-23 15:54:41.964 [INFO] database P0000086447 T0000000000000086447  INI parameter DW_PORT changed, the original value 0, new value 4566 (75) 2025-04-23 14:46:01.127 [WARNING] database P0000010414 T0000000000000127812  socket_err_should_retry errno:104 (76) 2025-04-23 14:59:25.790 [ERROR] database P0000010414 T0000000000000015301  Reached the max session limit. (77) 2025-04-23 15:14:02.347 [ERROR] database P0000010414 T0000000000000015342  Reached the max session limit. (78) 2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000015249  checkpoint generate by dirty_pages[10536] &gt; ckpt_dirty_pages[10000] (79) 2025-04-23 15:17:58.479 [INFO] database P0000032706 T0000000000000032706  dmshm2_attach, success, shm id 294913 (80) 2025-04-23 15:53:32.144 [INFO] database P0000084718 T0000000000000084718  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (81) 2025-04-23 14:55:10.806 [WARNING] database P0000010414 T0000000000000131695  socket_err_should_retry errno:104 (82) 2025-04-23 15:32:11.219 [INFO] database P0000053877 T0000000000000053877  INI parameter DW_PORT changed, the original value 0, new value 4566 (83) 2025-04-23 16:00:37.442 [INFO] database P0000095243 T0000000000000095243  INI parameter DW_PORT changed, the original value 0, new value 4566 (84) 2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000123096  socket_err_should_retry errno:104</t>
+         (106) 2025-04-23 15:39:17.777 [INFO] database P0000064327 T0000000000000064327  INI parameter DW_PORT changed, the original value 0, new value 4566 (107) 2025-04-23 15:22:42.694 [INFO] database P0000039800 T0000000000000039800  dmshm2_attach, success, shm id 294913 (108) 2025-04-23 14:57:44.004 [WARNING] database P0000010414 T0000000000000067469  socket_err_should_retry errno:104 (109) 2025-04-23 15:00:22.246 [WARNING] database P0000010414 T0000000000000038860  socket_err_should_retry errno:104 (110) 2025-04-23 15:21:31.357 [INFO] database P0000038061 T0000000000000038061  INI parameter DPC_2PC changed, the original value 1, new value 0 (111) 2025-04-23 14:57:05.371 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit. (112) 2025-04-23 15:55:53.060 [INFO] database P0000088185 T0000000000000088185  INI parameter DPC_2PC changed, the original value 1, new value 0 (113) 2025-04-23 15:11:26.366 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit. (114) 2025-04-23 15:08:29.745 [WARNING] database P0000010414 T0000000000000020558  socket_err_should_retry errno:104 (115) 2025-04-23 15:41:40.701 [INFO] database P0000067641 T0000000000000067641  INI parameter DPC_2PC changed, the original value 1, new value 0 (116) 2025-04-23 14:43:00.184 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942205832), ckpt_fil(1), ckpt_off(227897856), cur_lsn(2826942349077), l_next_seq(46659482376), g_next_seq(46630685113), cur_free(260072448), total_space(8589926400), used_space(32174592), free_space(8557751808), n_ep(1) (117) 2025-04-23 14:54:41.604 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit. (118) 2025-04-23 15:08:59.204 [ERROR] database P0000010414 T0000000000000015314  Reached the max session limit. (119) 2025-04-23 15:10:29.512 [ERROR] database P0000010414 T0000000000000015325  Reached the max session limit. (120) 2025-04-23 14:58:58.024 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit. (121) 2025-04-23 15:19:09.585 [INFO] database P0000034512 T0000000000000034512  dmshm2_attach, success, shm id 294913 (122) 2025-04-23 14:43:00.183 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (123) 2025-04-23 14:59:07.322 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit. (124) 2025-04-23 15:02:30.311 [ERROR] database P0000010414 T0000000000000015357  Reached the max session limit. (125) 2025-04-23 15:11:12.950 [WARNING] database P0000010414 T0000000000000067645  socket_err_should_retry errno:104 (126) 2025-04-23 15:31:00.456 [INFO] database P0000052077 T0000000000000052077  info get from dcr disk, asm_host = localhost, asm_port = 1325557600, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (127) 2025-04-23 15:10:32.741 [WARNING] database P0000010414 T0000000000000125500  socket_err_should_retry errno:104 (128) 2025-04-23 15:38:06.694 [INFO] database P0000062613 T0000000000000062613  INI parameter DW_PORT changed, the original value 0, new value 4566 (129) 2025-04-23 15:59:26.772 [INFO] database P0000093438 T0000000000000093438  version info: enterprise (130) 2025-04-23 15:47:35.757 [INFO] database P0000076042 T0000000000000076042  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (131) 2025-04-23 15:36:55.944 [INFO] database P0000060808 T0000000000000060808  version info: enterprise (132) 2025-04-23 15:07:52.608 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit. (133) 2025-04-23 15:39:18.015 [INFO] database P0000064327 T0000000000000064327  info get from dcr disk, asm_host = localhost, asm_port = 1547395440, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (134) 2025-04-23 14:54:20.919 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit. (135) 2025-04-23 15:08:29.851 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit. (136) 2025-04-23 15:11:18.428 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit. (137) 2025-04-23 16:00:37.446 [INFO] database P0000095243 T0000000000000095243  INI parameter DPC_2PC changed, the original value 1, new value 0 (138) 2025-04-23 14:43:31.161 [WARNING] database P0000010414 T0000000000000015201  Get svr info time used:31 (139) 2025-04-23 14:58:47.494 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit. (140) 2025-04-23 15:58:15.724 [INFO] database P0000091708 T0000000000000091708  version info: enterprise (141) 2025-04-23 14:43:31.161 [INFO] database P0000010414 T0000000000000015201  utsk_dw_udp_bro used 31s, cur_bro_time = 1745390611, last_bro_time = 1745390580 (142) 2025-04-23 15:34:33.795 [INFO] database P0000057373 T0000000000000057373  info get from dcr disk, asm_host = localhost, asm_port = 24652992, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (143) 2025-04-23 14:42:36.073 [INFO] database P0000010414 T0000000000000013572  checkpoint end, 969 pages flushed, used_space[32018944], free_space[8557907456]. (144) 2025-04-23 15:29:49.022 [INFO] database P0000050345 T0000000000000050345  INI parameter DW_PORT changed, the original value 0, new value 4566 (145) 2025-04-23 15:39:17.780 [INFO] database P0000064327 T0000000000000064327  INI parameter DPC_2PC changed, the original value 1, new value 0 (146) 2025-04-23 15:10:32.743 [WARNING] database P0000010414 T0000000000000123810  socket_err_should_retry errno:104 (147) 2025-04-23 15:45:14.239 [INFO] database P0000072676 T0000000000000072676  info get from dcr disk, asm_host = localhost, asm_port = -1605455696, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (148) 2025-04-23 15:13:15.903 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit. (149) 2025-04-23 15:52:22.119 [INFO] database P0000082963 T0000000000000082963  info get from dcr disk, asm_host = localhost, asm_port = -919864256, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (150) 2025-04-23 15:39:18.028 [INFO] database P0000064327 T0000000000000064327  dmshm2_attach, success, shm id 294913 (151) 2025-04-23 14:54:19.302 [ERROR] database P0000010414 T0000000000000015311  Reached the max session limit. (152) 2025-04-23 15:36:55.604 [INFO] database P0000060808 T0000000000000060808  INI parameter DW_PORT changed, the original value 0, new value 4566 (153) 2025-04-23 15:23:53.906 [INFO] database P0000041615 T0000000000000041615  version info: enterprise (154) 2025-04-23 16:00:38.835 [INFO] database P0000095243 T0000000000000095243  dmshm2_attach, success, shm id 294913 (155) 2025-04-23 15:08:29.746 [WARNING] database P0000010414 T0000000000000020550  socket_err_should_retry errno:104</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-(56, 1)
-(57, 1)
+(52, 1)
+(53, 0)
+(54, 0)
+(55, 1)
+(56, 0)
+(57, 0)
 (58, 1)
-(59, 1)
-(60, 0)
-(61, 1)
+(59, 0)
+(60, 1)
+(61, 0)
 (62, 0)
 (63, 0)
 (64, 1)
@@ -607,24 +657,45 @@
 (69, 1)
 (70, 0)
 (71, 0)
-(72, 0)
+(72, 1)
 (73, 0)
-(74, 0)
-(75, 1)
-(76, 1)
+(74, 1)
+(75, 0)
+(76, 0)
 (77, 1)
 (78, 0)
 (79, 0)
-(80, 0)
-(81, 1)
-(82, 0)
+(80, 1)
+(81, 0)
+(82, 1)
 (83, 0)
-(84, 1)</t>
+(84, 1)
+(85, 0)
+(86, 0)
+(87, 0)
+(88, 0)
+(89, 1)
+(90, 1)
+(91, 1)
+(92, 1)
+(93, 0)
+(94, 0)
+(95, 0)
+(96, 1)
+(97, 0)
+(98, 0)
+(99, 1)
+(100, 1)
+(101, 1)
+(102, 1)
+(103, 1)
+(104, 0)
+(105, 0)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['(56) 2025-04-23 14:59:50.202 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit.', '(57) 2025-04-23 15:10:32.744 [WARNING] database P0000010414 T0000000000000126573  socket_err_should_retry errno:104', '(58) 2025-04-23 15:04:26.024 [WARNING] database P0000010414 T0000000000000083672  socket_err_should_retry errno:104', '(59) 2025-04-23 14:55:48.356 [ERROR] database P0000010414 T0000000000000015297  Reached the max session limit.', '(60) 2025-04-23 15:33:22.587 [INFO] database P0000055615 T0000000000000055615  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(61) 2025-04-23 15:09:09.182 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit.', '(62) 2025-04-23 15:25:04.971 [INFO] database P0000043419 T0000000000000043419  info get from dcr disk, asm_host = localhost, asm_port = -495345360, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(63) 2025-04-23 14:43:00.190 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942206355), ckpt_fil(1), ckpt_off(228001792), cur_lsn(2826942351158), l_next_seq(46659482377), g_next_seq(46630685114), cur_free(260260864), total_space(8589926400), used_space(32259072), free_space(8557667328), n_ep(1)', '(64) 2025-04-23 14:59:47.357 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit.', '(65) 2025-04-23 15:53:30.940 [INFO] database P0000084718 T0000000000000084718  INI parameter DPC_2PC changed, the original value 1, new value 0', '(66) 2025-04-23 15:51:08.696 [INFO] database P0000081263 T0000000000000081263  INI parameter DPC_2PC changed, the original value 1, new value 0', '(67) 2025-04-23 14:48:09.610 [WARNING] database P0000010414 T0000000000000131641  socket_err_should_retry errno:38', '(68) 2025-04-23 15:55:54.131 [INFO] database P0000088185 T0000000000000088185  dmshm2_attach, success, shm id 294913', '(69) 2025-04-23 15:00:18.038 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.', '(70) 2025-04-23 15:45:14.239 [INFO] database P0000072676 T0000000000000072676  info get from dcr disk, asm_host = localhost, asm_port = -1605455696, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(71) 2025-04-23 15:41:40.698 [INFO] database P0000067641 T0000000000000067641  INI parameter DW_PORT changed, the original value 0, new value 4566', '(72) 2025-04-23 15:59:26.334 [INFO] database P0000093438 T0000000000000093438  INI parameter DPC_2PC changed, the original value 1, new value 0', '(73) 2025-04-23 15:49:57.597 [INFO] database P0000079472 T0000000000000079472  INI parameter DW_PORT changed, the original value 0, new value 4566', '(74) 2025-04-23 15:54:41.964 [INFO] database P0000086447 T0000000000000086447  INI parameter DW_PORT changed, the original value 0, new value 4566', '(75) 2025-04-23 14:46:01.127 [WARNING] database P0000010414 T0000000000000127812  socket_err_should_retry errno:104', '(76) 2025-04-23 14:59:25.790 [ERROR] database P0000010414 T0000000000000015301  Reached the max session limit.', '(77) 2025-04-23 15:14:02.347 [ERROR] database P0000010414 T0000000000000015342  Reached the max session limit.', '(78) 2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000015249  checkpoint generate by dirty_pages[10536] &gt; ckpt_dirty_pages[10000]', '(79) 2025-04-23 15:17:58.479 [INFO] database P0000032706 T0000000000000032706  dmshm2_attach, success, shm id 294913', '(80) 2025-04-23 15:53:32.144 [INFO] database P0000084718 T0000000000000084718  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(81) 2025-04-23 14:55:10.806 [WARNING] database P0000010414 T0000000000000131695  socket_err_should_retry errno:104', '(82) 2025-04-23 15:32:11.219 [INFO] database P0000053877 T0000000000000053877  INI parameter DW_PORT changed, the original value 0, new value 4566', '(83) 2025-04-23 16:00:37.442 [INFO] database P0000095243 T0000000000000095243  INI parameter DW_PORT changed, the original value 0, new value 4566', '(84) 2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000123096  socket_err_should_retry errno:104']</t>
+          <t>['(106) 2025-04-23 15:39:17.777 [INFO] database P0000064327 T0000000000000064327  INI parameter DW_PORT changed, the original value 0, new value 4566', '(107) 2025-04-23 15:22:42.694 [INFO] database P0000039800 T0000000000000039800  dmshm2_attach, success, shm id 294913', '(108) 2025-04-23 14:57:44.004 [WARNING] database P0000010414 T0000000000000067469  socket_err_should_retry errno:104', '(109) 2025-04-23 15:00:22.246 [WARNING] database P0000010414 T0000000000000038860  socket_err_should_retry errno:104', '(110) 2025-04-23 15:21:31.357 [INFO] database P0000038061 T0000000000000038061  INI parameter DPC_2PC changed, the original value 1, new value 0', '(111) 2025-04-23 14:57:05.371 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit.', '(112) 2025-04-23 15:55:53.060 [INFO] database P0000088185 T0000000000000088185  INI parameter DPC_2PC changed, the original value 1, new value 0', '(113) 2025-04-23 15:11:26.366 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.', '(114) 2025-04-23 15:08:29.745 [WARNING] database P0000010414 T0000000000000020558  socket_err_should_retry errno:104', '(115) 2025-04-23 15:41:40.701 [INFO] database P0000067641 T0000000000000067641  INI parameter DPC_2PC changed, the original value 1, new value 0', '(116) 2025-04-23 14:43:00.184 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942205832), ckpt_fil(1), ckpt_off(227897856), cur_lsn(2826942349077), l_next_seq(46659482376), g_next_seq(46630685113), cur_free(260072448), total_space(8589926400), used_space(32174592), free_space(8557751808), n_ep(1)', '(117) 2025-04-23 14:54:41.604 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit.', '(118) 2025-04-23 15:08:59.204 [ERROR] database P0000010414 T0000000000000015314  Reached the max session limit.', '(119) 2025-04-23 15:10:29.512 [ERROR] database P0000010414 T0000000000000015325  Reached the max session limit.', '(120) 2025-04-23 14:58:58.024 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit.', '(121) 2025-04-23 15:19:09.585 [INFO] database P0000034512 T0000000000000034512  dmshm2_attach, success, shm id 294913', '(122) 2025-04-23 14:43:00.183 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(123) 2025-04-23 14:59:07.322 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit.', '(124) 2025-04-23 15:02:30.311 [ERROR] database P0000010414 T0000000000000015357  Reached the max session limit.', '(125) 2025-04-23 15:11:12.950 [WARNING] database P0000010414 T0000000000000067645  socket_err_should_retry errno:104', '(126) 2025-04-23 15:31:00.456 [INFO] database P0000052077 T0000000000000052077  info get from dcr disk, asm_host = localhost, asm_port = 1325557600, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(127) 2025-04-23 15:10:32.741 [WARNING] database P0000010414 T0000000000000125500  socket_err_should_retry errno:104', '(128) 2025-04-23 15:38:06.694 [INFO] database P0000062613 T0000000000000062613  INI parameter DW_PORT changed, the original value 0, new value 4566', '(129) 2025-04-23 15:59:26.772 [INFO] database P0000093438 T0000000000000093438  version info: enterprise', '(130) 2025-04-23 15:47:35.757 [INFO] database P0000076042 T0000000000000076042  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(131) 2025-04-23 15:36:55.944 [INFO] database P0000060808 T0000000000000060808  version info: enterprise', '(132) 2025-04-23 15:07:52.608 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.', '(133) 2025-04-23 15:39:18.015 [INFO] database P0000064327 T0000000000000064327  info get from dcr disk, asm_host = localhost, asm_port = 1547395440, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(134) 2025-04-23 14:54:20.919 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit.', '(135) 2025-04-23 15:08:29.851 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit.', '(136) 2025-04-23 15:11:18.428 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit.', '(137) 2025-04-23 16:00:37.446 [INFO] database P0000095243 T0000000000000095243  INI parameter DPC_2PC changed, the original value 1, new value 0', '(138) 2025-04-23 14:43:31.161 [WARNING] database P0000010414 T0000000000000015201  Get svr info time used:31', '(139) 2025-04-23 14:58:47.494 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit.', '(140) 2025-04-23 15:58:15.724 [INFO] database P0000091708 T0000000000000091708  version info: enterprise', '(141) 2025-04-23 14:43:31.161 [INFO] database P0000010414 T0000000000000015201  utsk_dw_udp_bro used 31s, cur_bro_time = 1745390611, last_bro_time = 1745390580', '(142) 2025-04-23 15:34:33.795 [INFO] database P0000057373 T0000000000000057373  info get from dcr disk, asm_host = localhost, asm_port = 24652992, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(143) 2025-04-23 14:42:36.073 [INFO] database P0000010414 T0000000000000013572  checkpoint end, 969 pages flushed, used_space[32018944], free_space[8557907456].', '(144) 2025-04-23 15:29:49.022 [INFO] database P0000050345 T0000000000000050345  INI parameter DW_PORT changed, the original value 0, new value 4566', '(145) 2025-04-23 15:39:17.780 [INFO] database P0000064327 T0000000000000064327  INI parameter DPC_2PC changed, the original value 1, new value 0', '(146) 2025-04-23 15:10:32.743 [WARNING] database P0000010414 T0000000000000123810  socket_err_should_retry errno:104', '(147) 2025-04-23 15:45:14.239 [INFO] database P0000072676 T0000000000000072676  info get from dcr disk, asm_host = localhost, asm_port = -1605455696, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(148) 2025-04-23 15:13:15.903 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit.', '(149) 2025-04-23 15:52:22.119 [INFO] database P0000082963 T0000000000000082963  info get from dcr disk, asm_host = localhost, asm_port = -919864256, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(150) 2025-04-23 15:39:18.028 [INFO] database P0000064327 T0000000000000064327  dmshm2_attach, success, shm id 294913', '(151) 2025-04-23 14:54:19.302 [ERROR] database P0000010414 T0000000000000015311  Reached the max session limit.', '(152) 2025-04-23 15:36:55.604 [INFO] database P0000060808 T0000000000000060808  INI parameter DW_PORT changed, the original value 0, new value 4566', '(153) 2025-04-23 15:23:53.906 [INFO] database P0000041615 T0000000000000041615  version info: enterprise', '(154) 2025-04-23 16:00:38.835 [INFO] database P0000095243 T0000000000000095243  dmshm2_attach, success, shm id 294913', '(155) 2025-04-23 15:08:29.746 [WARNING] database P0000010414 T0000000000000020550  socket_err_should_retry errno:104']</t>
         </is>
       </c>
     </row>
@@ -645,49 +716,68 @@
         - status must be 0 if the log entry is a normal operation or informational message.
         - Output **only** a list of tuples. No extra text or explanation.
         ## Input Logs:
-         (85) 2025-04-23 15:46:24.914 [INFO] database P0000074366 T0000000000000074366  version info: enterprise (86) 2025-04-23 15:33:22.586 [INFO] database P0000055615 T0000000000000055615  dmshm2_attach, success, shm id 294913 (87) 2025-04-23 15:04:39.595 [ERROR] database P0000010414 T0000000000000015355  Reached the max session limit. (88) 2025-04-23 15:47:35.450 [INFO] database P0000076042 T0000000000000076042  INI parameter DW_PORT changed, the original value 0, new value 4566 (89) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000075932  socket_err_should_retry errno:104 (90) 2025-04-23 15:17:58.457 [INFO] database P0000032706 T0000000000000032706  info get from dcr disk, asm_host = localhost, asm_port = 1167375216, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (91) 2025-04-23 14:53:19.229 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit. (92) 2025-04-23 15:02:45.814 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit. (93) 2025-04-23 15:02:23.613 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit. (94) 2025-04-23 14:55:20.227 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit. (95) 2025-04-23 15:31:00.122 [INFO] database P0000052077 T0000000000000052077  INI parameter DPC_2PC changed, the original value 1, new value 0 (96) 2025-04-23 14:55:03.685 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit. (97) 2025-04-23 15:59:26.765 [INFO] database P0000093438 T0000000000000093438  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (98) 2025-04-23 15:45:14.252 [INFO] database P0000072676 T0000000000000072676  dmshm2_attach, success, shm id 294913 (99) 2025-04-23 15:39:18.037 [INFO] database P0000064327 T0000000000000064327  version info: enterprise (100) 2025-04-23 15:00:16.898 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit. (101) 2025-04-23 15:19:09.586 [INFO] database P0000034512 T0000000000000034512  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (102) 2025-04-23 15:52:22.119 [INFO] database P0000082963 T0000000000000082963  info get from dcr disk, asm_host = localhost, asm_port = -919864256, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (103) 2025-04-23 15:26:16.000 [INFO] database P0000045167 T0000000000000045167  version info: enterprise (104) 2025-04-23 15:27:26.848 [INFO] database P0000046902 T0000000000000046902  INI parameter DW_PORT changed, the original value 0, new value 4566 (105) 2025-04-23 15:11:18.428 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit. (106) 2025-04-23 14:59:25.388 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit. (107) 2025-04-23 15:07:05.076 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit. (108) 2025-04-23 15:14:28.745 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit. (109) 2025-04-23 14:59:48.106 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit. (110) 2025-04-23 15:13:29.661 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit. (111) 2025-04-23 15:10:32.740 [WARNING] database P0000010414 T0000000000000124796  socket_err_should_retry errno:104 (112) 2025-04-23 14:43:00.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (113) 2025-04-23 16:01:48.494 [INFO] database P0000097032 T0000000000000097032  INI parameter DPC_2PC changed, the original value 1, new value 0 (114) 2025-04-23 15:54:42.257 [INFO] database P0000086447 T0000000000000086447  info get from dcr disk, asm_host = localhost, asm_port = -632488800, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (115) 2025-04-23 15:40:29.256 [INFO] database P0000066033 T0000000000000066033  version info: enterprise</t>
+         (156) 2025-04-23 15:22:42.682 [INFO] database P0000039800 T0000000000000039800  info get from dcr disk, asm_host = localhost, asm_port = 115568496, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (157) 2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000079836  socket_err_should_retry errno:104 (158) 2025-04-23 15:11:12.951 [WARNING] database P0000010414 T0000000000000068749  socket_err_should_retry errno:104 (159) 2025-04-23 15:19:09.178 [INFO] database P0000034512 T0000000000000034512  INI parameter DW_PORT changed, the original value 0, new value 4566 (160) 2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000015248  checkpoint requested by CKPT_DIRTY_PAGES, rlog free space[8556843520], used space[33082880] (161) 2025-04-23 15:06:41.321 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit. (162) 2025-04-23 15:13:09.229 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit. (163) 2025-04-23 15:45:14.252 [INFO] database P0000072676 T0000000000000072676  dmshm2_attach, success, shm id 294913 (164) 2025-04-23 15:10:03.790 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit. (165) 2025-04-23 15:39:18.029 [INFO] database P0000064327 T0000000000000064327  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (166) 2025-04-23 15:59:26.764 [INFO] database P0000093438 T0000000000000093438  dmshm2_attach, success, shm id 294913 (167) 2025-04-23 15:47:35.454 [INFO] database P0000076042 T0000000000000076042  INI parameter DPC_2PC changed, the original value 1, new value 0 (168) 2025-04-23 15:52:19.786 [INFO] database P0000082963 T0000000000000082963  INI parameter DW_PORT changed, the original value 0, new value 4566 (169) 2025-04-23 14:42:48.038 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (170) 2025-04-23 14:55:03.685 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit. (171) 2025-04-23 15:26:15.992 [INFO] database P0000045167 T0000000000000045167  dmshm2_attach, success, shm id 294913 (172) 2025-04-23 15:46:24.892 [INFO] database P0000074366 T0000000000000074366  info get from dcr disk, asm_host = localhost, asm_port = -982684112, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (173) 2025-04-23 15:47:35.756 [INFO] database P0000076042 T0000000000000076042  dmshm2_attach, success, shm id 294913 (174) 2025-04-23 15:12:23.733 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit. (175) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000084497  socket_err_should_retry errno:104 (176) 2025-04-23 15:26:15.979 [INFO] database P0000045167 T0000000000000045167  info get from dcr disk, asm_host = localhost, asm_port = 368678048, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (177) 2025-04-23 15:32:11.219 [INFO] database P0000053877 T0000000000000053877  INI parameter DW_PORT changed, the original value 0, new value 4566 (178) 2025-04-23 14:57:05.371 [ERROR] database P0000010414 T0000000000000015355  Reached the max session limit. (179) 2025-04-23 15:39:18.037 [INFO] database P0000064327 T0000000000000064327  version info: enterprise (180) 2025-04-23 14:53:42.091 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit. (181) 2025-04-23 15:11:09.164 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit. (182) 2025-04-23 14:49:59.226 [WARNING] database P0000010414 T0000000000000134960  socket_err_should_retry errno:38 (183) 2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000123096  socket_err_should_retry errno:104 (184) 2025-04-23 15:57:04.523 [INFO] database P0000089970 T0000000000000089970  version info: enterprise (185) 2025-04-23 15:31:00.122 [INFO] database P0000052077 T0000000000000052077  INI parameter DPC_2PC changed, the original value 1, new value 0 (186) 2025-04-23 14:42:59.156 [INFO] database P0000010414 T0000000000000015201  utsk_get_dw_svr_info used 11 seconds (187) 2025-04-23 15:33:22.310 [INFO] database P0000055615 T0000000000000055615  INI parameter DW_PORT changed, the original value 0, new value 4566 (188) 2025-04-23 15:00:16.241 [ERROR] database P0000010414 T0000000000000015339  Reached the max session limit. (189) 2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000081572  socket_err_should_retry errno:104 (190) 2025-04-23 15:58:15.236 [INFO] database P0000091708 T0000000000000091708  INI parameter DPC_2PC changed, the original value 1, new value 0 (191) 2025-04-23 15:13:29.661 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit. (192) 2025-04-23 15:29:49.322 [INFO] database P0000050345 T0000000000000050345  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (193) 2025-04-23 15:10:54.994 [ERROR] database P0000010414 T0000000000000015331  Reached the max session limit. (194) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000079466  socket_err_should_retry errno:104 (195) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000069170  socket_err_should_retry errno:104 (196) 2025-04-23 15:28:38.260 [INFO] database P0000048633 T0000000000000048633  info get from dcr disk, asm_host = localhost, asm_port = 2039617136, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (197) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000074212  socket_err_should_retry errno:104 (198) 2025-04-23 15:00:00.181 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit. (199) 2025-04-23 15:26:15.742 [INFO] database P0000045167 T0000000000000045167  INI parameter DW_PORT changed, the original value 0, new value 4566 (200) 2025-04-23 15:42:51.679 [INFO] database P0000069304 T0000000000000069304  dmshm2_attach, success, shm id 294913 (201) 2025-04-23 15:47:35.743 [INFO] database P0000076042 T0000000000000076042  info get from dcr disk, asm_host = localhost, asm_port = -951173008, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (202) 2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000127206  socket_err_should_retry errno:104 (203) 2025-04-23 14:43:00.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (204) 2025-04-23 15:57:04.515 [INFO] database P0000089970 T0000000000000089970  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (205) 2025-04-23 15:19:09.593 [INFO] database P0000034512 T0000000000000034512  version info: enterprise (206) 2025-04-23 15:11:12.948 [WARNING] database P0000010414 T0000000000000077762  socket_err_should_retry errno:104 (207) 2025-04-23 15:41:42.842 [INFO] database P0000067641 T0000000000000067641  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-(147, 1)
-(148, 0)
-(149, 1)
-(150, 0)
-(151, 0)
-(152, 1)
-(153, 1)
-(154, 0)
-(155, 1)
-(156, 1)
-(157, 1)
-(158, 1)
-(159, 1)
-(160, 0)
-(161, 0)
-(162, 0)
-(163, 1)
-(164, 1)
-(165, 1)
-(166, 1)
-(167, 0)
-(168, 1)
-(169, 0)
-(170, 1)
-(171, 1)
-(172, 0)
-(173, 0)
-(174, 1)
-(175, 0)
-(176, 1)
-(177, 1)
-(178, 0)</t>
+(1, 1)
+(2, 0)
+(3, 0)
+(4, 0)
+(5, 1)
+(6, 0)
+(7, 0)
+(8, 0)
+(9, 1)
+(10, 1)
+(11, 1)
+(12, 0)
+(13, 0)
+(14, 1)
+(15, 0)
+(16, 1)
+(17, 0)
+(18, 1)
+(19, 1)
+(20, 0)
+(21, 1)
+(22, 0)
+(23, 0)
+(24, 1)
+(25, 0)
+(26, 0)
+(27, 1)
+(28, 0)
+(29, 1)
+(30, 0)
+(31, 0)
+(32, 0)
+(33, 0)
+(34, 1)
+(35, 1)
+(36, 0)
+(37, 0)
+(38, 1)
+(39, 0)
+(40, 0)
+(41, 1)
+(42, 0)
+(43, 1)
+(44, 1)
+(45, 0)
+(46, 1)
+(47, 1)
+(48, 1)
+(49, 0)
+(50, 0)
+(51, 1)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['(85) 2025-04-23 15:46:24.914 [INFO] database P0000074366 T0000000000000074366  version info: enterprise', '(86) 2025-04-23 15:33:22.586 [INFO] database P0000055615 T0000000000000055615  dmshm2_attach, success, shm id 294913', '(87) 2025-04-23 15:04:39.595 [ERROR] database P0000010414 T0000000000000015355  Reached the max session limit.', '(88) 2025-04-23 15:47:35.450 [INFO] database P0000076042 T0000000000000076042  INI parameter DW_PORT changed, the original value 0, new value 4566', '(89) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000075932  socket_err_should_retry errno:104', '(90) 2025-04-23 15:17:58.457 [INFO] database P0000032706 T0000000000000032706  info get from dcr disk, asm_host = localhost, asm_port = 1167375216, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(91) 2025-04-23 14:53:19.229 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.', '(92) 2025-04-23 15:02:45.814 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit.', '(93) 2025-04-23 15:02:23.613 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit.', '(94) 2025-04-23 14:55:20.227 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit.', '(95) 2025-04-23 15:31:00.122 [INFO] database P0000052077 T0000000000000052077  INI parameter DPC_2PC changed, the original value 1, new value 0', '(96) 2025-04-23 14:55:03.685 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit.', '(97) 2025-04-23 15:59:26.765 [INFO] database P0000093438 T0000000000000093438  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(98) 2025-04-23 15:45:14.252 [INFO] database P0000072676 T0000000000000072676  dmshm2_attach, success, shm id 294913', '(99) 2025-04-23 15:39:18.037 [INFO] database P0000064327 T0000000000000064327  version info: enterprise', '(100) 2025-04-23 15:00:16.898 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit.', '(101) 2025-04-23 15:19:09.586 [INFO] database P0000034512 T0000000000000034512  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(102) 2025-04-23 15:52:22.119 [INFO] database P0000082963 T0000000000000082963  info get from dcr disk, asm_host = localhost, asm_port = -919864256, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(103) 2025-04-23 15:26:16.000 [INFO] database P0000045167 T0000000000000045167  version info: enterprise', '(104) 2025-04-23 15:27:26.848 [INFO] database P0000046902 T0000000000000046902  INI parameter DW_PORT changed, the original value 0, new value 4566', '(105) 2025-04-23 15:11:18.428 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit.', '(106) 2025-04-23 14:59:25.388 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit.', '(107) 2025-04-23 15:07:05.076 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit.', '(108) 2025-04-23 15:14:28.745 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit.', '(109) 2025-04-23 14:59:48.106 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit.', '(110) 2025-04-23 15:13:29.661 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit.', '(111) 2025-04-23 15:10:32.740 [WARNING] database P0000010414 T0000000000000124796  socket_err_should_retry errno:104', '(112) 2025-04-23 14:43:00.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(113) 2025-04-23 16:01:48.494 [INFO] database P0000097032 T0000000000000097032  INI parameter DPC_2PC changed, the original value 1, new value 0', '(114) 2025-04-23 15:54:42.257 [INFO] database P0000086447 T0000000000000086447  info get from dcr disk, asm_host = localhost, asm_port = -632488800, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(115) 2025-04-23 15:40:29.256 [INFO] database P0000066033 T0000000000000066033  version info: enterprise']</t>
+          <t>['(156) 2025-04-23 15:22:42.682 [INFO] database P0000039800 T0000000000000039800  info get from dcr disk, asm_host = localhost, asm_port = 115568496, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(157) 2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000079836  socket_err_should_retry errno:104', '(158) 2025-04-23 15:11:12.951 [WARNING] database P0000010414 T0000000000000068749  socket_err_should_retry errno:104', '(159) 2025-04-23 15:19:09.178 [INFO] database P0000034512 T0000000000000034512  INI parameter DW_PORT changed, the original value 0, new value 4566', '(160) 2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000015248  checkpoint requested by CKPT_DIRTY_PAGES, rlog free space[8556843520], used space[33082880]', '(161) 2025-04-23 15:06:41.321 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit.', '(162) 2025-04-23 15:13:09.229 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.', '(163) 2025-04-23 15:45:14.252 [INFO] database P0000072676 T0000000000000072676  dmshm2_attach, success, shm id 294913', '(164) 2025-04-23 15:10:03.790 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit.', '(165) 2025-04-23 15:39:18.029 [INFO] database P0000064327 T0000000000000064327  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(166) 2025-04-23 15:59:26.764 [INFO] database P0000093438 T0000000000000093438  dmshm2_attach, success, shm id 294913', '(167) 2025-04-23 15:47:35.454 [INFO] database P0000076042 T0000000000000076042  INI parameter DPC_2PC changed, the original value 1, new value 0', '(168) 2025-04-23 15:52:19.786 [INFO] database P0000082963 T0000000000000082963  INI parameter DW_PORT changed, the original value 0, new value 4566', '(169) 2025-04-23 14:42:48.038 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(170) 2025-04-23 14:55:03.685 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit.', '(171) 2025-04-23 15:26:15.992 [INFO] database P0000045167 T0000000000000045167  dmshm2_attach, success, shm id 294913', '(172) 2025-04-23 15:46:24.892 [INFO] database P0000074366 T0000000000000074366  info get from dcr disk, asm_host = localhost, asm_port = -982684112, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(173) 2025-04-23 15:47:35.756 [INFO] database P0000076042 T0000000000000076042  dmshm2_attach, success, shm id 294913', '(174) 2025-04-23 15:12:23.733 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit.', '(175) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000084497  socket_err_should_retry errno:104', '(176) 2025-04-23 15:26:15.979 [INFO] database P0000045167 T0000000000000045167  info get from dcr disk, asm_host = localhost, asm_port = 368678048, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(177) 2025-04-23 15:32:11.219 [INFO] database P0000053877 T0000000000000053877  INI parameter DW_PORT changed, the original value 0, new value 4566', '(178) 2025-04-23 14:57:05.371 [ERROR] database P0000010414 T0000000000000015355  Reached the max session limit.', '(179) 2025-04-23 15:39:18.037 [INFO] database P0000064327 T0000000000000064327  version info: enterprise', '(180) 2025-04-23 14:53:42.091 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit.', '(181) 2025-04-23 15:11:09.164 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.', '(182) 2025-04-23 14:49:59.226 [WARNING] database P0000010414 T0000000000000134960  socket_err_should_retry errno:38', '(183) 2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000123096  socket_err_should_retry errno:104', '(184) 2025-04-23 15:57:04.523 [INFO] database P0000089970 T0000000000000089970  version info: enterprise', '(185) 2025-04-23 15:31:00.122 [INFO] database P0000052077 T0000000000000052077  INI parameter DPC_2PC changed, the original value 1, new value 0', '(186) 2025-04-23 14:42:59.156 [INFO] database P0000010414 T0000000000000015201  utsk_get_dw_svr_info used 11 seconds', '(187) 2025-04-23 15:33:22.310 [INFO] database P0000055615 T0000000000000055615  INI parameter DW_PORT changed, the original value 0, new value 4566', '(188) 2025-04-23 15:00:16.241 [ERROR] database P0000010414 T0000000000000015339  Reached the max session limit.', '(189) 2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000081572  socket_err_should_retry errno:104', '(190) 2025-04-23 15:58:15.236 [INFO] database P0000091708 T0000000000000091708  INI parameter DPC_2PC changed, the original value 1, new value 0', '(191) 2025-04-23 15:13:29.661 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit.', '(192) 2025-04-23 15:29:49.322 [INFO] database P0000050345 T0000000000000050345  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(193) 2025-04-23 15:10:54.994 [ERROR] database P0000010414 T0000000000000015331  Reached the max session limit.', '(194) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000079466  socket_err_should_retry errno:104', '(195) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000069170  socket_err_should_retry errno:104', '(196) 2025-04-23 15:28:38.260 [INFO] database P0000048633 T0000000000000048633  info get from dcr disk, asm_host = localhost, asm_port = 2039617136, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(197) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000074212  socket_err_should_retry errno:104', '(198) 2025-04-23 15:00:00.181 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit.', '(199) 2025-04-23 15:26:15.742 [INFO] database P0000045167 T0000000000000045167  INI parameter DW_PORT changed, the original value 0, new value 4566', '(200) 2025-04-23 15:42:51.679 [INFO] database P0000069304 T0000000000000069304  dmshm2_attach, success, shm id 294913', '(201) 2025-04-23 15:47:35.743 [INFO] database P0000076042 T0000000000000076042  info get from dcr disk, asm_host = localhost, asm_port = -951173008, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(202) 2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000127206  socket_err_should_retry errno:104', '(203) 2025-04-23 14:43:00.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(204) 2025-04-23 15:57:04.515 [INFO] database P0000089970 T0000000000000089970  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(205) 2025-04-23 15:19:09.593 [INFO] database P0000034512 T0000000000000034512  version info: enterprise', '(206) 2025-04-23 15:11:12.948 [WARNING] database P0000010414 T0000000000000077762  socket_err_should_retry errno:104', '(207) 2025-04-23 15:41:42.842 [INFO] database P0000067641 T0000000000000067641  dmshm2_attach, success, shm id 294913']</t>
         </is>
       </c>
     </row>
@@ -708,48 +798,68 @@
         - status must be 0 if the log entry is a normal operation or informational message.
         - Output **only** a list of tuples. No extra text or explanation.
         ## Input Logs:
-         (116) 2025-04-23 14:42:36.073 [INFO] database P0000010414 T0000000000000013572  checkpoint end, 969 pages flushed, used_space[32018944], free_space[8557907456]. (117) 2025-04-23 15:59:26.772 [INFO] database P0000093438 T0000000000000093438  version info: enterprise (118) 2025-04-23 15:06:49.328 [ERROR] database P0000010414 T0000000000000015309  Reached the max session limit. (119) 2025-04-23 15:15:52.046 [ERROR] database P0000010414 T0000000000000015357  Reached the max session limit. (120) 2025-04-23 15:17:58.480 [INFO] database P0000032706 T0000000000000032706  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (121) 2025-04-23 14:43:01.309 [WARNING] database P0000010414 T0000000000000122737  socket_err_should_retry errno:104 (122) 2025-04-23 15:01:46.393 [ERROR] database P0000010414 T0000000000000015322  Reached the max session limit. (123) 2025-04-23 15:44:02.616 [INFO] database P0000070934 T0000000000000070934  info get from dcr disk, asm_host = localhost, asm_port = -1934299008, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (124) 2025-04-23 15:45:13.254 [INFO] database P0000072676 T0000000000000072676  INI parameter DPC_2PC changed, the original value 1, new value 0 (125) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000084497  socket_err_should_retry errno:104 (126) 2025-04-23 15:39:18.029 [INFO] database P0000064327 T0000000000000064327  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (127) 2025-04-23 15:44:02.637 [INFO] database P0000070934 T0000000000000070934  version info: enterprise (128) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000076024  socket_err_should_retry errno:104 (129) 2025-04-23 15:17:58.487 [INFO] database P0000032706 T0000000000000032706  version info: enterprise (130) 2025-04-23 14:55:38.427 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit. (131) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000079466  socket_err_should_retry errno:104 (132) 2025-04-23 14:58:19.573 [ERROR] database P0000010414 T0000000000000015333  Reached the max session limit. (133) 2025-04-23 14:47:01.095 [WARNING] database P0000010414 T0000000000000129525  socket_err_should_retry errno:104 (134) 2025-04-23 15:51:09.098 [INFO] database P0000081263 T0000000000000081263  dmshm2_attach, success, shm id 294913 (135) 2025-04-23 15:20:20.266 [INFO] database P0000036263 T0000000000000036263  INI parameter DPC_2PC changed, the original value 1, new value 0 (136) 2025-04-23 14:42:59.193 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (137) 2025-04-23 15:14:49.167 [ERROR] database P0000010414 T0000000000000015338  Reached the max session limit. (138) 2025-04-23 15:27:27.309 [INFO] database P0000046902 T0000000000000046902  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (139) 2025-04-23 15:00:02.184 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit. (140) 2025-04-23 16:00:38.844 [INFO] database P0000095243 T0000000000000095243  version info: enterprise (141) 2025-04-23 15:59:26.750 [INFO] database P0000093438 T0000000000000093438  info get from dcr disk, asm_host = localhost, asm_port = -1724178496, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (142) 2025-04-23 15:44:02.232 [INFO] database P0000070934 T0000000000000070934  INI parameter DPC_2PC changed, the original value 1, new value 0 (143) 2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000083470  socket_err_should_retry errno:104 (144) 2025-04-23 15:02:30.311 [ERROR] database P0000010414 T0000000000000015357  Reached the max session limit. (145) 2025-04-23 15:47:35.757 [INFO] database P0000076042 T0000000000000076042  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (146) 2025-04-23 14:58:46.207 [ERROR] database P0000010414 T0000000000000015298  Reached the max session limit.</t>
+         (208) 2025-04-23 15:28:37.938 [INFO] database P0000048633 T0000000000000048633  INI parameter DPC_2PC changed, the original value 1, new value 0 (209) 2025-04-23 15:52:19.789 [INFO] database P0000082963 T0000000000000082963  INI parameter DPC_2PC changed, the original value 1, new value 0 (210) 2025-04-23 15:05:44.344 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit. (211) 2025-04-23 15:06:49.328 [ERROR] database P0000010414 T0000000000000015309  Reached the max session limit. (212) 2025-04-23 15:27:26.848 [INFO] database P0000046902 T0000000000000046902  INI parameter DW_PORT changed, the original value 0, new value 4566 (213) 2025-04-23 14:53:19.229 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit. (214) 2025-04-23 15:33:22.586 [INFO] database P0000055615 T0000000000000055615  dmshm2_attach, success, shm id 294913 (215) 2025-04-23 15:00:47.833 [WARNING] database P0000010414 T0000000000000038260  socket_err_should_retry errno:104 (216) 2025-04-23 15:35:44.851 [INFO] database P0000059105 T0000000000000059105  version info: enterprise (217) 2025-04-23 15:22:42.703 [INFO] database P0000039800 T0000000000000039800  version info: enterprise (218) 2025-04-23 15:08:30.713 [ERROR] database P0000010414 T0000000000000015323  Reached the max session limit. (219) 2025-04-23 14:47:01.095 [WARNING] database P0000010414 T0000000000000129525  socket_err_should_retry errno:104 (220) 2025-04-23 15:07:27.575 [ERROR] database P0000010414 T0000000000000015339  Reached the max session limit. (221) 2025-04-23 15:23:53.884 [INFO] database P0000041615 T0000000000000041615  info get from dcr disk, asm_host = localhost, asm_port = -1294140448, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (222) 2025-04-23 15:06:41.873 [ERROR] database P0000010414 T0000000000000015301  Reached the max session limit. (223) 2025-04-23 15:53:30.936 [INFO] database P0000084718 T0000000000000084718  INI parameter DW_PORT changed, the original value 0, new value 4566 (224) 2025-04-23 15:25:04.656 [INFO] database P0000043419 T0000000000000043419  INI parameter DPC_2PC changed, the original value 1, new value 0 (225) 2025-04-23 14:58:51.943 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit. (226) 2025-04-23 15:33:22.587 [INFO] database P0000055615 T0000000000000055615  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (227) 2025-04-23 15:10:52.473 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit. (228) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000076024  socket_err_should_retry errno:104 (229) 2025-04-23 15:59:26.330 [INFO] database P0000093438 T0000000000000093438  INI parameter DW_PORT changed, the original value 0, new value 4566 (230) 2025-04-23 15:38:06.931 [INFO] database P0000062613 T0000000000000062613  info get from dcr disk, asm_host = localhost, asm_port = 417008448, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (231) 2025-04-23 15:19:09.572 [INFO] database P0000034512 T0000000000000034512  info get from dcr disk, asm_host = localhost, asm_port = 934125424, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (232) 2025-04-23 14:57:44.135 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit. (233) 2025-04-23 15:48:47.056 [INFO] database P0000077779 T0000000000000077779  version info: enterprise (234) 2025-04-23 15:46:24.914 [INFO] database P0000074366 T0000000000000074366  version info: enterprise (235) 2025-04-23 14:55:10.864 [ERROR] database P0000010414 T0000000000000015348  Reached the max session limit. (236) 2025-04-23 15:01:41.293 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit. (237) 2025-04-23 15:25:05.008 [INFO] database P0000043419 T0000000000000043419  version info: enterprise (238) 2025-04-23 15:25:04.999 [INFO] database P0000043419 T0000000000000043419  dmshm2_attach, success, shm id 294913 (239) 2025-04-23 15:20:20.620 [INFO] database P0000036263 T0000000000000036263  info get from dcr disk, asm_host = localhost, asm_port = -1771569040, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (240) 2025-04-23 15:51:08.693 [INFO] database P0000081263 T0000000000000081263  INI parameter DW_PORT changed, the original value 0, new value 4566 (241) 2025-04-23 14:53:17.651 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit. (242) 2025-04-23 15:29:49.321 [INFO] database P0000050345 T0000000000000050345  dmshm2_attach, success, shm id 294913 (243) 2025-04-23 15:15:52.046 [ERROR] database P0000010414 T0000000000000015357  Reached the max session limit. (244) 2025-04-23 15:10:32.834 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit. (245) 2025-04-23 14:55:52.796 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit. (246) 2025-04-23 14:49:01.955 [WARNING] database P0000010414 T0000000000000133224  socket_err_should_retry errno:104 (247) 2025-04-23 15:23:53.563 [INFO] database P0000041615 T0000000000000041615  INI parameter DW_PORT changed, the original value 0, new value 4566 (248) 2025-04-23 15:08:04.426 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit. (249) 2025-04-23 15:42:51.680 [INFO] database P0000069304 T0000000000000069304  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (250) 2025-04-23 15:16:45.085 [FATAL] database P0000010414 T0000000000000010873  hpc_heart_beat_dsk_thread halt, sys_status:OPEN, vtd_status:SYSHALT (251) 2025-04-23 14:55:19.094 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit. (252) 2025-04-23 14:59:48.106 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit. (253) 2025-04-23 15:54:42.279 [INFO] database P0000086447 T0000000000000086447  version info: enterprise (254) 2025-04-23 15:20:20.633 [INFO] database P0000036263 T0000000000000036263  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (255) 2025-04-23 15:41:42.829 [INFO] database P0000067641 T0000000000000067641  info get from dcr disk, asm_host = localhost, asm_port = -1636733808, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (256) 2025-04-23 14:54:45.620 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit. (257) 2025-04-23 14:46:01.127 [WARNING] database P0000010414 T0000000000000127812  socket_err_should_retry errno:104 (258) 2025-04-23 15:44:02.232 [INFO] database P0000070934 T0000000000000070934  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-(179, 0)
-(180, 0)
-(181, 1)
-(182, 1)
-(183, 0)
-(184, 1)
-(185, 0)
-(186, 1)
-(187, 0)
-(188, 0)
-(189, 0)
-(190, 0)
-(191, 0)
-(192, 0)
-(193, 0)
-(194, 1)
-(195, 1)
-(196, 0)
-(197, 0)
-(198, 1)
-(199, 0)
-(200, 0)
-(201, 0)
-(202, 0)
-(203, 0)
-(204, 0)
-(205, 0)
-(206, 0)
-(207, 1)
-(208, 1)
-(209, 0)</t>
+(208, 0)
+(209, 0)
+(210, 1)
+(211, 1)
+(212, 0)
+(213, 1)
+(214, 0)
+(215, 1)
+(216, 0)
+(217, 0)
+(218, 1)
+(219, 1)
+(220, 1)
+(221, 0)
+(222, 1)
+(223, 0)
+(224, 0)
+(225, 1)
+(226, 0)
+(227, 1)
+(228, 1)
+(229, 0)
+(230, 0)
+(231, 0)
+(232, 1)
+(233, 0)
+(234, 0)
+(235, 1)
+(236, 1)
+(237, 0)
+(238, 0)
+(239, 0)
+(240, 0)
+(241, 1)
+(242, 0)
+(243, 1)
+(244, 1)
+(245, 1)
+(246, 1)
+(247, 0)
+(248, 1)
+(249, 0)
+(250, 1)
+(251, 1)
+(252, 1)
+(253, 0)
+(254, 0)
+(255, 0)
+(256, 1)
+(257, 1)
+(258, 0)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['(116) 2025-04-23 14:42:36.073 [INFO] database P0000010414 T0000000000000013572  checkpoint end, 969 pages flushed, used_space[32018944], free_space[8557907456].', '(117) 2025-04-23 15:59:26.772 [INFO] database P0000093438 T0000000000000093438  version info: enterprise', '(118) 2025-04-23 15:06:49.328 [ERROR] database P0000010414 T0000000000000015309  Reached the max session limit.', '(119) 2025-04-23 15:15:52.046 [ERROR] database P0000010414 T0000000000000015357  Reached the max session limit.', '(120) 2025-04-23 15:17:58.480 [INFO] database P0000032706 T0000000000000032706  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(121) 2025-04-23 14:43:01.309 [WARNING] database P0000010414 T0000000000000122737  socket_err_should_retry errno:104', '(122) 2025-04-23 15:01:46.393 [ERROR] database P0000010414 T0000000000000015322  Reached the max session limit.', '(123) 2025-04-23 15:44:02.616 [INFO] database P0000070934 T0000000000000070934  info get from dcr disk, asm_host = localhost, asm_port = -1934299008, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(124) 2025-04-23 15:45:13.254 [INFO] database P0000072676 T0000000000000072676  INI parameter DPC_2PC changed, the original value 1, new value 0', '(125) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000084497  socket_err_should_retry errno:104', '(126) 2025-04-23 15:39:18.029 [INFO] database P0000064327 T0000000000000064327  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(127) 2025-04-23 15:44:02.637 [INFO] database P0000070934 T0000000000000070934  version info: enterprise', '(128) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000076024  socket_err_should_retry errno:104', '(129) 2025-04-23 15:17:58.487 [INFO] database P0000032706 T0000000000000032706  version info: enterprise', '(130) 2025-04-23 14:55:38.427 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit.', '(131) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000079466  socket_err_should_retry errno:104', '(132) 2025-04-23 14:58:19.573 [ERROR] database P0000010414 T0000000000000015333  Reached the max session limit.', '(133) 2025-04-23 14:47:01.095 [WARNING] database P0000010414 T0000000000000129525  socket_err_should_retry errno:104', '(134) 2025-04-23 15:51:09.098 [INFO] database P0000081263 T0000000000000081263  dmshm2_attach, success, shm id 294913', '(135) 2025-04-23 15:20:20.266 [INFO] database P0000036263 T0000000000000036263  INI parameter DPC_2PC changed, the original value 1, new value 0', '(136) 2025-04-23 14:42:59.193 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(137) 2025-04-23 15:14:49.167 [ERROR] database P0000010414 T0000000000000015338  Reached the max session limit.', '(138) 2025-04-23 15:27:27.309 [INFO] database P0000046902 T0000000000000046902  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(139) 2025-04-23 15:00:02.184 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit.', '(140) 2025-04-23 16:00:38.844 [INFO] database P0000095243 T0000000000000095243  version info: enterprise', '(141) 2025-04-23 15:59:26.750 [INFO] database P0000093438 T0000000000000093438  info get from dcr disk, asm_host = localhost, asm_port = -1724178496, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(142) 2025-04-23 15:44:02.232 [INFO] database P0000070934 T0000000000000070934  INI parameter DPC_2PC changed, the original value 1, new value 0', '(143) 2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000083470  socket_err_should_retry errno:104', '(144) 2025-04-23 15:02:30.311 [ERROR] database P0000010414 T0000000000000015357  Reached the max session limit.', '(145) 2025-04-23 15:47:35.757 [INFO] database P0000076042 T0000000000000076042  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(146) 2025-04-23 14:58:46.207 [ERROR] database P0000010414 T0000000000000015298  Reached the max session limit.']</t>
+          <t>['(208) 2025-04-23 15:28:37.938 [INFO] database P0000048633 T0000000000000048633  INI parameter DPC_2PC changed, the original value 1, new value 0', '(209) 2025-04-23 15:52:19.789 [INFO] database P0000082963 T0000000000000082963  INI parameter DPC_2PC changed, the original value 1, new value 0', '(210) 2025-04-23 15:05:44.344 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.', '(211) 2025-04-23 15:06:49.328 [ERROR] database P0000010414 T0000000000000015309  Reached the max session limit.', '(212) 2025-04-23 15:27:26.848 [INFO] database P0000046902 T0000000000000046902  INI parameter DW_PORT changed, the original value 0, new value 4566', '(213) 2025-04-23 14:53:19.229 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.', '(214) 2025-04-23 15:33:22.586 [INFO] database P0000055615 T0000000000000055615  dmshm2_attach, success, shm id 294913', '(215) 2025-04-23 15:00:47.833 [WARNING] database P0000010414 T0000000000000038260  socket_err_should_retry errno:104', '(216) 2025-04-23 15:35:44.851 [INFO] database P0000059105 T0000000000000059105  version info: enterprise', '(217) 2025-04-23 15:22:42.703 [INFO] database P0000039800 T0000000000000039800  version info: enterprise', '(218) 2025-04-23 15:08:30.713 [ERROR] database P0000010414 T0000000000000015323  Reached the max session limit.', '(219) 2025-04-23 14:47:01.095 [WARNING] database P0000010414 T0000000000000129525  socket_err_should_retry errno:104', '(220) 2025-04-23 15:07:27.575 [ERROR] database P0000010414 T0000000000000015339  Reached the max session limit.', '(221) 2025-04-23 15:23:53.884 [INFO] database P0000041615 T0000000000000041615  info get from dcr disk, asm_host = localhost, asm_port = -1294140448, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(222) 2025-04-23 15:06:41.873 [ERROR] database P0000010414 T0000000000000015301  Reached the max session limit.', '(223) 2025-04-23 15:53:30.936 [INFO] database P0000084718 T0000000000000084718  INI parameter DW_PORT changed, the original value 0, new value 4566', '(224) 2025-04-23 15:25:04.656 [INFO] database P0000043419 T0000000000000043419  INI parameter DPC_2PC changed, the original value 1, new value 0', '(225) 2025-04-23 14:58:51.943 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit.', '(226) 2025-04-23 15:33:22.587 [INFO] database P0000055615 T0000000000000055615  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(227) 2025-04-23 15:10:52.473 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit.', '(228) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000076024  socket_err_should_retry errno:104', '(229) 2025-04-23 15:59:26.330 [INFO] database P0000093438 T0000000000000093438  INI parameter DW_PORT changed, the original value 0, new value 4566', '(230) 2025-04-23 15:38:06.931 [INFO] database P0000062613 T0000000000000062613  info get from dcr disk, asm_host = localhost, asm_port = 417008448, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(231) 2025-04-23 15:19:09.572 [INFO] database P0000034512 T0000000000000034512  info get from dcr disk, asm_host = localhost, asm_port = 934125424, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(232) 2025-04-23 14:57:44.135 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.', '(233) 2025-04-23 15:48:47.056 [INFO] database P0000077779 T0000000000000077779  version info: enterprise', '(234) 2025-04-23 15:46:24.914 [INFO] database P0000074366 T0000000000000074366  version info: enterprise', '(235) 2025-04-23 14:55:10.864 [ERROR] database P0000010414 T0000000000000015348  Reached the max session limit.', '(236) 2025-04-23 15:01:41.293 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.', '(237) 2025-04-23 15:25:05.008 [INFO] database P0000043419 T0000000000000043419  version info: enterprise', '(238) 2025-04-23 15:25:04.999 [INFO] database P0000043419 T0000000000000043419  dmshm2_attach, success, shm id 294913', '(239) 2025-04-23 15:20:20.620 [INFO] database P0000036263 T0000000000000036263  info get from dcr disk, asm_host = localhost, asm_port = -1771569040, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(240) 2025-04-23 15:51:08.693 [INFO] database P0000081263 T0000000000000081263  INI parameter DW_PORT changed, the original value 0, new value 4566', '(241) 2025-04-23 14:53:17.651 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit.', '(242) 2025-04-23 15:29:49.321 [INFO] database P0000050345 T0000000000000050345  dmshm2_attach, success, shm id 294913', '(243) 2025-04-23 15:15:52.046 [ERROR] database P0000010414 T0000000000000015357  Reached the max session limit.', '(244) 2025-04-23 15:10:32.834 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.', '(245) 2025-04-23 14:55:52.796 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.', '(246) 2025-04-23 14:49:01.955 [WARNING] database P0000010414 T0000000000000133224  socket_err_should_retry errno:104', '(247) 2025-04-23 15:23:53.563 [INFO] database P0000041615 T0000000000000041615  INI parameter DW_PORT changed, the original value 0, new value 4566', '(248) 2025-04-23 15:08:04.426 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit.', '(249) 2025-04-23 15:42:51.680 [INFO] database P0000069304 T0000000000000069304  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(250) 2025-04-23 15:16:45.085 [FATAL] database P0000010414 T0000000000000010873  hpc_heart_beat_dsk_thread halt, sys_status:OPEN, vtd_status:SYSHALT', '(251) 2025-04-23 14:55:19.094 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit.', '(252) 2025-04-23 14:59:48.106 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit.', '(253) 2025-04-23 15:54:42.279 [INFO] database P0000086447 T0000000000000086447  version info: enterprise', '(254) 2025-04-23 15:20:20.633 [INFO] database P0000036263 T0000000000000036263  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(255) 2025-04-23 15:41:42.829 [INFO] database P0000067641 T0000000000000067641  info get from dcr disk, asm_host = localhost, asm_port = -1636733808, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(256) 2025-04-23 14:54:45.620 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.', '(257) 2025-04-23 14:46:01.127 [WARNING] database P0000010414 T0000000000000127812  socket_err_should_retry errno:104', '(258) 2025-04-23 15:44:02.232 [INFO] database P0000070934 T0000000000000070934  INI parameter DPC_2PC changed, the original value 1, new value 0']</t>
         </is>
       </c>
     </row>
@@ -770,46 +880,34 @@
         - status must be 0 if the log entry is a normal operation or informational message.
         - Output **only** a list of tuples. No extra text or explanation.
         ## Input Logs:
-         (147) 2025-04-23 15:00:36.506 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit. (148) 2025-04-23 15:45:14.253 [INFO] database P0000072676 T0000000000000072676  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (149) 2025-04-23 14:55:03.044 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit. (150) 2025-04-23 15:52:19.786 [INFO] database P0000082963 T0000000000000082963  INI parameter DW_PORT changed, the original value 0, new value 4566 (151) 2025-04-23 15:20:20.620 [INFO] database P0000036263 T0000000000000036263  info get from dcr disk, asm_host = localhost, asm_port = -1771569040, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (152) 2025-04-23 15:06:41.873 [ERROR] database P0000010414 T0000000000000015301  Reached the max session limit. (153) 2025-04-23 14:52:56.353 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit. (154) 2025-04-23 15:26:15.742 [INFO] database P0000045167 T0000000000000045167  INI parameter DW_PORT changed, the original value 0, new value 4566 (155) 2025-04-23 15:04:51.975 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit. (156) 2025-04-23 15:15:31.463 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit. (157) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000074212  socket_err_should_retry errno:104 (158) 2025-04-23 15:14:43.968 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit. (159) 2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000079836  socket_err_should_retry errno:104 (160) 2025-04-23 15:32:11.556 [INFO] database P0000053877 T0000000000000053877  version info: enterprise (161) 2025-04-23 15:49:58.320 [INFO] database P0000079472 T0000000000000079472  dmshm2_attach, success, shm id 294913 (162) 2025-04-23 15:51:08.693 [INFO] database P0000081263 T0000000000000081263  INI parameter DW_PORT changed, the original value 0, new value 4566 (163) 2025-04-23 15:08:29.745 [WARNING] database P0000010414 T0000000000000020558  socket_err_should_retry errno:104 (164) 2025-04-23 15:06:53.695 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit. (165) 2025-04-23 14:53:59.516 [ERROR] database P0000010414 T0000000000000015353  Reached the max session limit. (166) 2025-04-23 15:12:06.304 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit. (167) 2025-04-23 15:23:53.568 [INFO] database P0000041615 T0000000000000041615  INI parameter DPC_2PC changed, the original value 1, new value 0 (168) 2025-04-23 14:58:22.627 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit. (169) 2025-04-23 15:55:53.057 [INFO] database P0000088185 T0000000000000088185  INI parameter DW_PORT changed, the original value 0, new value 4566 (170) 2025-04-23 14:59:19.366 [ERROR] database P0000010414 T0000000000000015338  Reached the max session limit. (171) 2025-04-23 15:16:45.085 [FATAL] database P0000010414 T0000000000000010873  hpc_heart_beat_dsk_thread halt, sys_status:OPEN, vtd_status:SYSHALT (172) 2025-04-23 15:49:58.329 [INFO] database P0000079472 T0000000000000079472  version info: enterprise (173) 2025-04-23 15:46:24.354 [INFO] database P0000074366 T0000000000000074366  INI parameter DW_PORT changed, the original value 0, new value 4566 (174) 2025-04-23 15:06:18.387 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit. (175) 2025-04-23 15:47:35.743 [INFO] database P0000076042 T0000000000000076042  info get from dcr disk, asm_host = localhost, asm_port = -951173008, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (176) 2025-04-23 15:10:32.744 [WARNING] database P0000010414 T0000000000000126806  socket_err_should_retry errno:104 (177) 2025-04-23 14:54:30.615 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit. (178) 2025-04-23 15:54:42.271 [INFO] database P0000086447 T0000000000000086447  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+         (259) 2025-04-23 14:43:00.176 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942203301), ckpt_fil(1), ckpt_off(227524608), cur_lsn(2826942348090), l_next_seq(46659482375), g_next_seq(46630685112), cur_free(260068352), total_space(8589926400), used_space(32543744), free_space(8557382656), n_ep(1) (260) 2025-04-23 15:23:53.898 [INFO] database P0000041615 T0000000000000041615  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (261) 2025-04-23 15:22:42.447 [INFO] database P0000039800 T0000000000000039800  INI parameter DPC_2PC changed, the original value 1, new value 0 (262) 2025-04-23 15:31:00.468 [INFO] database P0000052077 T0000000000000052077  dmshm2_attach, success, shm id 294913 (263) 2025-04-23 15:04:25.545 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit. (264) 2025-04-23 15:34:33.421 [INFO] database P0000057373 T0000000000000057373  INI parameter DPC_2PC changed, the original value 1, new value 0 (265) 2025-04-23 15:48:46.513 [INFO] database P0000077779 T0000000000000077779  INI parameter DPC_2PC changed, the original value 1, new value 0 (266) 2025-04-23 14:56:08.344 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit. (267) 2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000080165  socket_err_should_retry errno:104 (268) 2025-04-23 14:53:41.354 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit. (269) 2025-04-23 15:58:15.716 [INFO] database P0000091708 T0000000000000091708  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (270) 2025-04-23 15:49:58.321 [INFO] database P0000079472 T0000000000000079472  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (271) 2025-04-23 15:00:47.828 [WARNING] database P0000010414 T0000000000000054087  socket_err_should_retry errno:104 (272) 2025-04-23 15:00:47.959 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit. (273) 2025-04-23 15:42:51.061 [INFO] database P0000069304 T0000000000000069304  INI parameter DW_PORT changed, the original value 0, new value 4566 (274) 2025-04-23 15:54:42.257 [INFO] database P0000086447 T0000000000000086447  info get from dcr disk, asm_host = localhost, asm_port = -632488800, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (275) 2025-04-23 15:27:27.309 [INFO] database P0000046902 T0000000000000046902  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (276) 2025-04-23 15:10:32.744 [WARNING] database P0000010414 T0000000000000126573  socket_err_should_retry errno:104 (277) 2025-04-23 15:33:22.314 [INFO] database P0000055615 T0000000000000055615  INI parameter DPC_2PC changed, the original value 1, new value 0 (278) 2025-04-23 15:07:02.002 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit. (279) 2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000015248  checkpoint generate by dirty_pages[10999] &gt; ckpt_dirty_pages[10000] (280) 2025-04-23 14:59:25.790 [ERROR] database P0000010414 T0000000000000015301  Reached the max session limit. (281) 2025-04-23 15:51:09.085 [INFO] database P0000081263 T0000000000000081263  info get from dcr disk, asm_host = localhost, asm_port = 765973808, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (282) 2025-04-23 14:56:20.749 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit. (283) 2025-04-23 15:34:33.817 [INFO] database P0000057373 T0000000000000057373  version info: enterprise (284) 2025-04-23 14:55:48.356 [ERROR] database P0000010414 T0000000000000015297  Reached the max session limit. (285) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000075932  socket_err_should_retry errno:104 (286) 2025-04-23 14:43:00.176 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (287) 2025-04-23 14:43:00.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942206388), ckpt_fil(1), ckpt_off(228001792), cur_lsn(2826942354102), l_next_seq(46659482378), g_next_seq(46630685115), cur_free(260492800), total_space(8589926400), used_space(32491008), free_space(8557435392), n_ep(1) (288) 2025-04-23 15:33:22.595 [INFO] database P0000055615 T0000000000000055615  version info: enterprise (289) 2025-04-23 14:56:24.826 [ERROR] database P0000010414 T0000000000000015344  Reached the max session limit. (290) 2025-04-23 15:00:16.898 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit. (291) 2025-04-23 15:25:04.971 [INFO] database P0000043419 T0000000000000043419  info get from dcr disk, asm_host = localhost, asm_port = -495345360, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (292) 2025-04-23 15:21:31.595 [INFO] database P0000038061 T0000000000000038061  info get from dcr disk, asm_host = localhost, asm_port = 669194080, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (293) 2025-04-23 14:42:36.060 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942164226), ckpt_fil(1), ckpt_off(219097600), cur_lsn(2826942313022), l_next_seq(46659481498), g_next_seq(46630684235), cur_free(251105792), total_space(8589926400), used_space(32008192), free_space(8557918208), n_ep(1) (294) 2025-04-23 15:51:08.696 [INFO] database P0000081263 T0000000000000081263  INI parameter DPC_2PC changed, the original value 1, new value 0 (295) 2025-04-23 14:43:00.168 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942202067), ckpt_fil(1), ckpt_off(227298304), cur_lsn(2826942348090), l_next_seq(46659482374), g_next_seq(46630685111), cur_free(260064256), total_space(8589926400), used_space(32765952), free_space(8557160448), n_ep(1) (296) 2025-04-23 14:59:19.366 [ERROR] database P0000010414 T0000000000000015338  Reached the max session limit. (297) 2025-04-23 15:06:18.387 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit. (298) 2025-04-23 15:46:24.907 [INFO] database P0000074366 T0000000000000074366  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (299) 2025-04-23 15:44:02.616 [INFO] database P0000070934 T0000000000000070934  info get from dcr disk, asm_host = localhost, asm_port = -1934299008, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (300) 2025-04-23 15:10:16.604 [ERROR] database P0000010414 T0000000000000015310  Reached the max session limit. (301) 2025-04-23 14:42:59.186 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (302) 2025-04-23 15:41:42.852 [INFO] database P0000067641 T0000000000000067641  version info: enterprise</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-(210, 0)
-(211, 0)
-(212, 1)
-(213, 0)
-(214, 0)
-(215, 1)
-(216, 0)
-(217, 0)
-(218, 1)
-(219, 0)
-(220, 0)
-(221, 1)
-(222, 1)
-(223, 1)
-(224, 0)
-(225, 0)
-(226, 1)
-(227, 1)
-(228, 0)
-(229, 1)
-(230, 1)
-(231, 0)
-(232, 1)
-(233, 0)
-(234, 0)
-(235, 1)
-(236, 0)
-(237, 1)
-(238, 1)</t>
+(457, 0)
+(458, 1)
+(459, 0)
+(460, 0)
+(461, 1)
+(462, 0)
+(463, 0)
+(464, 0)
+(465, 1)
+(466, 0)
+(467, 1)
+(468, 1)
+(469, 0)
+(470, 1)
+(471, 0)
+(472, 1)
+(473, 0)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['(147) 2025-04-23 15:00:36.506 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit.', '(148) 2025-04-23 15:45:14.253 [INFO] database P0000072676 T0000000000000072676  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(149) 2025-04-23 14:55:03.044 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.', '(150) 2025-04-23 15:52:19.786 [INFO] database P0000082963 T0000000000000082963  INI parameter DW_PORT changed, the original value 0, new value 4566', '(151) 2025-04-23 15:20:20.620 [INFO] database P0000036263 T0000000000000036263  info get from dcr disk, asm_host = localhost, asm_port = -1771569040, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(152) 2025-04-23 15:06:41.873 [ERROR] database P0000010414 T0000000000000015301  Reached the max session limit.', '(153) 2025-04-23 14:52:56.353 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit.', '(154) 2025-04-23 15:26:15.742 [INFO] database P0000045167 T0000000000000045167  INI parameter DW_PORT changed, the original value 0, new value 4566', '(155) 2025-04-23 15:04:51.975 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit.', '(156) 2025-04-23 15:15:31.463 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit.', '(157) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000074212  socket_err_should_retry errno:104', '(158) 2025-04-23 15:14:43.968 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit.', '(159) 2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000079836  socket_err_should_retry errno:104', '(160) 2025-04-23 15:32:11.556 [INFO] database P0000053877 T0000000000000053877  version info: enterprise', '(161) 2025-04-23 15:49:58.320 [INFO] database P0000079472 T0000000000000079472  dmshm2_attach, success, shm id 294913', '(162) 2025-04-23 15:51:08.693 [INFO] database P0000081263 T0000000000000081263  INI parameter DW_PORT changed, the original value 0, new value 4566', '(163) 2025-04-23 15:08:29.745 [WARNING] database P0000010414 T0000000000000020558  socket_err_should_retry errno:104', '(164) 2025-04-23 15:06:53.695 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit.', '(165) 2025-04-23 14:53:59.516 [ERROR] database P0000010414 T0000000000000015353  Reached the max session limit.', '(166) 2025-04-23 15:12:06.304 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.', '(167) 2025-04-23 15:23:53.568 [INFO] database P0000041615 T0000000000000041615  INI parameter DPC_2PC changed, the original value 1, new value 0', '(168) 2025-04-23 14:58:22.627 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit.', '(169) 2025-04-23 15:55:53.057 [INFO] database P0000088185 T0000000000000088185  INI parameter DW_PORT changed, the original value 0, new value 4566', '(170) 2025-04-23 14:59:19.366 [ERROR] database P0000010414 T0000000000000015338  Reached the max session limit.', '(171) 2025-04-23 15:16:45.085 [FATAL] database P0000010414 T0000000000000010873  hpc_heart_beat_dsk_thread halt, sys_status:OPEN, vtd_status:SYSHALT', '(172) 2025-04-23 15:49:58.329 [INFO] database P0000079472 T0000000000000079472  version info: enterprise', '(173) 2025-04-23 15:46:24.354 [INFO] database P0000074366 T0000000000000074366  INI parameter DW_PORT changed, the original value 0, new value 4566', '(174) 2025-04-23 15:06:18.387 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.', '(175) 2025-04-23 15:47:35.743 [INFO] database P0000076042 T0000000000000076042  info get from dcr disk, asm_host = localhost, asm_port = -951173008, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(176) 2025-04-23 15:10:32.744 [WARNING] database P0000010414 T0000000000000126806  socket_err_should_retry errno:104', '(177) 2025-04-23 14:54:30.615 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.', '(178) 2025-04-23 15:54:42.271 [INFO] database P0000086447 T0000000000000086447  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351']</t>
+          <t>['(259) 2025-04-23 14:43:00.176 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942203301), ckpt_fil(1), ckpt_off(227524608), cur_lsn(2826942348090), l_next_seq(46659482375), g_next_seq(46630685112), cur_free(260068352), total_space(8589926400), used_space(32543744), free_space(8557382656), n_ep(1)', '(260) 2025-04-23 15:23:53.898 [INFO] database P0000041615 T0000000000000041615  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(261) 2025-04-23 15:22:42.447 [INFO] database P0000039800 T0000000000000039800  INI parameter DPC_2PC changed, the original value 1, new value 0', '(262) 2025-04-23 15:31:00.468 [INFO] database P0000052077 T0000000000000052077  dmshm2_attach, success, shm id 294913', '(263) 2025-04-23 15:04:25.545 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.', '(264) 2025-04-23 15:34:33.421 [INFO] database P0000057373 T0000000000000057373  INI parameter DPC_2PC changed, the original value 1, new value 0', '(265) 2025-04-23 15:48:46.513 [INFO] database P0000077779 T0000000000000077779  INI parameter DPC_2PC changed, the original value 1, new value 0', '(266) 2025-04-23 14:56:08.344 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit.', '(267) 2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000080165  socket_err_should_retry errno:104', '(268) 2025-04-23 14:53:41.354 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.', '(269) 2025-04-23 15:58:15.716 [INFO] database P0000091708 T0000000000000091708  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(270) 2025-04-23 15:49:58.321 [INFO] database P0000079472 T0000000000000079472  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(271) 2025-04-23 15:00:47.828 [WARNING] database P0000010414 T0000000000000054087  socket_err_should_retry errno:104', '(272) 2025-04-23 15:00:47.959 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.', '(273) 2025-04-23 15:42:51.061 [INFO] database P0000069304 T0000000000000069304  INI parameter DW_PORT changed, the original value 0, new value 4566', '(274) 2025-04-23 15:54:42.257 [INFO] database P0000086447 T0000000000000086447  info get from dcr disk, asm_host = localhost, asm_port = -632488800, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(275) 2025-04-23 15:27:27.309 [INFO] database P0000046902 T0000000000000046902  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(276) 2025-04-23 15:10:32.744 [WARNING] database P0000010414 T0000000000000126573  socket_err_should_retry errno:104', '(277) 2025-04-23 15:33:22.314 [INFO] database P0000055615 T0000000000000055615  INI parameter DPC_2PC changed, the original value 1, new value 0', '(278) 2025-04-23 15:07:02.002 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit.', '(279) 2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000015248  checkpoint generate by dirty_pages[10999] &gt; ckpt_dirty_pages[10000]', '(280) 2025-04-23 14:59:25.790 [ERROR] database P0000010414 T0000000000000015301  Reached the max session limit.', '(281) 2025-04-23 15:51:09.085 [INFO] database P0000081263 T0000000000000081263  info get from dcr disk, asm_host = localhost, asm_port = 765973808, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(282) 2025-04-23 14:56:20.749 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.', '(283) 2025-04-23 15:34:33.817 [INFO] database P0000057373 T0000000000000057373  version info: enterprise', '(284) 2025-04-23 14:55:48.356 [ERROR] database P0000010414 T0000000000000015297  Reached the max session limit.', '(285) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000075932  socket_err_should_retry errno:104', '(286) 2025-04-23 14:43:00.176 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(287) 2025-04-23 14:43:00.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942206388), ckpt_fil(1), ckpt_off(228001792), cur_lsn(2826942354102), l_next_seq(46659482378), g_next_seq(46630685115), cur_free(260492800), total_space(8589926400), used_space(32491008), free_space(8557435392), n_ep(1)', '(288) 2025-04-23 15:33:22.595 [INFO] database P0000055615 T0000000000000055615  version info: enterprise', '(289) 2025-04-23 14:56:24.826 [ERROR] database P0000010414 T0000000000000015344  Reached the max session limit.', '(290) 2025-04-23 15:00:16.898 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit.', '(291) 2025-04-23 15:25:04.971 [INFO] database P0000043419 T0000000000000043419  info get from dcr disk, asm_host = localhost, asm_port = -495345360, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(292) 2025-04-23 15:21:31.595 [INFO] database P0000038061 T0000000000000038061  info get from dcr disk, asm_host = localhost, asm_port = 669194080, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(293) 2025-04-23 14:42:36.060 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942164226), ckpt_fil(1), ckpt_off(219097600), cur_lsn(2826942313022), l_next_seq(46659481498), g_next_seq(46630684235), cur_free(251105792), total_space(8589926400), used_space(32008192), free_space(8557918208), n_ep(1)', '(294) 2025-04-23 15:51:08.696 [INFO] database P0000081263 T0000000000000081263  INI parameter DPC_2PC changed, the original value 1, new value 0', '(295) 2025-04-23 14:43:00.168 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942202067), ckpt_fil(1), ckpt_off(227298304), cur_lsn(2826942348090), l_next_seq(46659482374), g_next_seq(46630685111), cur_free(260064256), total_space(8589926400), used_space(32765952), free_space(8557160448), n_ep(1)', '(296) 2025-04-23 14:59:19.366 [ERROR] database P0000010414 T0000000000000015338  Reached the max session limit.', '(297) 2025-04-23 15:06:18.387 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.', '(298) 2025-04-23 15:46:24.907 [INFO] database P0000074366 T0000000000000074366  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(299) 2025-04-23 15:44:02.616 [INFO] database P0000070934 T0000000000000070934  info get from dcr disk, asm_host = localhost, asm_port = -1934299008, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(300) 2025-04-23 15:10:16.604 [ERROR] database P0000010414 T0000000000000015310  Reached the max session limit.', '(301) 2025-04-23 14:42:59.186 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(302) 2025-04-23 15:41:42.852 [INFO] database P0000067641 T0000000000000067641  version info: enterprise']</t>
         </is>
       </c>
     </row>
@@ -830,46 +928,61 @@
         - status must be 0 if the log entry is a normal operation or informational message.
         - Output **only** a list of tuples. No extra text or explanation.
         ## Input Logs:
-         (179) 2025-04-23 14:42:48.038 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (180) 2025-04-23 15:36:55.944 [INFO] database P0000060808 T0000000000000060808  version info: enterprise (181) 2025-04-23 15:06:35.720 [ERROR] database P0000010414 T0000000000000015342  Reached the max session limit. (182) 2025-04-23 14:59:10.811 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit. (183) 2025-04-23 15:41:42.843 [INFO] database P0000067641 T0000000000000067641  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (184) 鏁版嵁搴撴棩蹇 (185) 2025-04-23 15:00:47.828 [WARNING] database P0000010414 T0000000000000054087  socket_err_should_retry errno:104 (186) 2025-04-23 14:55:26.228 [ERROR] database P0000010414 T0000000000000015300  Reached the max session limit. (187) 2025-04-23 15:11:12.950 [WARNING] database P0000010414 T0000000000000067645  socket_err_should_retry errno:104 (188) 2025-04-23 15:25:05.000 [INFO] database P0000043419 T0000000000000043419  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (189) 2025-04-23 15:35:44.844 [INFO] database P0000059105 T0000000000000059105  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (190) 2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000015249  checkpoint requested by CKPT_DIRTY_PAGES, rlog free space[8552856064], used space[37070336] (191) 2025-04-23 15:36:55.936 [INFO] database P0000060808 T0000000000000060808  dmshm2_attach, success, shm id 294913 (192) 2025-04-23 16:00:38.835 [INFO] database P0000095243 T0000000000000095243  dmshm2_attach, success, shm id 294913 (193) 2025-04-23 15:48:47.035 [INFO] database P0000077779 T0000000000000077779  info get from dcr disk, asm_host = localhost, asm_port = -60361776, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (194) 2025-04-23 15:10:32.834 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit. (195) 2025-04-23 15:04:50.324 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit. (196) 2025-04-23 15:04:26.019 [WARNING] database P0000010414 T0000000000000081894  socket_err_should_retry errno:104 (197) 2025-04-23 15:54:42.270 [INFO] database P0000086447 T0000000000000086447  dmshm2_attach, success, shm id 294913 (198) 2025-04-23 14:54:45.620 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit. (199) 2025-04-23 14:42:59.156 [INFO] database P0000010414 T0000000000000015201  utsk_get_dw_svr_info used 11 seconds (200) 2025-04-23 14:42:59.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942199188), ckpt_fil(1), ckpt_off(226743296), cur_lsn(2826942345656), l_next_seq(46659482251), g_next_seq(46630684988), cur_free(259518464), total_space(8589926400), used_space(32775168), free_space(8557151232), n_ep(1) (201) 2025-04-23 15:28:38.281 [INFO] database P0000048633 T0000000000000048633  version info: enterprise (202) 2025-04-23 15:16:45.084 [INFO] database P0000010414 T0000000000000010414  hpc_heart_beat_halt_and_wait change hdisk flag from 221 to 221 (203) 2025-04-23 14:50:04.170 [WARNING] database P0000010414 T0000000000000133070  socket_err_should_retry errno:104 (204) 2025-04-23 14:55:10.806 [WARNING] database P0000010414 T0000000000000131677  socket_err_should_retry errno:104 (205) 2025-04-23 15:48:46.513 [INFO] database P0000077779 T0000000000000077779  INI parameter DPC_2PC changed, the original value 1, new value 0 (206) 2025-04-23 14:57:54.970 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit. (207) 2025-04-23 15:02:38.521 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit. (208) 2025-04-23 15:10:16.604 [ERROR] database P0000010414 T0000000000000015310  Reached the max session limit. (209) 2025-04-23 15:11:09.163 [WARNING] database P0000010414 T0000000000000051265  socket_err_should_retry errno:38</t>
+         (303) 2025-04-23 15:40:29.248 [INFO] database P0000066033 T0000000000000066033  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (304) 2025-04-23 15:04:26.024 [WARNING] database P0000010414 T0000000000000083672  socket_err_should_retry errno:104 (305) 2025-04-23 15:32:11.549 [INFO] database P0000053877 T0000000000000053877  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (306) 2025-04-23 15:55:54.131 [INFO] database P0000088185 T0000000000000088185  dmshm2_attach, success, shm id 294913 (307) 2025-04-23 15:55:54.140 [INFO] database P0000088185 T0000000000000088185  version info: enterprise (308) 2025-04-23 15:17:58.211 [INFO] database P0000032706 T0000000000000032706  INI parameter DPC_2PC changed, the original value 1, new value 0 (309) 2025-04-23 14:42:59.193 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942188452), ckpt_fil(1), ckpt_off(223807488), cur_lsn(2826942345610), l_next_seq(46659482246), g_next_seq(46630684983), cur_free(259502080), total_space(8589926400), used_space(35700224), free_space(8554226176), n_ep(1) (310) 2025-04-23 15:02:26.865 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit. (311) 2025-04-23 15:44:02.229 [INFO] database P0000070934 T0000000000000070934  INI parameter DW_PORT changed, the original value 0, new value 4566 (312) 2025-04-23 15:10:32.740 [WARNING] database P0000010414 T0000000000000124796  socket_err_should_retry errno:104 (313) 2025-04-23 14:55:10.806 [WARNING] database P0000010414 T0000000000000131677  socket_err_should_retry errno:104 (314) 2025-04-23 15:45:14.261 [INFO] database P0000072676 T0000000000000072676  version info: enterprise (315) 2025-04-23 15:40:29.256 [INFO] database P0000066033 T0000000000000066033  version info: enterprise (316) 2025-04-23 15:23:53.568 [INFO] database P0000041615 T0000000000000041615  INI parameter DPC_2PC changed, the original value 1, new value 0 (317) 2025-04-23 14:55:10.806 [WARNING] database P0000010414 T0000000000000131695  socket_err_should_retry errno:104 (318) 2025-04-23 14:58:09.329 [ERROR] database P0000010414 T0000000000000015296  Reached the max session limit. (319) 2025-04-23 15:04:57.200 [ERROR] database P0000010414 T0000000000000015325  Reached the max session limit. (320) 2025-04-23 15:02:18.311 [ERROR] database P0000010414 T0000000000000015310  Reached the max session limit. (321) 2025-04-23 14:59:26.781 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit. (322) 2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000125099  socket_err_should_retry errno:104 (323) 2025-04-23 15:17:58.204 [INFO] database P0000032706 T0000000000000032706  INI parameter DW_PORT changed, the original value 0, new value 4566 (324) 2025-04-23 15:05:56.986 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit. (325) 2025-04-23 15:48:47.049 [INFO] database P0000077779 T0000000000000077779  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (326) 2025-04-23 15:21:31.609 [INFO] database P0000038061 T0000000000000038061  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (327) 2025-04-23 15:04:26.019 [WARNING] database P0000010414 T0000000000000081894  socket_err_should_retry errno:104 (328) 2025-04-23 15:44:02.637 [INFO] database P0000070934 T0000000000000070934  version info: enterprise (329) 2025-04-23 15:46:24.906 [INFO] database P0000074366 T0000000000000074366  dmshm2_attach, success, shm id 294913 (330) 2025-04-23 15:04:51.975 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit. (331) 2025-04-23 15:07:10.257 [ERROR] database P0000010414 T0000000000000015352  Reached the max session limit. (332) 2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000079443  socket_err_should_retry errno:104 (333) 2025-04-23 14:54:30.615 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit. (334) 2025-04-23 15:46:24.357 [INFO] database P0000074366 T0000000000000074366  INI parameter DPC_2PC changed, the original value 1, new value 0 (335) 2025-04-23 15:16:45.092 [FATAL] database P0000010414 T0000000000000010873  VTD_CMD_SYS_HALT (336) 2025-04-23 15:14:43.968 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit. (337) 2025-04-23 15:54:41.967 [INFO] database P0000086447 T0000000000000086447  INI parameter DPC_2PC changed, the original value 1, new value 0 (338) 2025-04-23 15:32:11.556 [INFO] database P0000053877 T0000000000000053877  version info: enterprise (339) 2025-04-23 14:48:46.033 [WARNING] database P0000010414 T0000000000000132713  socket_err_should_retry errno:104 (340) 2025-04-23 15:10:32.744 [WARNING] database P0000010414 T0000000000000126806  socket_err_should_retry errno:104 (341) 2025-04-23 14:55:41.259 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit. (342) 2025-04-23 15:19:09.586 [INFO] database P0000034512 T0000000000000034512  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (343) 2025-04-23 16:01:48.491 [INFO] database P0000097032 T0000000000000097032  INI parameter DW_PORT changed, the original value 0, new value 4566 (344) 2025-04-23 15:16:45.092 [INFO] database P0000010414 T0000000000000010873  total 3 rfil opened! (345) 2025-04-23 14:57:44.007 [WARNING] database P0000010414 T0000000000000067486  socket_err_should_retry errno:104 (346) 2025-04-23 15:35:44.511 [INFO] database P0000059105 T0000000000000059105  INI parameter DW_PORT changed, the original value 0, new value 4566 (347) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000082807  socket_err_should_retry errno:104 (348) 2025-04-23 15:55:53.057 [INFO] database P0000088185 T0000000000000088185  INI parameter DW_PORT changed, the original value 0, new value 4566 (349) 2025-04-23 16:00:37.442 [INFO] database P0000095243 T0000000000000095243  INI parameter DW_PORT changed, the original value 0, new value 4566 (350) 2025-04-23 14:55:51.055 [ERROR] database P0000010414 T0000000000000015314  Reached the max session limit. (351) 2025-04-23 15:22:42.696 [INFO] database P0000039800 T0000000000000039800  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (352) 2025-04-23 15:15:31.463 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit. (353) 2025-04-23 15:57:04.514 [INFO] database P0000089970 T0000000000000089970  dmshm2_attach, success, shm id 294913 (354) 2025-04-23 14:58:55.554 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit. (355) 2025-04-23 15:00:47.834 [WARNING] database P0000010414 T0000000000000130910  socket_err_should_retry errno:104 (356) 2025-04-23 15:52:22.132 [INFO] database P0000082963 T0000000000000082963  dmshm2_attach, success, shm id 294913 (357) 2025-04-23 15:25:04.653 [INFO] database P0000043419 T0000000000000043419  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">
+(259, 0)
+(260, 0)
+(261, 0)
+(262, 0)
+(263, 1)
+(264, 0)
+(265, 0)
+(266, 1)
+(267, 0)
+(268, 1)
+(269, 0)
 (270, 0)
-(271, 1)
-(272, 0)
-(273, 1)
-(274, 1)
+(271, 0)
+(272, 1)
+(273, 0)
+(274, 0)
 (275, 0)
 (276, 0)
 (277, 0)
 (278, 1)
-(279, 1)
-(280, 0)
+(279, 0)
+(280, 1)
 (281, 0)
-(282, 0)
-(283, 1)
-(284, 0)
-(285, 1)
+(282, 1)
+(283, 0)
+(284, 1)
+(285, 0)
 (286, 0)
 (287, 0)
 (288, 0)
-(289, 0)
+(289, 1)
 (290, 1)
-(291, 1)
-(292, 1)
+(291, 0)
+(292, 0)
 (293, 0)
 (294, 0)
-(295, 1)
+(295, 0)
 (296, 1)
-(297, 0)
-(298, 0)</t>
+(297, 1)
+(298, 0)
+(299, 0)
+(300, 1)
+(301, 0)
+(302, 0)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['(179) 2025-04-23 14:42:48.038 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(180) 2025-04-23 15:36:55.944 [INFO] database P0000060808 T0000000000000060808  version info: enterprise', '(181) 2025-04-23 15:06:35.720 [ERROR] database P0000010414 T0000000000000015342  Reached the max session limit.', '(182) 2025-04-23 14:59:10.811 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit.', '(183) 2025-04-23 15:41:42.843 [INFO] database P0000067641 T0000000000000067641  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(184) 鏁版嵁搴撴棩蹇', '(185) 2025-04-23 15:00:47.828 [WARNING] database P0000010414 T0000000000000054087  socket_err_should_retry errno:104', '(186) 2025-04-23 14:55:26.228 [ERROR] database P0000010414 T0000000000000015300  Reached the max session limit.', '(187) 2025-04-23 15:11:12.950 [WARNING] database P0000010414 T0000000000000067645  socket_err_should_retry errno:104', '(188) 2025-04-23 15:25:05.000 [INFO] database P0000043419 T0000000000000043419  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(189) 2025-04-23 15:35:44.844 [INFO] database P0000059105 T0000000000000059105  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(190) 2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000015249  checkpoint requested by CKPT_DIRTY_PAGES, rlog free space[8552856064], used space[37070336]', '(191) 2025-04-23 15:36:55.936 [INFO] database P0000060808 T0000000000000060808  dmshm2_attach, success, shm id 294913', '(192) 2025-04-23 16:00:38.835 [INFO] database P0000095243 T0000000000000095243  dmshm2_attach, success, shm id 294913', '(193) 2025-04-23 15:48:47.035 [INFO] database P0000077779 T0000000000000077779  info get from dcr disk, asm_host = localhost, asm_port = -60361776, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(194) 2025-04-23 15:10:32.834 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.', '(195) 2025-04-23 15:04:50.324 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit.', '(196) 2025-04-23 15:04:26.019 [WARNING] database P0000010414 T0000000000000081894  socket_err_should_retry errno:104', '(197) 2025-04-23 15:54:42.270 [INFO] database P0000086447 T0000000000000086447  dmshm2_attach, success, shm id 294913', '(198) 2025-04-23 14:54:45.620 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.', '(199) 2025-04-23 14:42:59.156 [INFO] database P0000010414 T0000000000000015201  utsk_get_dw_svr_info used 11 seconds', '(200) 2025-04-23 14:42:59.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942199188), ckpt_fil(1), ckpt_off(226743296), cur_lsn(2826942345656), l_next_seq(46659482251), g_next_seq(46630684988), cur_free(259518464), total_space(8589926400), used_space(32775168), free_space(8557151232), n_ep(1)', '(201) 2025-04-23 15:28:38.281 [INFO] database P0000048633 T0000000000000048633  version info: enterprise', '(202) 2025-04-23 15:16:45.084 [INFO] database P0000010414 T0000000000000010414  hpc_heart_beat_halt_and_wait change hdisk flag from 221 to 221', '(203) 2025-04-23 14:50:04.170 [WARNING] database P0000010414 T0000000000000133070  socket_err_should_retry errno:104', '(204) 2025-04-23 14:55:10.806 [WARNING] database P0000010414 T0000000000000131677  socket_err_should_retry errno:104', '(205) 2025-04-23 15:48:46.513 [INFO] database P0000077779 T0000000000000077779  INI parameter DPC_2PC changed, the original value 1, new value 0', '(206) 2025-04-23 14:57:54.970 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.', '(207) 2025-04-23 15:02:38.521 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.', '(208) 2025-04-23 15:10:16.604 [ERROR] database P0000010414 T0000000000000015310  Reached the max session limit.', '(209) 2025-04-23 15:11:09.163 [WARNING] database P0000010414 T0000000000000051265  socket_err_should_retry errno:38']</t>
+          <t>['(303) 2025-04-23 15:40:29.248 [INFO] database P0000066033 T0000000000000066033  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(304) 2025-04-23 15:04:26.024 [WARNING] database P0000010414 T0000000000000083672  socket_err_should_retry errno:104', '(305) 2025-04-23 15:32:11.549 [INFO] database P0000053877 T0000000000000053877  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(306) 2025-04-23 15:55:54.131 [INFO] database P0000088185 T0000000000000088185  dmshm2_attach, success, shm id 294913', '(307) 2025-04-23 15:55:54.140 [INFO] database P0000088185 T0000000000000088185  version info: enterprise', '(308) 2025-04-23 15:17:58.211 [INFO] database P0000032706 T0000000000000032706  INI parameter DPC_2PC changed, the original value 1, new value 0', '(309) 2025-04-23 14:42:59.193 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942188452), ckpt_fil(1), ckpt_off(223807488), cur_lsn(2826942345610), l_next_seq(46659482246), g_next_seq(46630684983), cur_free(259502080), total_space(8589926400), used_space(35700224), free_space(8554226176), n_ep(1)', '(310) 2025-04-23 15:02:26.865 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit.', '(311) 2025-04-23 15:44:02.229 [INFO] database P0000070934 T0000000000000070934  INI parameter DW_PORT changed, the original value 0, new value 4566', '(312) 2025-04-23 15:10:32.740 [WARNING] database P0000010414 T0000000000000124796  socket_err_should_retry errno:104', '(313) 2025-04-23 14:55:10.806 [WARNING] database P0000010414 T0000000000000131677  socket_err_should_retry errno:104', '(314) 2025-04-23 15:45:14.261 [INFO] database P0000072676 T0000000000000072676  version info: enterprise', '(315) 2025-04-23 15:40:29.256 [INFO] database P0000066033 T0000000000000066033  version info: enterprise', '(316) 2025-04-23 15:23:53.568 [INFO] database P0000041615 T0000000000000041615  INI parameter DPC_2PC changed, the original value 1, new value 0', '(317) 2025-04-23 14:55:10.806 [WARNING] database P0000010414 T0000000000000131695  socket_err_should_retry errno:104', '(318) 2025-04-23 14:58:09.329 [ERROR] database P0000010414 T0000000000000015296  Reached the max session limit.', '(319) 2025-04-23 15:04:57.200 [ERROR] database P0000010414 T0000000000000015325  Reached the max session limit.', '(320) 2025-04-23 15:02:18.311 [ERROR] database P0000010414 T0000000000000015310  Reached the max session limit.', '(321) 2025-04-23 14:59:26.781 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit.', '(322) 2025-04-23 15:10:32.742 [WARNING] database P0000010414 T0000000000000125099  socket_err_should_retry errno:104', '(323) 2025-04-23 15:17:58.204 [INFO] database P0000032706 T0000000000000032706  INI parameter DW_PORT changed, the original value 0, new value 4566', '(324) 2025-04-23 15:05:56.986 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.', '(325) 2025-04-23 15:48:47.049 [INFO] database P0000077779 T0000000000000077779  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(326) 2025-04-23 15:21:31.609 [INFO] database P0000038061 T0000000000000038061  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(327) 2025-04-23 15:04:26.019 [WARNING] database P0000010414 T0000000000000081894  socket_err_should_retry errno:104', '(328) 2025-04-23 15:44:02.637 [INFO] database P0000070934 T0000000000000070934  version info: enterprise', '(329) 2025-04-23 15:46:24.906 [INFO] database P0000074366 T0000000000000074366  dmshm2_attach, success, shm id 294913', '(330) 2025-04-23 15:04:51.975 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.', '(331) 2025-04-23 15:07:10.257 [ERROR] database P0000010414 T0000000000000015352  Reached the max session limit.', '(332) 2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000079443  socket_err_should_retry errno:104', '(333) 2025-04-23 14:54:30.615 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.', '(334) 2025-04-23 15:46:24.357 [INFO] database P0000074366 T0000000000000074366  INI parameter DPC_2PC changed, the original value 1, new value 0', '(335) 2025-04-23 15:16:45.092 [FATAL] database P0000010414 T0000000000000010873  VTD_CMD_SYS_HALT', '(336) 2025-04-23 15:14:43.968 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit.', '(337) 2025-04-23 15:54:41.967 [INFO] database P0000086447 T0000000000000086447  INI parameter DPC_2PC changed, the original value 1, new value 0', '(338) 2025-04-23 15:32:11.556 [INFO] database P0000053877 T0000000000000053877  version info: enterprise', '(339) 2025-04-23 14:48:46.033 [WARNING] database P0000010414 T0000000000000132713  socket_err_should_retry errno:104', '(340) 2025-04-23 15:10:32.744 [WARNING] database P0000010414 T0000000000000126806  socket_err_should_retry errno:104', '(341) 2025-04-23 14:55:41.259 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit.', '(342) 2025-04-23 15:19:09.586 [INFO] database P0000034512 T0000000000000034512  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(343) 2025-04-23 16:01:48.491 [INFO] database P0000097032 T0000000000000097032  INI parameter DW_PORT changed, the original value 0, new value 4566', '(344) 2025-04-23 15:16:45.092 [INFO] database P0000010414 T0000000000000010873  total 3 rfil opened!', '(345) 2025-04-23 14:57:44.007 [WARNING] database P0000010414 T0000000000000067486  socket_err_should_retry errno:104', '(346) 2025-04-23 15:35:44.511 [INFO] database P0000059105 T0000000000000059105  INI parameter DW_PORT changed, the original value 0, new value 4566', '(347) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000082807  socket_err_should_retry errno:104', '(348) 2025-04-23 15:55:53.057 [INFO] database P0000088185 T0000000000000088185  INI parameter DW_PORT changed, the original value 0, new value 4566', '(349) 2025-04-23 16:00:37.442 [INFO] database P0000095243 T0000000000000095243  INI parameter DW_PORT changed, the original value 0, new value 4566', '(350) 2025-04-23 14:55:51.055 [ERROR] database P0000010414 T0000000000000015314  Reached the max session limit.', '(351) 2025-04-23 15:22:42.696 [INFO] database P0000039800 T0000000000000039800  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(352) 2025-04-23 15:15:31.463 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit.', '(353) 2025-04-23 15:57:04.514 [INFO] database P0000089970 T0000000000000089970  dmshm2_attach, success, shm id 294913', '(354) 2025-04-23 14:58:55.554 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.', '(355) 2025-04-23 15:00:47.834 [WARNING] database P0000010414 T0000000000000130910  socket_err_should_retry errno:104', '(356) 2025-04-23 15:52:22.132 [INFO] database P0000082963 T0000000000000082963  dmshm2_attach, success, shm id 294913', '(357) 2025-04-23 15:25:04.653 [INFO] database P0000043419 T0000000000000043419  INI parameter DW_PORT changed, the original value 0, new value 4566']</t>
         </is>
       </c>
     </row>
@@ -890,49 +1003,69 @@
         - status must be 0 if the log entry is a normal operation or informational message.
         - Output **only** a list of tuples. No extra text or explanation.
         ## Input Logs:
-         (210) 2025-04-23 15:57:04.515 [INFO] database P0000089970 T0000000000000089970  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (211) 2025-04-23 15:19:09.178 [INFO] database P0000034512 T0000000000000034512  INI parameter DW_PORT changed, the original value 0, new value 4566 (212) 2025-04-23 14:55:52.796 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit. (213) 2025-04-23 15:46:24.907 [INFO] database P0000074366 T0000000000000074366  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (214) 2025-04-23 15:34:33.795 [INFO] database P0000057373 T0000000000000057373  info get from dcr disk, asm_host = localhost, asm_port = 24652992, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (215) 2025-04-23 14:57:05.371 [ERROR] database P0000010414 T0000000000000015355  Reached the max session limit. (216) 2025-04-23 15:23:53.563 [INFO] database P0000041615 T0000000000000041615  INI parameter DW_PORT changed, the original value 0, new value 4566 (217) 2025-04-23 15:36:55.604 [INFO] database P0000060808 T0000000000000060808  INI parameter DW_PORT changed, the original value 0, new value 4566 (218) 2025-04-23 14:59:21.918 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit. (219) 2025-04-23 15:32:11.535 [INFO] database P0000053877 T0000000000000053877  info get from dcr disk, asm_host = localhost, asm_port = -1909819136, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (220) 2025-04-23 15:35:44.843 [INFO] database P0000059105 T0000000000000059105  dmshm2_attach, success, shm id 294913 (221) 2025-04-23 14:48:01.025 [WARNING] database P0000010414 T0000000000000131281  socket_err_should_retry errno:104 (222) 2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000081572  socket_err_should_retry errno:104 (223) 2025-04-23 14:53:17.651 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit. (224) 2025-04-23 15:53:32.130 [INFO] database P0000084718 T0000000000000084718  info get from dcr disk, asm_host = localhost, asm_port = -1557384896, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (225) 2025-04-23 15:44:02.229 [INFO] database P0000070934 T0000000000000070934  INI parameter DW_PORT changed, the original value 0, new value 4566 (226) 2025-04-23 15:16:45.092 [FATAL] database P0000010414 T0000000000000010873  VTD_CMD_SYS_HALT (227) 2025-04-23 15:07:10.257 [ERROR] database P0000010414 T0000000000000015352  Reached the max session limit. (228) 2025-04-23 16:00:37.446 [INFO] database P0000095243 T0000000000000095243  INI parameter DPC_2PC changed, the original value 1, new value 0 (229) 2025-04-23 15:00:22.246 [WARNING] database P0000010414 T0000000000000038860  socket_err_should_retry errno:104 (230) 2025-04-23 15:17:58.204 [INFO] database P0000032706 T0000000000000032706  INI parameter DW_PORT changed, the original value 0, new value 4566 (231) 2025-04-23 15:38:06.697 [INFO] database P0000062613 T0000000000000062613  INI parameter DPC_2PC changed, the original value 1, new value 0 (232) 2025-04-23 15:10:30.019 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit. (233) 2025-04-23 15:38:06.953 [INFO] database P0000062613 T0000000000000062613  version info: enterprise (234) 2025-04-23 15:14:59.739 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit. (235) 2025-04-23 14:54:12.745 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit. (236) 2025-04-23 15:55:53.060 [INFO] database P0000088185 T0000000000000088185  INI parameter DPC_2PC changed, the original value 1, new value 0 (237) 2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000081300  socket_err_should_retry errno:104 (238) 2025-04-23 15:58:15.716 [INFO] database P0000091708 T0000000000000091708  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351</t>
+         (358) 2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000083247  socket_err_should_retry errno:104 (359) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000078503  socket_err_should_retry errno:104 (360) 2025-04-23 14:58:19.573 [ERROR] database P0000010414 T0000000000000015333  Reached the max session limit. (361) 2025-04-23 15:51:09.098 [INFO] database P0000081263 T0000000000000081263  dmshm2_attach, success, shm id 294913 (362) 2025-04-23 15:04:39.595 [ERROR] database P0000010414 T0000000000000015355  Reached the max session limit. (363) 2025-04-23 15:05:07.862 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit. (364) 2025-04-23 15:42:51.666 [INFO] database P0000069304 T0000000000000069304  info get from dcr disk, asm_host = localhost, asm_port = 959175536, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (365) 2025-04-23 14:42:59.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942199188), ckpt_fil(1), ckpt_off(226743296), cur_lsn(2826942345656), l_next_seq(46659482251), g_next_seq(46630684988), cur_free(259518464), total_space(8589926400), used_space(32775168), free_space(8557151232), n_ep(1) (366) 2025-04-23 14:57:31.702 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit. (367) 2025-04-23 15:11:51.960 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit. (368) 2025-04-23 15:35:44.843 [INFO] database P0000059105 T0000000000000059105  dmshm2_attach, success, shm id 294913 (369) 2025-04-23 15:01:46.393 [ERROR] database P0000010414 T0000000000000015322  Reached the max session limit. (370) 2025-04-23 15:41:42.843 [INFO] database P0000067641 T0000000000000067641  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (371) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000072352  socket_err_should_retry errno:104 (372) 2025-04-23 15:00:04.475 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit. (373) 2025-04-23 15:29:49.309 [INFO] database P0000050345 T0000000000000050345  info get from dcr disk, asm_host = localhost, asm_port = 785222400, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (374) 2025-04-23 14:42:59.213 [INFO] database P0000010414 T0000000000000013572  checkpoint end, 951 pages flushed, used_space[32737280], free_space[8557189120]. (375) 2025-04-23 15:11:01.386 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit. (376) 2025-04-23 15:14:49.167 [ERROR] database P0000010414 T0000000000000015338  Reached the max session limit. (377) 鏁版嵁搴撴棩蹇 (378) 2025-04-23 14:42:59.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (379) 2025-04-23 15:11:12.947 [WARNING] database P0000010414 T0000000000000070502  socket_err_should_retry errno:104 (380) 2025-04-23 15:51:09.099 [INFO] database P0000081263 T0000000000000081263  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (381) 2025-04-23 15:34:33.808 [INFO] database P0000057373 T0000000000000057373  dmshm2_attach, success, shm id 294913 (382) 2025-04-23 15:12:06.304 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit. (383) 2025-04-23 14:48:01.025 [WARNING] database P0000010414 T0000000000000131281  socket_err_should_retry errno:104 (384) 2025-04-23 14:59:05.111 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit. (385) 2025-04-23 15:06:53.695 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit. (386) 2025-04-23 15:53:30.940 [INFO] database P0000084718 T0000000000000084718  INI parameter DPC_2PC changed, the original value 1, new value 0 (387) 2025-04-23 15:36:55.922 [INFO] database P0000060808 T0000000000000060808  info get from dcr disk, asm_host = localhost, asm_port = -1069127248, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (388) 2025-04-23 15:35:44.830 [INFO] database P0000059105 T0000000000000059105  info get from dcr disk, asm_host = localhost, asm_port = 1096376560, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (389) 2025-04-23 15:31:00.477 [INFO] database P0000052077 T0000000000000052077  version info: enterprise (390) 2025-04-23 15:00:52.245 [ERROR] database P0000010414 T0000000000000015321  Reached the max session limit. (391) 2025-04-23 15:28:38.281 [INFO] database P0000048633 T0000000000000048633  version info: enterprise (392) 2025-04-23 15:53:32.144 [INFO] database P0000084718 T0000000000000084718  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (393) 2025-04-23 14:59:50.202 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit. (394) 2025-04-23 15:59:26.750 [INFO] database P0000093438 T0000000000000093438  info get from dcr disk, asm_host = localhost, asm_port = -1724178496, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (395) 2025-04-23 14:50:04.170 [WARNING] database P0000010414 T0000000000000133540  socket_err_should_retry errno:104 (396) 2025-04-23 15:59:26.765 [INFO] database P0000093438 T0000000000000093438  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (397) 2025-04-23 15:15:01.381 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit. (398) 2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000083470  socket_err_should_retry errno:104 (399) 2025-04-23 15:36:55.936 [INFO] database P0000060808 T0000000000000060808  dmshm2_attach, success, shm id 294913 (400) 2025-04-23 14:56:58.772 [ERROR] database P0000010414 T0000000000000015296  Reached the max session limit. (401) 2025-04-23 15:48:46.510 [INFO] database P0000077779 T0000000000000077779  INI parameter DW_PORT changed, the original value 0, new value 4566 (402) 2025-04-23 15:19:09.183 [INFO] database P0000034512 T0000000000000034512  INI parameter DPC_2PC changed, the original value 1, new value 0 (403) 2025-04-23 15:38:06.945 [INFO] database P0000062613 T0000000000000062613  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (404) 2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000015249  checkpoint generate by dirty_pages[10536] &gt; ckpt_dirty_pages[10000] (405) 2025-04-23 15:38:06.944 [INFO] database P0000062613 T0000000000000062613  dmshm2_attach, success, shm id 294913 (406) 2025-04-23 15:35:44.514 [INFO] database P0000059105 T0000000000000059105  INI parameter DPC_2PC changed, the original value 1, new value 0 (407) 2025-04-23 15:11:09.163 [WARNING] database P0000010414 T0000000000000051265  socket_err_should_retry errno:38 (408) 2025-04-23 15:40:29.247 [INFO] database P0000066033 T0000000000000066033  dmshm2_attach, success, shm id 294913</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-(299, 0)
-(300, 1)
-(301, 1)
-(302, 1)
-(303, 0)
-(304, 0)
-(305, 0)
-(306, 0)
-(307, 0)
-(308, 0)
-(309, 0)
-(310, 0)
-(311, 1)
-(312, 0)
-(313, 0)
-(314, 0)
-(315, 1)
-(316, 0)
-(317, 1)
-(318, 0)
-(319, 0)
-(320, 1)
-(321, 1)
-(322, 0)
-(323, 0)
-(324, 0)
-(325, 1)
-(326, 0)
-(327, 0)
-(328, 1)
-(329, 1)
-(330, 0)</t>
+(358, 1)
+(359, 1)
+(360, 1)
+(361, 0)
+(362, 1)
+(363, 1)
+(364, 0)
+(365, 0)
+(366, 1)
+(367, 1)
+(368, 0)
+(369, 1)
+(370, 0)
+(371, 1)
+(372, 1)
+(373, 0)
+(374, 0)
+(375, 1)
+(376, 1)
+(377, 0)
+(378, 0)
+(379, 1)
+(380, 0)
+(381, 0)
+(382, 1)
+(383, 1)
+(384, 1)
+(385, 1)
+(386, 0)
+(387, 0)
+(388, 0)
+(389, 0)
+(390, 1)
+(391, 0)
+(392, 0)
+(393, 1)
+(394, 0)
+(395, 1)
+(396, 0)
+(397, 1)
+(398, 1)
+(399, 0)
+(400, 1)
+(401, 0)
+(402, 0)
+(403, 0)
+(404, 0)
+(405, 0)
+(406, 0)
+(407, 0)
+(408, 1)
+(409, 0)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['(210) 2025-04-23 15:57:04.515 [INFO] database P0000089970 T0000000000000089970  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(211) 2025-04-23 15:19:09.178 [INFO] database P0000034512 T0000000000000034512  INI parameter DW_PORT changed, the original value 0, new value 4566', '(212) 2025-04-23 14:55:52.796 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.', '(213) 2025-04-23 15:46:24.907 [INFO] database P0000074366 T0000000000000074366  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(214) 2025-04-23 15:34:33.795 [INFO] database P0000057373 T0000000000000057373  info get from dcr disk, asm_host = localhost, asm_port = 24652992, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(215) 2025-04-23 14:57:05.371 [ERROR] database P0000010414 T0000000000000015355  Reached the max session limit.', '(216) 2025-04-23 15:23:53.563 [INFO] database P0000041615 T0000000000000041615  INI parameter DW_PORT changed, the original value 0, new value 4566', '(217) 2025-04-23 15:36:55.604 [INFO] database P0000060808 T0000000000000060808  INI parameter DW_PORT changed, the original value 0, new value 4566', '(218) 2025-04-23 14:59:21.918 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit.', '(219) 2025-04-23 15:32:11.535 [INFO] database P0000053877 T0000000000000053877  info get from dcr disk, asm_host = localhost, asm_port = -1909819136, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(220) 2025-04-23 15:35:44.843 [INFO] database P0000059105 T0000000000000059105  dmshm2_attach, success, shm id 294913', '(221) 2025-04-23 14:48:01.025 [WARNING] database P0000010414 T0000000000000131281  socket_err_should_retry errno:104', '(222) 2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000081572  socket_err_should_retry errno:104', '(223) 2025-04-23 14:53:17.651 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit.', '(224) 2025-04-23 15:53:32.130 [INFO] database P0000084718 T0000000000000084718  info get from dcr disk, asm_host = localhost, asm_port = -1557384896, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(225) 2025-04-23 15:44:02.229 [INFO] database P0000070934 T0000000000000070934  INI parameter DW_PORT changed, the original value 0, new value 4566', '(226) 2025-04-23 15:16:45.092 [FATAL] database P0000010414 T0000000000000010873  VTD_CMD_SYS_HALT', '(227) 2025-04-23 15:07:10.257 [ERROR] database P0000010414 T0000000000000015352  Reached the max session limit.', '(228) 2025-04-23 16:00:37.446 [INFO] database P0000095243 T0000000000000095243  INI parameter DPC_2PC changed, the original value 1, new value 0', '(229) 2025-04-23 15:00:22.246 [WARNING] database P0000010414 T0000000000000038860  socket_err_should_retry errno:104', '(230) 2025-04-23 15:17:58.204 [INFO] database P0000032706 T0000000000000032706  INI parameter DW_PORT changed, the original value 0, new value 4566', '(231) 2025-04-23 15:38:06.697 [INFO] database P0000062613 T0000000000000062613  INI parameter DPC_2PC changed, the original value 1, new value 0', '(232) 2025-04-23 15:10:30.019 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.', '(233) 2025-04-23 15:38:06.953 [INFO] database P0000062613 T0000000000000062613  version info: enterprise', '(234) 2025-04-23 15:14:59.739 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit.', '(235) 2025-04-23 14:54:12.745 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit.', '(236) 2025-04-23 15:55:53.060 [INFO] database P0000088185 T0000000000000088185  INI parameter DPC_2PC changed, the original value 1, new value 0', '(237) 2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000081300  socket_err_should_retry errno:104', '(238) 2025-04-23 15:58:15.716 [INFO] database P0000091708 T0000000000000091708  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351']</t>
+          <t>['(358) 2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000083247  socket_err_should_retry errno:104', '(359) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000078503  socket_err_should_retry errno:104', '(360) 2025-04-23 14:58:19.573 [ERROR] database P0000010414 T0000000000000015333  Reached the max session limit.', '(361) 2025-04-23 15:51:09.098 [INFO] database P0000081263 T0000000000000081263  dmshm2_attach, success, shm id 294913', '(362) 2025-04-23 15:04:39.595 [ERROR] database P0000010414 T0000000000000015355  Reached the max session limit.', '(363) 2025-04-23 15:05:07.862 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit.', '(364) 2025-04-23 15:42:51.666 [INFO] database P0000069304 T0000000000000069304  info get from dcr disk, asm_host = localhost, asm_port = 959175536, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(365) 2025-04-23 14:42:59.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942199188), ckpt_fil(1), ckpt_off(226743296), cur_lsn(2826942345656), l_next_seq(46659482251), g_next_seq(46630684988), cur_free(259518464), total_space(8589926400), used_space(32775168), free_space(8557151232), n_ep(1)', '(366) 2025-04-23 14:57:31.702 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit.', '(367) 2025-04-23 15:11:51.960 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit.', '(368) 2025-04-23 15:35:44.843 [INFO] database P0000059105 T0000000000000059105  dmshm2_attach, success, shm id 294913', '(369) 2025-04-23 15:01:46.393 [ERROR] database P0000010414 T0000000000000015322  Reached the max session limit.', '(370) 2025-04-23 15:41:42.843 [INFO] database P0000067641 T0000000000000067641  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(371) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000072352  socket_err_should_retry errno:104', '(372) 2025-04-23 15:00:04.475 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.', '(373) 2025-04-23 15:29:49.309 [INFO] database P0000050345 T0000000000000050345  info get from dcr disk, asm_host = localhost, asm_port = 785222400, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(374) 2025-04-23 14:42:59.213 [INFO] database P0000010414 T0000000000000013572  checkpoint end, 951 pages flushed, used_space[32737280], free_space[8557189120].', '(375) 2025-04-23 15:11:01.386 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit.', '(376) 2025-04-23 15:14:49.167 [ERROR] database P0000010414 T0000000000000015338  Reached the max session limit.', '(377) 鏁版嵁搴撴棩蹇', '(378) 2025-04-23 14:42:59.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(379) 2025-04-23 15:11:12.947 [WARNING] database P0000010414 T0000000000000070502  socket_err_should_retry errno:104', '(380) 2025-04-23 15:51:09.099 [INFO] database P0000081263 T0000000000000081263  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(381) 2025-04-23 15:34:33.808 [INFO] database P0000057373 T0000000000000057373  dmshm2_attach, success, shm id 294913', '(382) 2025-04-23 15:12:06.304 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.', '(383) 2025-04-23 14:48:01.025 [WARNING] database P0000010414 T0000000000000131281  socket_err_should_retry errno:104', '(384) 2025-04-23 14:59:05.111 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.', '(385) 2025-04-23 15:06:53.695 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit.', '(386) 2025-04-23 15:53:30.940 [INFO] database P0000084718 T0000000000000084718  INI parameter DPC_2PC changed, the original value 1, new value 0', '(387) 2025-04-23 15:36:55.922 [INFO] database P0000060808 T0000000000000060808  info get from dcr disk, asm_host = localhost, asm_port = -1069127248, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(388) 2025-04-23 15:35:44.830 [INFO] database P0000059105 T0000000000000059105  info get from dcr disk, asm_host = localhost, asm_port = 1096376560, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(389) 2025-04-23 15:31:00.477 [INFO] database P0000052077 T0000000000000052077  version info: enterprise', '(390) 2025-04-23 15:00:52.245 [ERROR] database P0000010414 T0000000000000015321  Reached the max session limit.', '(391) 2025-04-23 15:28:38.281 [INFO] database P0000048633 T0000000000000048633  version info: enterprise', '(392) 2025-04-23 15:53:32.144 [INFO] database P0000084718 T0000000000000084718  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(393) 2025-04-23 14:59:50.202 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit.', '(394) 2025-04-23 15:59:26.750 [INFO] database P0000093438 T0000000000000093438  info get from dcr disk, asm_host = localhost, asm_port = -1724178496, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(395) 2025-04-23 14:50:04.170 [WARNING] database P0000010414 T0000000000000133540  socket_err_should_retry errno:104', '(396) 2025-04-23 15:59:26.765 [INFO] database P0000093438 T0000000000000093438  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(397) 2025-04-23 15:15:01.381 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit.', '(398) 2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000083470  socket_err_should_retry errno:104', '(399) 2025-04-23 15:36:55.936 [INFO] database P0000060808 T0000000000000060808  dmshm2_attach, success, shm id 294913', '(400) 2025-04-23 14:56:58.772 [ERROR] database P0000010414 T0000000000000015296  Reached the max session limit.', '(401) 2025-04-23 15:48:46.510 [INFO] database P0000077779 T0000000000000077779  INI parameter DW_PORT changed, the original value 0, new value 4566', '(402) 2025-04-23 15:19:09.183 [INFO] database P0000034512 T0000000000000034512  INI parameter DPC_2PC changed, the original value 1, new value 0', '(403) 2025-04-23 15:38:06.945 [INFO] database P0000062613 T0000000000000062613  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(404) 2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000015249  checkpoint generate by dirty_pages[10536] &gt; ckpt_dirty_pages[10000]', '(405) 2025-04-23 15:38:06.944 [INFO] database P0000062613 T0000000000000062613  dmshm2_attach, success, shm id 294913', '(406) 2025-04-23 15:35:44.514 [INFO] database P0000059105 T0000000000000059105  INI parameter DPC_2PC changed, the original value 1, new value 0', '(407) 2025-04-23 15:11:09.163 [WARNING] database P0000010414 T0000000000000051265  socket_err_should_retry errno:38', '(408) 2025-04-23 15:40:29.247 [INFO] database P0000066033 T0000000000000066033  dmshm2_attach, success, shm id 294913']</t>
         </is>
       </c>
     </row>
@@ -953,45 +1086,65 @@
         - status must be 0 if the log entry is a normal operation or informational message.
         - Output **only** a list of tuples. No extra text or explanation.
         ## Input Logs:
-         (239) 2025-04-23 15:08:59.204 [ERROR] database P0000010414 T0000000000000015314  Reached the max session limit. (240) 2025-04-23 15:02:26.865 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit. (241) 2025-04-23 15:36:55.937 [INFO] database P0000060808 T0000000000000060808  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (242) 2025-04-23 15:47:35.454 [INFO] database P0000076042 T0000000000000076042  INI parameter DPC_2PC changed, the original value 1, new value 0 (243) 2025-04-23 15:22:42.447 [INFO] database P0000039800 T0000000000000039800  INI parameter DPC_2PC changed, the original value 1, new value 0 (244) 2025-04-23 15:44:02.629 [INFO] database P0000070934 T0000000000000070934  dmshm2_attach, success, shm id 294913 (245) 2025-04-23 15:00:22.300 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit. (246) 2025-04-23 14:54:31.535 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit. (247) 2025-04-23 14:43:00.168 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942202067), ckpt_fil(1), ckpt_off(227298304), cur_lsn(2826942348090), l_next_seq(46659482374), g_next_seq(46630685111), cur_free(260064256), total_space(8589926400), used_space(32765952), free_space(8557160448), n_ep(1) (248) 2025-04-23 14:54:19.302 [ERROR] database P0000010414 T0000000000000015311  Reached the max session limit. (249) 2025-04-23 14:49:01.955 [WARNING] database P0000010414 T0000000000000133224  socket_err_should_retry errno:104 (250) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000081132  socket_err_should_retry errno:104 (251) 2025-04-23 15:23:53.897 [INFO] database P0000041615 T0000000000000041615  dmshm2_attach, success, shm id 294913 (252) 2025-04-23 14:59:22.916 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit. (253) 2025-04-23 15:11:01.386 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit. (254) 2025-04-23 15:45:13.251 [INFO] database P0000072676 T0000000000000072676  INI parameter DW_PORT changed, the original value 0, new value 4566 (255) 2025-04-23 14:42:59.175 [WARNING] database P0000010414 T0000000000000015201  Get svr info time used:11 (256) 2025-04-23 14:48:46.033 [WARNING] database P0000010414 T0000000000000132713  socket_err_should_retry errno:104 (257) 2025-04-23 15:53:30.936 [INFO] database P0000084718 T0000000000000084718  INI parameter DW_PORT changed, the original value 0, new value 4566 (258) 2025-04-23 14:58:47.494 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit. (259) 2025-04-23 15:29:49.321 [INFO] database P0000050345 T0000000000000050345  dmshm2_attach, success, shm id 294913 (260) 2025-04-23 15:10:32.743 [WARNING] database P0000010414 T0000000000000123810  socket_err_should_retry errno:104 (261) 2025-04-23 15:29:49.025 [INFO] database P0000050345 T0000000000000050345  INI parameter DPC_2PC changed, the original value 1, new value 0 (262) 2025-04-23 14:57:52.311 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit. (263) 2025-04-23 15:00:04.220 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit. (264) 2025-04-23 15:31:00.477 [INFO] database P0000052077 T0000000000000052077  version info: enterprise (265) 2025-04-23 15:59:26.330 [INFO] database P0000093438 T0000000000000093438  INI parameter DW_PORT changed, the original value 0, new value 4566 (266) 2025-04-23 15:25:04.653 [INFO] database P0000043419 T0000000000000043419  INI parameter DW_PORT changed, the original value 0, new value 4566 (267) 2025-04-23 15:53:32.152 [INFO] database P0000084718 T0000000000000084718  version info: enterprise (268) 2025-04-23 14:43:00.176 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942203301), ckpt_fil(1), ckpt_off(227524608), cur_lsn(2826942348090), l_next_seq(46659482375), g_next_seq(46630685112), cur_free(260068352), total_space(8589926400), used_space(32543744), free_space(8557382656), n_ep(1) (269) 2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000015248  checkpoint generate by dirty_pages[10999] &gt; ckpt_dirty_pages[10000]</t>
+         (409) 2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000013572  checkpoint begin, used_space[33082880], free_space[8556843520]... (410) 2025-04-23 14:55:20.227 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit. (411) 2025-04-23 15:20:20.641 [INFO] database P0000036263 T0000000000000036263  version info: enterprise (412) 2025-04-23 15:21:31.353 [INFO] database P0000038061 T0000000000000038061  INI parameter DW_PORT changed, the original value 0, new value 4566 (413) 2025-04-23 14:54:12.745 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit. (414) 2025-04-23 14:42:59.175 [WARNING] database P0000010414 T0000000000000015201  Get svr info time used:11 (415) 2025-04-23 15:22:42.443 [INFO] database P0000039800 T0000000000000039800  INI parameter DW_PORT changed, the original value 0, new value 4566 (416) 2025-04-23 15:45:13.251 [INFO] database P0000072676 T0000000000000072676  INI parameter DW_PORT changed, the original value 0, new value 4566 (417) 2025-04-23 15:57:04.501 [INFO] database P0000089970 T0000000000000089970  info get from dcr disk, asm_host = localhost, asm_port = -1193106144, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (418) 2025-04-23 15:42:51.064 [INFO] database P0000069304 T0000000000000069304  INI parameter DPC_2PC changed, the original value 1, new value 0 (419) 2025-04-23 15:29:49.330 [INFO] database P0000050345 T0000000000000050345  version info: enterprise (420) 2025-04-23 14:42:48.038 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942175456), ckpt_fil(1), ckpt_off(221043200), cur_lsn(2826942334025), l_next_seq(46659482236), g_next_seq(46630684973), cur_free(256176128), total_space(8589926400), used_space(35134464), free_space(8554791936), n_ep(1) (421) 2025-04-23 15:31:00.469 [INFO] database P0000052077 T0000000000000052077  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (422) 2025-04-23 15:07:01.182 [ERROR] database P0000010414 T0000000000000015315  Reached the max session limit. (423) 2025-04-23 15:44:02.629 [INFO] database P0000070934 T0000000000000070934  dmshm2_attach, success, shm id 294913 (424) 2025-04-23 15:25:05.000 [INFO] database P0000043419 T0000000000000043419  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (425) 2025-04-23 14:55:11.699 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit. (426) 2025-04-23 14:59:21.918 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit. (427) 2025-04-23 15:34:33.809 [INFO] database P0000057373 T0000000000000057373  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (428) 2025-04-23 14:56:26.674 [ERROR] database P0000010414 T0000000000000015340  Reached the max session limit. (429) 2025-04-23 14:59:10.811 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit. (430) 2025-04-23 15:00:36.506 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit. (431) 2025-04-23 15:49:58.329 [INFO] database P0000079472 T0000000000000079472  version info: enterprise (432) 2025-04-23 14:57:56.527 [ERROR] database P0000010414 T0000000000000015344  Reached the max session limit. (433) 2025-04-23 15:33:22.573 [INFO] database P0000055615 T0000000000000055615  info get from dcr disk, asm_host = localhost, asm_port = 57414032, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (434) 2025-04-23 15:03:16.011 [ERROR] database P0000010414 T0000000000000015350  Reached the max session limit. (435) 2025-04-23 15:54:41.964 [INFO] database P0000086447 T0000000000000086447  INI parameter DW_PORT changed, the original value 0, new value 4566 (436) 2025-04-23 14:59:22.916 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit. (437) 2025-04-23 15:52:22.133 [INFO] database P0000082963 T0000000000000082963  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (438) 2025-04-23 14:56:41.297 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit. (439) 2025-04-23 14:58:46.207 [ERROR] database P0000010414 T0000000000000015298  Reached the max session limit. (440) 2025-04-23 15:16:45.084 [INFO] database P0000010414 T0000000000000010414  hpc_heart_beat_halt_and_wait change hdisk flag from 221 to 221 (441) 2025-04-23 15:45:13.254 [INFO] database P0000072676 T0000000000000072676  INI parameter DPC_2PC changed, the original value 1, new value 0 (442) 2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000015249  checkpoint requested by CKPT_DIRTY_PAGES, rlog free space[8552856064], used space[37070336] (443) 2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000081300  socket_err_should_retry errno:104 (444) 2025-04-23 15:17:58.480 [INFO] database P0000032706 T0000000000000032706  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (445) 2025-04-23 15:48:47.035 [INFO] database P0000077779 T0000000000000077779  info get from dcr disk, asm_host = localhost, asm_port = -60361776, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (446) 2025-04-23 15:04:26.150 [ERROR] database P0000010414 T0000000000000015343  Reached the max session limit. (447) 2025-04-23 15:11:43.274 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit. (448) 2025-04-23 14:45:21.121 [WARNING] database P0000010414 T0000000000000126757  socket_err_should_retry errno:38 (449) 2025-04-23 15:58:15.233 [INFO] database P0000091708 T0000000000000091708  INI parameter DW_PORT changed, the original value 0, new value 4566 (450) 2025-04-23 15:04:51.975 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit. (451) 2025-04-23 15:27:27.295 [INFO] database P0000046902 T0000000000000046902  info get from dcr disk, asm_host = localhost, asm_port = -1499177952, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (452) 2025-04-23 15:38:06.953 [INFO] database P0000062613 T0000000000000062613  version info: enterprise (453) 2025-04-23 14:43:00.190 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942206355), ckpt_fil(1), ckpt_off(228001792), cur_lsn(2826942351158), l_next_seq(46659482377), g_next_seq(46630685114), cur_free(260260864), total_space(8589926400), used_space(32259072), free_space(8557667328), n_ep(1) (454) 2025-04-23 15:00:22.300 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit. (455) 2025-04-23 15:32:11.222 [INFO] database P0000053877 T0000000000000053877  INI parameter DPC_2PC changed, the original value 1, new value 0 (456) 2025-04-23 15:00:20.825 [ERROR] database P0000010414 T0000000000000015332  Reached the max session limit.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-(331, 0)
-(332, 0)
-(333, 0)
-(334, 0)
-(335, 0)
-(336, 0)
-(337, 0)
-(338, 1)
-(339, 0)
-(340, 0)
-(341, 1)
-(342, 0)
-(343, 0)
-(344, 0)
-(345, 0)
-(346, 1)
-(347, 0)
-(348, 0)
-(349, 1)
-(350, 1)
-(351, 0)
-(352, 0)
-(353, 0)
-(354, 1)
-(355, 1)
-(356, 0)
-(357, 0)
-(358, 0)</t>
+(409, 0)
+(410, 1)
+(411, 0)
+(412, 0)
+(413, 1)
+(414, 0)
+(415, 0)
+(416, 0)
+(417, 0)
+(418, 0)
+(419, 0)
+(420, 0)
+(421, 0)
+(422, 1)
+(423, 0)
+(424, 0)
+(425, 1)
+(426, 1)
+(427, 0)
+(428, 1)
+(429, 1)
+(430, 1)
+(431, 0)
+(432, 1)
+(433, 0)
+(434, 1)
+(435, 0)
+(436, 1)
+(437, 0)
+(438, 1)
+(439, 1)
+(440, 0)
+(441, 0)
+(442, 0)
+(443, 0)
+(444, 1)
+(445, 0)
+(446, 1)
+(447, 1)
+(448, 0)
+(449, 0)
+(450, 1)
+(451, 1)
+(452, 0)
+(453, 0)
+(454, 1)
+(455, 0)
+(456, 1)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['(239) 2025-04-23 15:08:59.204 [ERROR] database P0000010414 T0000000000000015314  Reached the max session limit.', '(240) 2025-04-23 15:02:26.865 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit.', '(241) 2025-04-23 15:36:55.937 [INFO] database P0000060808 T0000000000000060808  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(242) 2025-04-23 15:47:35.454 [INFO] database P0000076042 T0000000000000076042  INI parameter DPC_2PC changed, the original value 1, new value 0', '(243) 2025-04-23 15:22:42.447 [INFO] database P0000039800 T0000000000000039800  INI parameter DPC_2PC changed, the original value 1, new value 0', '(244) 2025-04-23 15:44:02.629 [INFO] database P0000070934 T0000000000000070934  dmshm2_attach, success, shm id 294913', '(245) 2025-04-23 15:00:22.300 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.', '(246) 2025-04-23 14:54:31.535 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit.', '(247) 2025-04-23 14:43:00.168 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942202067), ckpt_fil(1), ckpt_off(227298304), cur_lsn(2826942348090), l_next_seq(46659482374), g_next_seq(46630685111), cur_free(260064256), total_space(8589926400), used_space(32765952), free_space(8557160448), n_ep(1)', '(248) 2025-04-23 14:54:19.302 [ERROR] database P0000010414 T0000000000000015311  Reached the max session limit.', '(249) 2025-04-23 14:49:01.955 [WARNING] database P0000010414 T0000000000000133224  socket_err_should_retry errno:104', '(250) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000081132  socket_err_should_retry errno:104', '(251) 2025-04-23 15:23:53.897 [INFO] database P0000041615 T0000000000000041615  dmshm2_attach, success, shm id 294913', '(252) 2025-04-23 14:59:22.916 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit.', '(253) 2025-04-23 15:11:01.386 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit.', '(254) 2025-04-23 15:45:13.251 [INFO] database P0000072676 T0000000000000072676  INI parameter DW_PORT changed, the original value 0, new value 4566', '(255) 2025-04-23 14:42:59.175 [WARNING] database P0000010414 T0000000000000015201  Get svr info time used:11', '(256) 2025-04-23 14:48:46.033 [WARNING] database P0000010414 T0000000000000132713  socket_err_should_retry errno:104', '(257) 2025-04-23 15:53:30.936 [INFO] database P0000084718 T0000000000000084718  INI parameter DW_PORT changed, the original value 0, new value 4566', '(258) 2025-04-23 14:58:47.494 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit.', '(259) 2025-04-23 15:29:49.321 [INFO] database P0000050345 T0000000000000050345  dmshm2_attach, success, shm id 294913', '(260) 2025-04-23 15:10:32.743 [WARNING] database P0000010414 T0000000000000123810  socket_err_should_retry errno:104', '(261) 2025-04-23 15:29:49.025 [INFO] database P0000050345 T0000000000000050345  INI parameter DPC_2PC changed, the original value 1, new value 0', '(262) 2025-04-23 14:57:52.311 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit.', '(263) 2025-04-23 15:00:04.220 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit.', '(264) 2025-04-23 15:31:00.477 [INFO] database P0000052077 T0000000000000052077  version info: enterprise', '(265) 2025-04-23 15:59:26.330 [INFO] database P0000093438 T0000000000000093438  INI parameter DW_PORT changed, the original value 0, new value 4566', '(266) 2025-04-23 15:25:04.653 [INFO] database P0000043419 T0000000000000043419  INI parameter DW_PORT changed, the original value 0, new value 4566', '(267) 2025-04-23 15:53:32.152 [INFO] database P0000084718 T0000000000000084718  version info: enterprise', '(268) 2025-04-23 14:43:00.176 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942203301), ckpt_fil(1), ckpt_off(227524608), cur_lsn(2826942348090), l_next_seq(46659482375), g_next_seq(46630685112), cur_free(260068352), total_space(8589926400), used_space(32543744), free_space(8557382656), n_ep(1)', '(269) 2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000015248  checkpoint generate by dirty_pages[10999] &gt; ckpt_dirty_pages[10000]']</t>
+          <t>['(409) 2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000013572  checkpoint begin, used_space[33082880], free_space[8556843520]...', '(410) 2025-04-23 14:55:20.227 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit.', '(411) 2025-04-23 15:20:20.641 [INFO] database P0000036263 T0000000000000036263  version info: enterprise', '(412) 2025-04-23 15:21:31.353 [INFO] database P0000038061 T0000000000000038061  INI parameter DW_PORT changed, the original value 0, new value 4566', '(413) 2025-04-23 14:54:12.745 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit.', '(414) 2025-04-23 14:42:59.175 [WARNING] database P0000010414 T0000000000000015201  Get svr info time used:11', '(415) 2025-04-23 15:22:42.443 [INFO] database P0000039800 T0000000000000039800  INI parameter DW_PORT changed, the original value 0, new value 4566', '(416) 2025-04-23 15:45:13.251 [INFO] database P0000072676 T0000000000000072676  INI parameter DW_PORT changed, the original value 0, new value 4566', '(417) 2025-04-23 15:57:04.501 [INFO] database P0000089970 T0000000000000089970  info get from dcr disk, asm_host = localhost, asm_port = -1193106144, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(418) 2025-04-23 15:42:51.064 [INFO] database P0000069304 T0000000000000069304  INI parameter DPC_2PC changed, the original value 1, new value 0', '(419) 2025-04-23 15:29:49.330 [INFO] database P0000050345 T0000000000000050345  version info: enterprise', '(420) 2025-04-23 14:42:48.038 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942175456), ckpt_fil(1), ckpt_off(221043200), cur_lsn(2826942334025), l_next_seq(46659482236), g_next_seq(46630684973), cur_free(256176128), total_space(8589926400), used_space(35134464), free_space(8554791936), n_ep(1)', '(421) 2025-04-23 15:31:00.469 [INFO] database P0000052077 T0000000000000052077  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(422) 2025-04-23 15:07:01.182 [ERROR] database P0000010414 T0000000000000015315  Reached the max session limit.', '(423) 2025-04-23 15:44:02.629 [INFO] database P0000070934 T0000000000000070934  dmshm2_attach, success, shm id 294913', '(424) 2025-04-23 15:25:05.000 [INFO] database P0000043419 T0000000000000043419  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(425) 2025-04-23 14:55:11.699 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit.', '(426) 2025-04-23 14:59:21.918 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit.', '(427) 2025-04-23 15:34:33.809 [INFO] database P0000057373 T0000000000000057373  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(428) 2025-04-23 14:56:26.674 [ERROR] database P0000010414 T0000000000000015340  Reached the max session limit.', '(429) 2025-04-23 14:59:10.811 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit.', '(430) 2025-04-23 15:00:36.506 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit.', '(431) 2025-04-23 15:49:58.329 [INFO] database P0000079472 T0000000000000079472  version info: enterprise', '(432) 2025-04-23 14:57:56.527 [ERROR] database P0000010414 T0000000000000015344  Reached the max session limit.', '(433) 2025-04-23 15:33:22.573 [INFO] database P0000055615 T0000000000000055615  info get from dcr disk, asm_host = localhost, asm_port = 57414032, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(434) 2025-04-23 15:03:16.011 [ERROR] database P0000010414 T0000000000000015350  Reached the max session limit.', '(435) 2025-04-23 15:54:41.964 [INFO] database P0000086447 T0000000000000086447  INI parameter DW_PORT changed, the original value 0, new value 4566', '(436) 2025-04-23 14:59:22.916 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit.', '(437) 2025-04-23 15:52:22.133 [INFO] database P0000082963 T0000000000000082963  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(438) 2025-04-23 14:56:41.297 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit.', '(439) 2025-04-23 14:58:46.207 [ERROR] database P0000010414 T0000000000000015298  Reached the max session limit.', '(440) 2025-04-23 15:16:45.084 [INFO] database P0000010414 T0000000000000010414  hpc_heart_beat_halt_and_wait change hdisk flag from 221 to 221', '(441) 2025-04-23 15:45:13.254 [INFO] database P0000072676 T0000000000000072676  INI parameter DPC_2PC changed, the original value 1, new value 0', '(442) 2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000015249  checkpoint requested by CKPT_DIRTY_PAGES, rlog free space[8552856064], used space[37070336]', '(443) 2025-04-23 15:04:26.022 [WARNING] database P0000010414 T0000000000000081300  socket_err_should_retry errno:104', '(444) 2025-04-23 15:17:58.480 [INFO] database P0000032706 T0000000000000032706  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(445) 2025-04-23 15:48:47.035 [INFO] database P0000077779 T0000000000000077779  info get from dcr disk, asm_host = localhost, asm_port = -60361776, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(446) 2025-04-23 15:04:26.150 [ERROR] database P0000010414 T0000000000000015343  Reached the max session limit.', '(447) 2025-04-23 15:11:43.274 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit.', '(448) 2025-04-23 14:45:21.121 [WARNING] database P0000010414 T0000000000000126757  socket_err_should_retry errno:38', '(449) 2025-04-23 15:58:15.233 [INFO] database P0000091708 T0000000000000091708  INI parameter DW_PORT changed, the original value 0, new value 4566', '(450) 2025-04-23 15:04:51.975 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit.', '(451) 2025-04-23 15:27:27.295 [INFO] database P0000046902 T0000000000000046902  info get from dcr disk, asm_host = localhost, asm_port = -1499177952, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(452) 2025-04-23 15:38:06.953 [INFO] database P0000062613 T0000000000000062613  version info: enterprise', '(453) 2025-04-23 14:43:00.190 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942206355), ckpt_fil(1), ckpt_off(228001792), cur_lsn(2826942351158), l_next_seq(46659482377), g_next_seq(46630685114), cur_free(260260864), total_space(8589926400), used_space(32259072), free_space(8557667328), n_ep(1)', '(454) 2025-04-23 15:00:22.300 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.', '(455) 2025-04-23 15:32:11.222 [INFO] database P0000053877 T0000000000000053877  INI parameter DPC_2PC changed, the original value 1, new value 0', '(456) 2025-04-23 15:00:20.825 [ERROR] database P0000010414 T0000000000000015332  Reached the max session limit.']</t>
         </is>
       </c>
     </row>
@@ -1012,410 +1165,72 @@
         - status must be 0 if the log entry is a normal operation or informational message.
         - Output **only** a list of tuples. No extra text or explanation.
         ## Input Logs:
-         (270) 2025-04-23 15:32:11.222 [INFO] database P0000053877 T0000000000000053877  INI parameter DPC_2PC changed, the original value 1, new value 0 (271) 2025-04-23 14:53:41.354 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit. (272) 2025-04-23 15:42:51.680 [INFO] database P0000069304 T0000000000000069304  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (273) 2025-04-23 14:56:20.749 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit. (274) 2025-04-23 15:00:04.475 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit. (275) 2025-04-23 15:35:44.514 [INFO] database P0000059105 T0000000000000059105  INI parameter DPC_2PC changed, the original value 1, new value 0 (276) 2025-04-23 15:45:14.261 [INFO] database P0000072676 T0000000000000072676  version info: enterprise (277) 2025-04-23 15:23:53.884 [INFO] database P0000041615 T0000000000000041615  info get from dcr disk, asm_host = localhost, asm_port = -1294140448, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (278) 2025-04-23 14:59:07.322 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit. (279) 2025-04-23 14:57:07.315 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit. (280) 2025-04-23 15:36:55.922 [INFO] database P0000060808 T0000000000000060808  info get from dcr disk, asm_host = localhost, asm_port = -1069127248, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (281) 2025-04-23 15:31:00.468 [INFO] database P0000052077 T0000000000000052077  dmshm2_attach, success, shm id 294913 (282) 2025-04-23 15:38:06.931 [INFO] database P0000062613 T0000000000000062613  info get from dcr disk, asm_host = localhost, asm_port = 417008448, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (283) 2025-04-23 15:02:18.311 [ERROR] database P0000010414 T0000000000000015310  Reached the max session limit. (284) 2025-04-23 14:42:59.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (285) 2025-04-23 15:11:26.366 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit. (286) 2025-04-23 15:34:33.418 [INFO] database P0000057373 T0000000000000057373  INI parameter DW_PORT changed, the original value 0, new value 4566 (287) 2025-04-23 15:26:15.993 [INFO] database P0000045167 T0000000000000045167  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (288) 2025-04-23 15:51:09.106 [INFO] database P0000081263 T0000000000000081263  version info: enterprise (289) 2025-04-23 15:58:15.715 [INFO] database P0000091708 T0000000000000091708  dmshm2_attach, success, shm id 294913 (290) 2025-04-23 14:54:41.604 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit. (291) 2025-04-23 15:07:01.182 [ERROR] database P0000010414 T0000000000000015315  Reached the max session limit. (292) 2025-04-23 15:11:12.947 [WARNING] database P0000010414 T0000000000000070502  socket_err_should_retry errno:104 (293) 2025-04-23 15:26:15.744 [INFO] database P0000045167 T0000000000000045167  INI parameter DPC_2PC changed, the original value 1, new value 0 (294) 2025-04-23 15:47:35.765 [INFO] database P0000076042 T0000000000000076042  version info: enterprise (295) 2025-04-23 14:56:08.344 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit. (296) 2025-04-23 14:53:17.223 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit. (297) 2025-04-23 15:28:38.260 [INFO] database P0000048633 T0000000000000048633  info get from dcr disk, asm_host = localhost, asm_port = 2039617136, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (298) 2025-04-23 15:17:58.211 [INFO] database P0000032706 T0000000000000032706  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
+         (457) 2025-04-23 15:27:27.317 [INFO] database P0000046902 T0000000000000046902  version info: enterprise (458) 2025-04-23 15:00:18.038 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit. (459) 2025-04-23 15:52:22.141 [INFO] database P0000082963 T0000000000000082963  version info: enterprise (460) 2025-04-23 15:49:57.597 [INFO] database P0000079472 T0000000000000079472  INI parameter DW_PORT changed, the original value 0, new value 4566 (461) 2025-04-23 14:52:56.353 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit. (462) 2025-04-23 14:42:59.176 [INFO] database P0000010414 T0000000000000015201  utsk_dw_udp_bro used 11s, cur_bro_time = 1745390579, last_bro_time = 1745390568 (463) 2025-04-23 15:58:15.702 [INFO] database P0000091708 T0000000000000091708  info get from dcr disk, asm_host = localhost, asm_port = 1974518400, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (464) 2025-04-23 15:20:20.266 [INFO] database P0000036263 T0000000000000036263  INI parameter DPC_2PC changed, the original value 1, new value 0 (465) 2025-04-23 15:10:41.779 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit. (466) 2025-04-23 15:54:42.271 [INFO] database P0000086447 T0000000000000086447  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (467) 2025-04-23 15:00:02.184 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit. (468) 2025-04-23 14:48:45.628 [WARNING] database P0000010414 T0000000000000132706  socket_err_should_retry errno:38 (469) 2025-04-23 15:53:32.143 [INFO] database P0000084718 T0000000000000084718  dmshm2_attach, success, shm id 294913 (470) 2025-04-23 15:02:45.814 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit. (471) 2025-04-23 14:43:00.168 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (472) 2025-04-23 14:59:25.388 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit. (473) 2025-04-23 15:57:04.142 [INFO] database P0000089970 T0000000000000089970  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-(359, 0)
-(360, 0)
-(361, 1)
-(362, 0)
-(363, 1)
-(364, 1)
-(365, 1)
-(366, 1)
-(367, 1)
-(368, 0)
-(369, 1)
-(370, 0)
-(371, 1)
-(372, 1)
-(373, 0)
-(374, 0)
-(375, 0)
-(376, 1)
-(377, 1)
-(378, 0)
-(379, 0)
-(380, 1)
-(381, 0)
-(382, 1)
-(383, 1)
-(384, 0)
-(385, 0)
-(386, 0)
-(387, 1)
-(388, 1)
-(389, 1)</t>
+(303, 0)
+(304, 1)
+(305, 0)
+(306, 0)
+(307, 0)
+(308, 0)
+(309, 0)
+(310, 1)
+(311, 0)
+(312, 1)
+(313, 1)
+(314, 0)
+(315, 0)
+(316, 0)
+(317, 0)
+(318, 1)
+(319, 1)
+(320, 1)
+(321, 1)
+(322, 1)
+(323, 0)
+(324, 1)
+(325, 0)
+(326, 0)
+(327, 0)
+(328, 0)
+(329, 0)
+(330, 1)
+(331, 1)
+(332, 1)
+(333, 1)
+(334, 0)
+(335, 0)
+(336, 1)
+(337, 1)
+(338, 0)
+(339, 1)
+(340, 1)
+(341, 1)
+(342, 0)
+(343, 0)
+(344, 0)
+(345, 1)
+(346, 1)
+(347, 0)
+(348, 0)
+(349, 0)
+(350, 1)
+(351, 1)
+(352, 1)
+(353, 0)
+(354, 1)
+(355, 1)
+(356, 0)
+(357, 0)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['(270) 2025-04-23 15:32:11.222 [INFO] database P0000053877 T0000000000000053877  INI parameter DPC_2PC changed, the original value 1, new value 0', '(271) 2025-04-23 14:53:41.354 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.', '(272) 2025-04-23 15:42:51.680 [INFO] database P0000069304 T0000000000000069304  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(273) 2025-04-23 14:56:20.749 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.', '(274) 2025-04-23 15:00:04.475 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.', '(275) 2025-04-23 15:35:44.514 [INFO] database P0000059105 T0000000000000059105  INI parameter DPC_2PC changed, the original value 1, new value 0', '(276) 2025-04-23 15:45:14.261 [INFO] database P0000072676 T0000000000000072676  version info: enterprise', '(277) 2025-04-23 15:23:53.884 [INFO] database P0000041615 T0000000000000041615  info get from dcr disk, asm_host = localhost, asm_port = -1294140448, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(278) 2025-04-23 14:59:07.322 [ERROR] database P0000010414 T0000000000000015303  Reached the max session limit.', '(279) 2025-04-23 14:57:07.315 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.', '(280) 2025-04-23 15:36:55.922 [INFO] database P0000060808 T0000000000000060808  info get from dcr disk, asm_host = localhost, asm_port = -1069127248, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(281) 2025-04-23 15:31:00.468 [INFO] database P0000052077 T0000000000000052077  dmshm2_attach, success, shm id 294913', '(282) 2025-04-23 15:38:06.931 [INFO] database P0000062613 T0000000000000062613  info get from dcr disk, asm_host = localhost, asm_port = 417008448, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(283) 2025-04-23 15:02:18.311 [ERROR] database P0000010414 T0000000000000015310  Reached the max session limit.', '(284) 2025-04-23 14:42:59.198 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(285) 2025-04-23 15:11:26.366 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.', '(286) 2025-04-23 15:34:33.418 [INFO] database P0000057373 T0000000000000057373  INI parameter DW_PORT changed, the original value 0, new value 4566', '(287) 2025-04-23 15:26:15.993 [INFO] database P0000045167 T0000000000000045167  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(288) 2025-04-23 15:51:09.106 [INFO] database P0000081263 T0000000000000081263  version info: enterprise', '(289) 2025-04-23 15:58:15.715 [INFO] database P0000091708 T0000000000000091708  dmshm2_attach, success, shm id 294913', '(290) 2025-04-23 14:54:41.604 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit.', '(291) 2025-04-23 15:07:01.182 [ERROR] database P0000010414 T0000000000000015315  Reached the max session limit.', '(292) 2025-04-23 15:11:12.947 [WARNING] database P0000010414 T0000000000000070502  socket_err_should_retry errno:104', '(293) 2025-04-23 15:26:15.744 [INFO] database P0000045167 T0000000000000045167  INI parameter DPC_2PC changed, the original value 1, new value 0', '(294) 2025-04-23 15:47:35.765 [INFO] database P0000076042 T0000000000000076042  version info: enterprise', '(295) 2025-04-23 14:56:08.344 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit.', '(296) 2025-04-23 14:53:17.223 [ERROR] database P0000010414 T0000000000000015318  Reached the max session limit.', '(297) 2025-04-23 15:28:38.260 [INFO] database P0000048633 T0000000000000048633  info get from dcr disk, asm_host = localhost, asm_port = 2039617136, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(298) 2025-04-23 15:17:58.211 [INFO] database P0000032706 T0000000000000032706  INI parameter DPC_2PC changed, the original value 1, new value 0']</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>You are a log anomaly classifier.
-        You will be given a list of log entries, each with a unique index.  
-        Your task is to determine whether each log is **abnormal (1)** or **normal (0)**.  
-        Only output in the following format, without any extra explanation or comments.
-        ## Output Format:
-        (log_idx, status)
-        ## Output Rules:
-        - status must be 1 if the log entry indicates an error, failure, crash, or unusual behavior.
-        - status must be 0 if the log entry is a normal operation or informational message.
-        - Output **only** a list of tuples. No extra text or explanation.
-        ## Input Logs:
-         (299) 2025-04-23 14:42:59.186 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (300) 2025-04-23 15:11:51.960 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit. (301) 2025-04-23 15:07:27.575 [ERROR] database P0000010414 T0000000000000015339  Reached the max session limit. (302) 2025-04-23 15:03:13.279 [ERROR] database P0000010414 T0000000000000015343  Reached the max session limit. (303) 2025-04-23 15:40:29.247 [INFO] database P0000066033 T0000000000000066033  dmshm2_attach, success, shm id 294913 (304) 2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000015248  checkpoint requested by CKPT_DIRTY_PAGES, rlog free space[8556843520], used space[33082880] (305) 2025-04-23 15:51:09.099 [INFO] database P0000081263 T0000000000000081263  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (306) 2025-04-23 15:21:31.357 [INFO] database P0000038061 T0000000000000038061  INI parameter DPC_2PC changed, the original value 1, new value 0 (307) 2025-04-23 15:34:33.817 [INFO] database P0000057373 T0000000000000057373  version info: enterprise (308) 2025-04-23 15:33:22.595 [INFO] database P0000055615 T0000000000000055615  version info: enterprise (309) 2025-04-23 15:33:22.573 [INFO] database P0000055615 T0000000000000055615  info get from dcr disk, asm_host = localhost, asm_port = 57414032, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (310) 2025-04-23 14:43:00.168 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (311) 2025-04-23 15:05:56.986 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit. (312) 2025-04-23 15:39:17.780 [INFO] database P0000064327 T0000000000000064327  INI parameter DPC_2PC changed, the original value 1, new value 0 (313) 2025-04-23 15:19:09.585 [INFO] database P0000034512 T0000000000000034512  dmshm2_attach, success, shm id 294913 (314) 2025-04-23 15:32:11.548 [INFO] database P0000053877 T0000000000000053877  dmshm2_attach, success, shm id 294913 (315) 2025-04-23 15:00:47.834 [WARNING] database P0000010414 T0000000000000130910  socket_err_should_retry errno:104 (316) 2025-04-23 15:35:44.851 [INFO] database P0000059105 T0000000000000059105  version info: enterprise (317) 2025-04-23 15:07:52.608 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit. (318) 2025-04-23 15:25:05.008 [INFO] database P0000043419 T0000000000000043419  version info: enterprise (319) 2025-04-23 15:58:15.236 [INFO] database P0000091708 T0000000000000091708  INI parameter DPC_2PC changed, the original value 1, new value 0 (320) 2025-04-23 15:00:20.825 [ERROR] database P0000010414 T0000000000000015332  Reached the max session limit. (321) 2025-04-23 15:05:07.862 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit. (322) 2025-04-23 15:22:42.682 [INFO] database P0000039800 T0000000000000039800  info get from dcr disk, asm_host = localhost, asm_port = 115568496, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (323) 2025-04-23 15:25:04.999 [INFO] database P0000043419 T0000000000000043419  dmshm2_attach, success, shm id 294913 (324) 2025-04-23 15:40:28.865 [INFO] database P0000066033 T0000000000000066033  INI parameter DW_PORT changed, the original value 0, new value 4566 (325) 2025-04-23 14:50:01.882 [WARNING] database P0000010414 T0000000000000135098  socket_err_should_retry errno:104 (326) 2025-04-23 15:59:26.764 [INFO] database P0000093438 T0000000000000093438  dmshm2_attach, success, shm id 294913 (327) 2025-04-23 15:19:09.183 [INFO] database P0000034512 T0000000000000034512  INI parameter DPC_2PC changed, the original value 1, new value 0 (328) 2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000083247  socket_err_should_retry errno:104 (329) 2025-04-23 15:22:42.694 [INFO] database P0000039800 T0000000000000039800  dmshm2_attach, success, shm id 294913 (330) 2025-04-23 15:46:24.906 [INFO] database P0000074366 T0000000000000074366  dmshm2_attach, success, shm id 294913</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-(420, 1)
-(421, 0)
-(422, 1)
-(423, 1)
-(424, 0)
-(425, 0)
-(426, 1)
-(427, 0)
-(428, 1)
-(429, 0)
-(430, 0)
-(431, 0)
-(432, 0)
-(433, 1)
-(434, 0)
-(435, 0)
-(436, 1)
-(437, 1)
-(438, 0)
-(439, 1)
-(440, 1)
-(441, 0)
-(442, 0)
-(443, 0)
-(444, 1)
-(445, 1)
-(446, 0)
-(447, 1)
-(448, 1)
-(449, 0)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>['(299) 2025-04-23 14:42:59.186 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(300) 2025-04-23 15:11:51.960 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit.', '(301) 2025-04-23 15:07:27.575 [ERROR] database P0000010414 T0000000000000015339  Reached the max session limit.', '(302) 2025-04-23 15:03:13.279 [ERROR] database P0000010414 T0000000000000015343  Reached the max session limit.', '(303) 2025-04-23 15:40:29.247 [INFO] database P0000066033 T0000000000000066033  dmshm2_attach, success, shm id 294913', '(304) 2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000015248  checkpoint requested by CKPT_DIRTY_PAGES, rlog free space[8556843520], used space[33082880]', '(305) 2025-04-23 15:51:09.099 [INFO] database P0000081263 T0000000000000081263  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(306) 2025-04-23 15:21:31.357 [INFO] database P0000038061 T0000000000000038061  INI parameter DPC_2PC changed, the original value 1, new value 0', '(307) 2025-04-23 15:34:33.817 [INFO] database P0000057373 T0000000000000057373  version info: enterprise', '(308) 2025-04-23 15:33:22.595 [INFO] database P0000055615 T0000000000000055615  version info: enterprise', '(309) 2025-04-23 15:33:22.573 [INFO] database P0000055615 T0000000000000055615  info get from dcr disk, asm_host = localhost, asm_port = 57414032, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(310) 2025-04-23 14:43:00.168 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(311) 2025-04-23 15:05:56.986 [ERROR] database P0000010414 T0000000000000015354  Reached the max session limit.', '(312) 2025-04-23 15:39:17.780 [INFO] database P0000064327 T0000000000000064327  INI parameter DPC_2PC changed, the original value 1, new value 0', '(313) 2025-04-23 15:19:09.585 [INFO] database P0000034512 T0000000000000034512  dmshm2_attach, success, shm id 294913', '(314) 2025-04-23 15:32:11.548 [INFO] database P0000053877 T0000000000000053877  dmshm2_attach, success, shm id 294913', '(315) 2025-04-23 15:00:47.834 [WARNING] database P0000010414 T0000000000000130910  socket_err_should_retry errno:104', '(316) 2025-04-23 15:35:44.851 [INFO] database P0000059105 T0000000000000059105  version info: enterprise', '(317) 2025-04-23 15:07:52.608 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.', '(318) 2025-04-23 15:25:05.008 [INFO] database P0000043419 T0000000000000043419  version info: enterprise', '(319) 2025-04-23 15:58:15.236 [INFO] database P0000091708 T0000000000000091708  INI parameter DPC_2PC changed, the original value 1, new value 0', '(320) 2025-04-23 15:00:20.825 [ERROR] database P0000010414 T0000000000000015332  Reached the max session limit.', '(321) 2025-04-23 15:05:07.862 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit.', '(322) 2025-04-23 15:22:42.682 [INFO] database P0000039800 T0000000000000039800  info get from dcr disk, asm_host = localhost, asm_port = 115568496, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(323) 2025-04-23 15:25:04.999 [INFO] database P0000043419 T0000000000000043419  dmshm2_attach, success, shm id 294913', '(324) 2025-04-23 15:40:28.865 [INFO] database P0000066033 T0000000000000066033  INI parameter DW_PORT changed, the original value 0, new value 4566', '(325) 2025-04-23 14:50:01.882 [WARNING] database P0000010414 T0000000000000135098  socket_err_should_retry errno:104', '(326) 2025-04-23 15:59:26.764 [INFO] database P0000093438 T0000000000000093438  dmshm2_attach, success, shm id 294913', '(327) 2025-04-23 15:19:09.183 [INFO] database P0000034512 T0000000000000034512  INI parameter DPC_2PC changed, the original value 1, new value 0', '(328) 2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000083247  socket_err_should_retry errno:104', '(329) 2025-04-23 15:22:42.694 [INFO] database P0000039800 T0000000000000039800  dmshm2_attach, success, shm id 294913', '(330) 2025-04-23 15:46:24.906 [INFO] database P0000074366 T0000000000000074366  dmshm2_attach, success, shm id 294913']</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>You are a log anomaly classifier.
-        You will be given a list of log entries, each with a unique index.  
-        Your task is to determine whether each log is **abnormal (1)** or **normal (0)**.  
-        Only output in the following format, without any extra explanation or comments.
-        ## Output Format:
-        (log_idx, status)
-        ## Output Rules:
-        - status must be 1 if the log entry indicates an error, failure, crash, or unusual behavior.
-        - status must be 0 if the log entry is a normal operation or informational message.
-        - Output **only** a list of tuples. No extra text or explanation.
-        ## Input Logs:
-         (331) 2025-04-23 15:52:22.132 [INFO] database P0000082963 T0000000000000082963  dmshm2_attach, success, shm id 294913 (332) 2025-04-23 15:29:49.309 [INFO] database P0000050345 T0000000000000050345  info get from dcr disk, asm_host = localhost, asm_port = 785222400, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (333) 2025-04-23 16:01:48.491 [INFO] database P0000097032 T0000000000000097032  INI parameter DW_PORT changed, the original value 0, new value 4566 (334) 2025-04-23 15:54:42.279 [INFO] database P0000086447 T0000000000000086447  version info: enterprise (335) 2025-04-23 15:42:51.666 [INFO] database P0000069304 T0000000000000069304  info get from dcr disk, asm_host = localhost, asm_port = 959175536, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (336) 2025-04-23 15:48:46.510 [INFO] database P0000077779 T0000000000000077779  INI parameter DW_PORT changed, the original value 0, new value 4566 (337) 2025-04-23 15:34:33.421 [INFO] database P0000057373 T0000000000000057373  INI parameter DPC_2PC changed, the original value 1, new value 0 (338) 2025-04-23 14:55:10.864 [ERROR] database P0000010414 T0000000000000015348  Reached the max session limit. (339) 2025-04-23 14:42:59.213 [INFO] database P0000010414 T0000000000000013572  checkpoint end, 951 pages flushed, used_space[32737280], free_space[8557189120]. (340) 2025-04-23 15:49:58.307 [INFO] database P0000079472 T0000000000000079472  info get from dcr disk, asm_host = localhost, asm_port = 1055164720, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (341) 2025-04-23 14:56:24.826 [ERROR] database P0000010414 T0000000000000015344  Reached the max session limit. (342) 2025-04-23 15:26:15.992 [INFO] database P0000045167 T0000000000000045167  dmshm2_attach, success, shm id 294913 (343) 2025-04-23 15:34:33.808 [INFO] database P0000057373 T0000000000000057373  dmshm2_attach, success, shm id 294913 (344) 2025-04-23 15:42:51.679 [INFO] database P0000069304 T0000000000000069304  dmshm2_attach, success, shm id 294913 (345) 2025-04-23 15:47:35.756 [INFO] database P0000076042 T0000000000000076042  dmshm2_attach, success, shm id 294913 (346) 2025-04-23 15:12:29.704 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit. (347) 2025-04-23 15:28:37.935 [INFO] database P0000048633 T0000000000000048633  INI parameter DW_PORT changed, the original value 0, new value 4566 (348) 2025-04-23 15:44:02.630 [INFO] database P0000070934 T0000000000000070934  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (349) 2025-04-23 15:11:09.164 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit. (350) 2025-04-23 14:55:19.094 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit. (351) 2025-04-23 15:25:04.656 [INFO] database P0000043419 T0000000000000043419  INI parameter DPC_2PC changed, the original value 1, new value 0 (352) 2025-04-23 14:42:48.038 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942175456), ckpt_fil(1), ckpt_off(221043200), cur_lsn(2826942334025), l_next_seq(46659482236), g_next_seq(46630684973), cur_free(256176128), total_space(8589926400), used_space(35134464), free_space(8554791936), n_ep(1) (353) 2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000013572  checkpoint begin, used_space[37070336], free_space[8552856064]... (354) 2025-04-23 14:54:20.919 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit. (355) 2025-04-23 14:53:03.044 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit. (356) 2025-04-23 15:19:09.593 [INFO] database P0000034512 T0000000000000034512  version info: enterprise (357) 2025-04-23 14:56:58.772 [ERROR] database P0000010414 T0000000000000015296  Reached the max session limit. (358) 2025-04-23 14:43:00.176 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-(450, 0)
-(451, 1)
-(452, 0)
-(453, 1)
-(454, 0)
-(455, 0)
-(456, 0)
-(457, 0)
-(458, 0)
-(459, 1)
-(460, 1)
-(461, 0)
-(462, 1)
-(463, 0)
-(464, 1)
-(465, 0)
-(466, 0)
-(467, 1)
-(468, 0)
-(469, 0)
-(470, 1)
-(471, 1)
-(472, 0)
-(473, 0)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>['(331) 2025-04-23 15:52:22.132 [INFO] database P0000082963 T0000000000000082963  dmshm2_attach, success, shm id 294913', '(332) 2025-04-23 15:29:49.309 [INFO] database P0000050345 T0000000000000050345  info get from dcr disk, asm_host = localhost, asm_port = 785222400, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(333) 2025-04-23 16:01:48.491 [INFO] database P0000097032 T0000000000000097032  INI parameter DW_PORT changed, the original value 0, new value 4566', '(334) 2025-04-23 15:54:42.279 [INFO] database P0000086447 T0000000000000086447  version info: enterprise', '(335) 2025-04-23 15:42:51.666 [INFO] database P0000069304 T0000000000000069304  info get from dcr disk, asm_host = localhost, asm_port = 959175536, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(336) 2025-04-23 15:48:46.510 [INFO] database P0000077779 T0000000000000077779  INI parameter DW_PORT changed, the original value 0, new value 4566', '(337) 2025-04-23 15:34:33.421 [INFO] database P0000057373 T0000000000000057373  INI parameter DPC_2PC changed, the original value 1, new value 0', '(338) 2025-04-23 14:55:10.864 [ERROR] database P0000010414 T0000000000000015348  Reached the max session limit.', '(339) 2025-04-23 14:42:59.213 [INFO] database P0000010414 T0000000000000013572  checkpoint end, 951 pages flushed, used_space[32737280], free_space[8557189120].', '(340) 2025-04-23 15:49:58.307 [INFO] database P0000079472 T0000000000000079472  info get from dcr disk, asm_host = localhost, asm_port = 1055164720, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(341) 2025-04-23 14:56:24.826 [ERROR] database P0000010414 T0000000000000015344  Reached the max session limit.', '(342) 2025-04-23 15:26:15.992 [INFO] database P0000045167 T0000000000000045167  dmshm2_attach, success, shm id 294913', '(343) 2025-04-23 15:34:33.808 [INFO] database P0000057373 T0000000000000057373  dmshm2_attach, success, shm id 294913', '(344) 2025-04-23 15:42:51.679 [INFO] database P0000069304 T0000000000000069304  dmshm2_attach, success, shm id 294913', '(345) 2025-04-23 15:47:35.756 [INFO] database P0000076042 T0000000000000076042  dmshm2_attach, success, shm id 294913', '(346) 2025-04-23 15:12:29.704 [ERROR] database P0000010414 T0000000000000015326  Reached the max session limit.', '(347) 2025-04-23 15:28:37.935 [INFO] database P0000048633 T0000000000000048633  INI parameter DW_PORT changed, the original value 0, new value 4566', '(348) 2025-04-23 15:44:02.630 [INFO] database P0000070934 T0000000000000070934  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(349) 2025-04-23 15:11:09.164 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.', '(350) 2025-04-23 14:55:19.094 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit.', '(351) 2025-04-23 15:25:04.656 [INFO] database P0000043419 T0000000000000043419  INI parameter DPC_2PC changed, the original value 1, new value 0', '(352) 2025-04-23 14:42:48.038 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942175456), ckpt_fil(1), ckpt_off(221043200), cur_lsn(2826942334025), l_next_seq(46659482236), g_next_seq(46630684973), cur_free(256176128), total_space(8589926400), used_space(35134464), free_space(8554791936), n_ep(1)', '(353) 2025-04-23 14:42:48.023 [INFO] database P0000010414 T0000000000000013572  checkpoint begin, used_space[37070336], free_space[8552856064]...', '(354) 2025-04-23 14:54:20.919 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit.', '(355) 2025-04-23 14:53:03.044 [ERROR] database P0000010414 T0000000000000015308  Reached the max session limit.', '(356) 2025-04-23 15:19:09.593 [INFO] database P0000034512 T0000000000000034512  version info: enterprise', '(357) 2025-04-23 14:56:58.772 [ERROR] database P0000010414 T0000000000000015296  Reached the max session limit.', '(358) 2025-04-23 14:43:00.176 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0']</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>You are a log anomaly classifier.
-        You will be given a list of log entries, each with a unique index.  
-        Your task is to determine whether each log is **abnormal (1)** or **normal (0)**.  
-        Only output in the following format, without any extra explanation or comments.
-        ## Output Format:
-        (log_idx, status)
-        ## Output Rules:
-        - status must be 1 if the log entry indicates an error, failure, crash, or unusual behavior.
-        - status must be 0 if the log entry is a normal operation or informational message.
-        - Output **only** a list of tuples. No extra text or explanation.
-        ## Input Logs:
-         (359) 2025-04-23 15:23:53.898 [INFO] database P0000041615 T0000000000000041615  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (360) 2025-04-23 15:38:06.945 [INFO] database P0000062613 T0000000000000062613  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (361) 2025-04-23 14:57:31.702 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit. (362) 2025-04-23 15:19:09.572 [INFO] database P0000034512 T0000000000000034512  info get from dcr disk, asm_host = localhost, asm_port = 934125424, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (363) 2025-04-23 14:58:09.329 [ERROR] database P0000010414 T0000000000000015296  Reached the max session limit. (364) 2025-04-23 15:00:16.241 [ERROR] database P0000010414 T0000000000000015339  Reached the max session limit. (365) 2025-04-23 15:08:29.746 [WARNING] database P0000010414 T0000000000000020550  socket_err_should_retry errno:104 (366) 2025-04-23 15:00:47.833 [WARNING] database P0000010414 T0000000000000038260  socket_err_should_retry errno:104 (367) 2025-04-23 14:58:58.024 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit. (368) 2025-04-23 15:58:15.724 [INFO] database P0000091708 T0000000000000091708  version info: enterprise (369) 2025-04-23 14:55:11.699 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit. (370) 2025-04-23 15:55:54.118 [INFO] database P0000088185 T0000000000000088185  info get from dcr disk, asm_host = localhost, asm_port = -667439056, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (371) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000069170  socket_err_should_retry errno:104 (372) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000069168  socket_err_should_retry errno:104 (373) 2025-04-23 15:39:17.777 [INFO] database P0000064327 T0000000000000064327  INI parameter DW_PORT changed, the original value 0, new value 4566 (374) 2025-04-23 15:22:42.703 [INFO] database P0000039800 T0000000000000039800  version info: enterprise (375) 2025-04-23 15:20:20.641 [INFO] database P0000036263 T0000000000000036263  version info: enterprise (376) 2025-04-23 14:57:44.007 [WARNING] database P0000010414 T0000000000000067486  socket_err_should_retry errno:104 (377) 2025-04-23 15:35:44.830 [INFO] database P0000059105 T0000000000000059105  info get from dcr disk, asm_host = localhost, asm_port = 1096376560, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (378) 2025-04-23 15:22:42.443 [INFO] database P0000039800 T0000000000000039800  INI parameter DW_PORT changed, the original value 0, new value 4566 (379) 2025-04-23 15:40:28.868 [INFO] database P0000066033 T0000000000000066033  INI parameter DPC_2PC changed, the original value 1, new value 0 (380) 2025-04-23 15:06:32.787 [ERROR] database P0000010414 T0000000000000015311  Reached the max session limit. (381) 2025-04-23 15:33:22.314 [INFO] database P0000055615 T0000000000000055615  INI parameter DPC_2PC changed, the original value 1, new value 0 (382) 2025-04-23 15:08:29.851 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit. (383) 2025-04-23 15:00:00.181 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit. (384) 2025-04-23 15:28:37.938 [INFO] database P0000048633 T0000000000000048633  INI parameter DPC_2PC changed, the original value 1, new value 0 (385) 2025-04-23 15:48:47.056 [INFO] database P0000077779 T0000000000000077779  version info: enterprise (386) 2025-04-23 14:55:51.055 [ERROR] database P0000010414 T0000000000000015314  Reached the max session limit. (387) 2025-04-23 14:58:42.689 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit. (388) 2025-04-23 14:53:13.964 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit. (389) 2025-04-23 14:58:55.211 [ERROR] database P0000010414 T0000000000000015304  Reached the max session limit.</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-(85, 0)
-(86, 0)
-(87, 1)
-(88, 0)
-(89, 1)
-(90, 0)
-(91, 1)
-(92, 1)
-(93, 1)
-(94, 1)
-(95, 0)
-(96, 1)
-(97, 0)
-(98, 0)
-(99, 0)
-(100, 1)
-(101, 0)
-(102, 0)
-(103, 0)
-(104, 0)
-(105, 1)
-(106, 1)
-(107, 1)
-(108, 1)
-(109, 1)
-(110, 1)
-(111, 1)
-(112, 0)
-(113, 0)
-(114, 0)
-(115, 0)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>['(359) 2025-04-23 15:23:53.898 [INFO] database P0000041615 T0000000000000041615  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(360) 2025-04-23 15:38:06.945 [INFO] database P0000062613 T0000000000000062613  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(361) 2025-04-23 14:57:31.702 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit.', '(362) 2025-04-23 15:19:09.572 [INFO] database P0000034512 T0000000000000034512  info get from dcr disk, asm_host = localhost, asm_port = 934125424, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(363) 2025-04-23 14:58:09.329 [ERROR] database P0000010414 T0000000000000015296  Reached the max session limit.', '(364) 2025-04-23 15:00:16.241 [ERROR] database P0000010414 T0000000000000015339  Reached the max session limit.', '(365) 2025-04-23 15:08:29.746 [WARNING] database P0000010414 T0000000000000020550  socket_err_should_retry errno:104', '(366) 2025-04-23 15:00:47.833 [WARNING] database P0000010414 T0000000000000038260  socket_err_should_retry errno:104', '(367) 2025-04-23 14:58:58.024 [ERROR] database P0000010414 T0000000000000015317  Reached the max session limit.', '(368) 2025-04-23 15:58:15.724 [INFO] database P0000091708 T0000000000000091708  version info: enterprise', '(369) 2025-04-23 14:55:11.699 [ERROR] database P0000010414 T0000000000000015307  Reached the max session limit.', '(370) 2025-04-23 15:55:54.118 [INFO] database P0000088185 T0000000000000088185  info get from dcr disk, asm_host = localhost, asm_port = -667439056, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(371) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000069170  socket_err_should_retry errno:104', '(372) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000069168  socket_err_should_retry errno:104', '(373) 2025-04-23 15:39:17.777 [INFO] database P0000064327 T0000000000000064327  INI parameter DW_PORT changed, the original value 0, new value 4566', '(374) 2025-04-23 15:22:42.703 [INFO] database P0000039800 T0000000000000039800  version info: enterprise', '(375) 2025-04-23 15:20:20.641 [INFO] database P0000036263 T0000000000000036263  version info: enterprise', '(376) 2025-04-23 14:57:44.007 [WARNING] database P0000010414 T0000000000000067486  socket_err_should_retry errno:104', '(377) 2025-04-23 15:35:44.830 [INFO] database P0000059105 T0000000000000059105  info get from dcr disk, asm_host = localhost, asm_port = 1096376560, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(378) 2025-04-23 15:22:42.443 [INFO] database P0000039800 T0000000000000039800  INI parameter DW_PORT changed, the original value 0, new value 4566', '(379) 2025-04-23 15:40:28.868 [INFO] database P0000066033 T0000000000000066033  INI parameter DPC_2PC changed, the original value 1, new value 0', '(380) 2025-04-23 15:06:32.787 [ERROR] database P0000010414 T0000000000000015311  Reached the max session limit.', '(381) 2025-04-23 15:33:22.314 [INFO] database P0000055615 T0000000000000055615  INI parameter DPC_2PC changed, the original value 1, new value 0', '(382) 2025-04-23 15:08:29.851 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit.', '(383) 2025-04-23 15:00:00.181 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit.', '(384) 2025-04-23 15:28:37.938 [INFO] database P0000048633 T0000000000000048633  INI parameter DPC_2PC changed, the original value 1, new value 0', '(385) 2025-04-23 15:48:47.056 [INFO] database P0000077779 T0000000000000077779  version info: enterprise', '(386) 2025-04-23 14:55:51.055 [ERROR] database P0000010414 T0000000000000015314  Reached the max session limit.', '(387) 2025-04-23 14:58:42.689 [ERROR] database P0000010414 T0000000000000015328  Reached the max session limit.', '(388) 2025-04-23 14:53:13.964 [ERROR] database P0000010414 T0000000000000015302  Reached the max session limit.', '(389) 2025-04-23 14:58:55.211 [ERROR] database P0000010414 T0000000000000015304  Reached the max session limit.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>You are a log anomaly classifier.
-        You will be given a list of log entries, each with a unique index.  
-        Your task is to determine whether each log is **abnormal (1)** or **normal (0)**.  
-        Only output in the following format, without any extra explanation or comments.
-        ## Output Format:
-        (log_idx, status)
-        ## Output Rules:
-        - status must be 1 if the log entry indicates an error, failure, crash, or unusual behavior.
-        - status must be 0 if the log entry is a normal operation or informational message.
-        - Output **only** a list of tuples. No extra text or explanation.
-        ## Input Logs:
-         (390) 2025-04-23 14:43:00.183 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (391) 2025-04-23 15:48:47.048 [INFO] database P0000077779 T0000000000000077779  dmshm2_attach, success, shm id 294913 (392) 2025-04-23 15:00:52.245 [ERROR] database P0000010414 T0000000000000015321  Reached the max session limit. (393) 2025-04-23 15:13:15.903 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit. (394) 2025-04-23 15:11:13.082 [ERROR] database P0000010414 T0000000000000015350  Reached the max session limit. (395) 2025-04-23 14:43:00.184 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942205832), ckpt_fil(1), ckpt_off(227897856), cur_lsn(2826942349077), l_next_seq(46659482376), g_next_seq(46630685113), cur_free(260072448), total_space(8589926400), used_space(32174592), free_space(8557751808), n_ep(1) (396) 2025-04-23 15:29:49.322 [INFO] database P0000050345 T0000000000000050345  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (397) 2025-04-23 14:42:59.176 [INFO] database P0000010414 T0000000000000015201  utsk_dw_udp_bro used 11s, cur_bro_time = 1745390579, last_bro_time = 1745390568 (398) 2025-04-23 15:21:31.608 [INFO] database P0000038061 T0000000000000038061  dmshm2_attach, success, shm id 294913 (399) 2025-04-23 15:16:40.755 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit. (400) 2025-04-23 15:33:22.310 [INFO] database P0000055615 T0000000000000055615  INI parameter DW_PORT changed, the original value 0, new value 4566 (401) 2025-04-23 14:57:44.135 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit. (402) 2025-04-23 15:11:12.951 [WARNING] database P0000010414 T0000000000000068749  socket_err_should_retry errno:104 (403) 2025-04-23 15:16:45.092 [INFO] database P0000010414 T0000000000000010873  total 3 rfil opened! (404) 2025-04-23 15:46:24.357 [INFO] database P0000074366 T0000000000000074366  INI parameter DPC_2PC changed, the original value 1, new value 0 (405) 2025-04-23 14:56:41.297 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit. (406) 2025-04-23 15:52:19.789 [INFO] database P0000082963 T0000000000000082963  INI parameter DPC_2PC changed, the original value 1, new value 0 (407) 2025-04-23 15:55:54.140 [INFO] database P0000088185 T0000000000000088185  version info: enterprise (408) 2025-04-23 15:00:41.280 [ERROR] database P0000010414 T0000000000000015348  Reached the max session limit. (409) 2025-04-23 15:06:41.321 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit. (410) 2025-04-23 15:03:16.011 [ERROR] database P0000010414 T0000000000000015350  Reached the max session limit. (411) 2025-04-23 15:20:20.632 [INFO] database P0000036263 T0000000000000036263  dmshm2_attach, success, shm id 294913 (412) 2025-04-23 15:05:44.344 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit. (413) 2025-04-23 14:42:59.204 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942200438), ckpt_fil(1), ckpt_off(226969088), cur_lsn(2826942346072), l_next_seq(46659482256), g_next_seq(46630684993), cur_free(259532800), total_space(8589926400), used_space(32563712), free_space(8557362688), n_ep(1) (414) 2025-04-23 15:22:42.696 [INFO] database P0000039800 T0000000000000039800  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (415) 2025-04-23 15:57:04.514 [INFO] database P0000089970 T0000000000000089970  dmshm2_attach, success, shm id 294913 (416) 2025-04-23 15:27:27.295 [INFO] database P0000046902 T0000000000000046902  info get from dcr disk, asm_host = localhost, asm_port = -1499177952, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (417) 2025-04-23 15:42:51.687 [INFO] database P0000069304 T0000000000000069304  version info: enterprise (418) 2025-04-23 15:12:23.733 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit. (419) 2025-04-23 15:04:25.545 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-(1, 1)
-(2, 0)
-(3, 1)
-(4, 0)
-(5, 1)
-(6, 0)
-(7, 1)
-(8, 1)
-(9, 0)
-(10, 1)
-(11, 0)
-(12, 0)
-(13, 0)
-(14, 0)
-(15, 0)
-(16, 0)
-(17, 1)
-(18, 1)
-(19, 0)
-(20, 1)
-(21, 1)
-(22, 1)
-(23, 1)
-(24, 1)
-(25, 1)
-(26, 1)
-(27, 1)
-(28, 0)
-(29, 1)
-(30, 0)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>['(390) 2025-04-23 14:43:00.183 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(391) 2025-04-23 15:48:47.048 [INFO] database P0000077779 T0000000000000077779  dmshm2_attach, success, shm id 294913', '(392) 2025-04-23 15:00:52.245 [ERROR] database P0000010414 T0000000000000015321  Reached the max session limit.', '(393) 2025-04-23 15:13:15.903 [ERROR] database P0000010414 T0000000000000015295  Reached the max session limit.', '(394) 2025-04-23 15:11:13.082 [ERROR] database P0000010414 T0000000000000015350  Reached the max session limit.', '(395) 2025-04-23 14:43:00.184 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942205832), ckpt_fil(1), ckpt_off(227897856), cur_lsn(2826942349077), l_next_seq(46659482376), g_next_seq(46630685113), cur_free(260072448), total_space(8589926400), used_space(32174592), free_space(8557751808), n_ep(1)', '(396) 2025-04-23 15:29:49.322 [INFO] database P0000050345 T0000000000000050345  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(397) 2025-04-23 14:42:59.176 [INFO] database P0000010414 T0000000000000015201  utsk_dw_udp_bro used 11s, cur_bro_time = 1745390579, last_bro_time = 1745390568', '(398) 2025-04-23 15:21:31.608 [INFO] database P0000038061 T0000000000000038061  dmshm2_attach, success, shm id 294913', '(399) 2025-04-23 15:16:40.755 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit.', '(400) 2025-04-23 15:33:22.310 [INFO] database P0000055615 T0000000000000055615  INI parameter DW_PORT changed, the original value 0, new value 4566', '(401) 2025-04-23 14:57:44.135 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.', '(402) 2025-04-23 15:11:12.951 [WARNING] database P0000010414 T0000000000000068749  socket_err_should_retry errno:104', '(403) 2025-04-23 15:16:45.092 [INFO] database P0000010414 T0000000000000010873  total 3 rfil opened!', '(404) 2025-04-23 15:46:24.357 [INFO] database P0000074366 T0000000000000074366  INI parameter DPC_2PC changed, the original value 1, new value 0', '(405) 2025-04-23 14:56:41.297 [ERROR] database P0000010414 T0000000000000015306  Reached the max session limit.', '(406) 2025-04-23 15:52:19.789 [INFO] database P0000082963 T0000000000000082963  INI parameter DPC_2PC changed, the original value 1, new value 0', '(407) 2025-04-23 15:55:54.140 [INFO] database P0000088185 T0000000000000088185  version info: enterprise', '(408) 2025-04-23 15:00:41.280 [ERROR] database P0000010414 T0000000000000015348  Reached the max session limit.', '(409) 2025-04-23 15:06:41.321 [ERROR] database P0000010414 T0000000000000015337  Reached the max session limit.', '(410) 2025-04-23 15:03:16.011 [ERROR] database P0000010414 T0000000000000015350  Reached the max session limit.', '(411) 2025-04-23 15:20:20.632 [INFO] database P0000036263 T0000000000000036263  dmshm2_attach, success, shm id 294913', '(412) 2025-04-23 15:05:44.344 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.', '(413) 2025-04-23 14:42:59.204 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942200438), ckpt_fil(1), ckpt_off(226969088), cur_lsn(2826942346072), l_next_seq(46659482256), g_next_seq(46630684993), cur_free(259532800), total_space(8589926400), used_space(32563712), free_space(8557362688), n_ep(1)', '(414) 2025-04-23 15:22:42.696 [INFO] database P0000039800 T0000000000000039800  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(415) 2025-04-23 15:57:04.514 [INFO] database P0000089970 T0000000000000089970  dmshm2_attach, success, shm id 294913', '(416) 2025-04-23 15:27:27.295 [INFO] database P0000046902 T0000000000000046902  info get from dcr disk, asm_host = localhost, asm_port = -1499177952, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(417) 2025-04-23 15:42:51.687 [INFO] database P0000069304 T0000000000000069304  version info: enterprise', '(418) 2025-04-23 15:12:23.733 [ERROR] database P0000010414 T0000000000000015316  Reached the max session limit.', '(419) 2025-04-23 15:04:25.545 [ERROR] database P0000010414 T0000000000000015312  Reached the max session limit.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>You are a log anomaly classifier.
-        You will be given a list of log entries, each with a unique index.  
-        Your task is to determine whether each log is **abnormal (1)** or **normal (0)**.  
-        Only output in the following format, without any extra explanation or comments.
-        ## Output Format:
-        (log_idx, status)
-        ## Output Rules:
-        - status must be 1 if the log entry indicates an error, failure, crash, or unusual behavior.
-        - status must be 0 if the log entry is a normal operation or informational message.
-        - Output **only** a list of tuples. No extra text or explanation.
-        ## Input Logs:
-         (420) 2025-04-23 14:59:26.781 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit. (421) 2025-04-23 15:28:38.272 [INFO] database P0000048633 T0000000000000048633  dmshm2_attach, success, shm id 294913 (422) 2025-04-23 15:15:01.381 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit. (423) 2025-04-23 15:10:41.779 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit. (424) 2025-04-23 15:23:53.906 [INFO] database P0000041615 T0000000000000041615  version info: enterprise (425) 2025-04-23 15:21:31.595 [INFO] database P0000038061 T0000000000000038061  info get from dcr disk, asm_host = localhost, asm_port = 669194080, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (426) 2025-04-23 14:57:05.371 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit. (427) 2025-04-23 15:26:15.979 [INFO] database P0000045167 T0000000000000045167  info get from dcr disk, asm_host = localhost, asm_port = 368678048, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (428) 2025-04-23 15:10:54.994 [ERROR] database P0000010414 T0000000000000015331  Reached the max session limit. (429) 2025-04-23 15:27:27.308 [INFO] database P0000046902 T0000000000000046902  dmshm2_attach, success, shm id 294913 (430) 2025-04-23 14:42:36.060 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942164226), ckpt_fil(1), ckpt_off(219097600), cur_lsn(2826942313022), l_next_seq(46659481498), g_next_seq(46630684235), cur_free(251105792), total_space(8589926400), used_space(32008192), free_space(8557918208), n_ep(1) (431) 2025-04-23 15:41:42.842 [INFO] database P0000067641 T0000000000000067641  dmshm2_attach, success, shm id 294913 (432) 2025-04-23 15:31:00.469 [INFO] database P0000052077 T0000000000000052077  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (433) 2025-04-23 14:53:42.091 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit. (434) 2025-04-23 15:52:22.141 [INFO] database P0000082963 T0000000000000082963  version info: enterprise (435) 2025-04-23 15:42:51.064 [INFO] database P0000069304 T0000000000000069304  INI parameter DPC_2PC changed, the original value 1, new value 0 (436) 2025-04-23 15:16:45.084 [FATAL] database P0000010414 T0000000000000010414  sigterm_handler receive signal 11 (437) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000072352  socket_err_should_retry errno:104 (438) 2025-04-23 15:31:00.456 [INFO] database P0000052077 T0000000000000052077  info get from dcr disk, asm_host = localhost, asm_port = 1325557600, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (439) 2025-04-23 15:10:29.512 [ERROR] database P0000010414 T0000000000000015325  Reached the max session limit. (440) 2025-04-23 15:01:41.293 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit. (441) 2025-04-23 15:28:38.273 [INFO] database P0000048633 T0000000000000048633  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (442) 2025-04-23 15:39:18.028 [INFO] database P0000064327 T0000000000000064327  dmshm2_attach, success, shm id 294913 (443) 2025-04-23 14:43:31.161 [INFO] database P0000010414 T0000000000000015201  utsk_get_dw_svr_info used 31 seconds (444) 2025-04-23 15:04:17.585 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit. (445) 2025-04-23 14:58:51.943 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit. (446) 2025-04-23 15:21:31.617 [INFO] database P0000038061 T0000000000000038061  version info: enterprise (447) 2025-04-23 14:49:59.226 [WARNING] database P0000010414 T0000000000000134960  socket_err_should_retry errno:38 (448) 2025-04-23 14:44:01.236 [WARNING] database P0000010414 T0000000000000124418  socket_err_should_retry errno:104 (449) 2025-04-23 15:42:51.061 [INFO] database P0000069304 T0000000000000069304  INI parameter DW_PORT changed, the original value 0, new value 4566</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-(390, 0)
-(391, 0)
-(392, 1)
-(393, 1)
-(394, 1)
-(395, 0)
-(396, 0)
-(397, 0)
-(398, 0)
-(399, 1)
-(400, 0)
-(401, 1)
-(402, 1)
-(403, 0)
-(404, 0)
-(405, 1)
-(406, 0)
-(407, 0)
-(408, 0)
-(409, 1)
-(410, 1)
-(411, 0)
-(412, 1)
-(413, 0)
-(414, 0)
-(415, 0)
-(416, 0)
-(417, 0)
-(418, 0)
-(419, 1)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>['(420) 2025-04-23 14:59:26.781 [ERROR] database P0000010414 T0000000000000015334  Reached the max session limit.', '(421) 2025-04-23 15:28:38.272 [INFO] database P0000048633 T0000000000000048633  dmshm2_attach, success, shm id 294913', '(422) 2025-04-23 15:15:01.381 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit.', '(423) 2025-04-23 15:10:41.779 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit.', '(424) 2025-04-23 15:23:53.906 [INFO] database P0000041615 T0000000000000041615  version info: enterprise', '(425) 2025-04-23 15:21:31.595 [INFO] database P0000038061 T0000000000000038061  info get from dcr disk, asm_host = localhost, asm_port = 669194080, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(426) 2025-04-23 14:57:05.371 [ERROR] database P0000010414 T0000000000000015356  Reached the max session limit.', '(427) 2025-04-23 15:26:15.979 [INFO] database P0000045167 T0000000000000045167  info get from dcr disk, asm_host = localhost, asm_port = 368678048, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(428) 2025-04-23 15:10:54.994 [ERROR] database P0000010414 T0000000000000015331  Reached the max session limit.', '(429) 2025-04-23 15:27:27.308 [INFO] database P0000046902 T0000000000000046902  dmshm2_attach, success, shm id 294913', '(430) 2025-04-23 14:42:36.060 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: ckpt_lsn(2826942164226), ckpt_fil(1), ckpt_off(219097600), cur_lsn(2826942313022), l_next_seq(46659481498), g_next_seq(46630684235), cur_free(251105792), total_space(8589926400), used_space(32008192), free_space(8557918208), n_ep(1)', '(431) 2025-04-23 15:41:42.842 [INFO] database P0000067641 T0000000000000067641  dmshm2_attach, success, shm id 294913', '(432) 2025-04-23 15:31:00.469 [INFO] database P0000052077 T0000000000000052077  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(433) 2025-04-23 14:53:42.091 [ERROR] database P0000010414 T0000000000000015335  Reached the max session limit.', '(434) 2025-04-23 15:52:22.141 [INFO] database P0000082963 T0000000000000082963  version info: enterprise', '(435) 2025-04-23 15:42:51.064 [INFO] database P0000069304 T0000000000000069304  INI parameter DPC_2PC changed, the original value 1, new value 0', '(436) 2025-04-23 15:16:45.084 [FATAL] database P0000010414 T0000000000000010414  sigterm_handler receive signal 11', '(437) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000072352  socket_err_should_retry errno:104', '(438) 2025-04-23 15:31:00.456 [INFO] database P0000052077 T0000000000000052077  info get from dcr disk, asm_host = localhost, asm_port = 1325557600, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(439) 2025-04-23 15:10:29.512 [ERROR] database P0000010414 T0000000000000015325  Reached the max session limit.', '(440) 2025-04-23 15:01:41.293 [ERROR] database P0000010414 T0000000000000015319  Reached the max session limit.', '(441) 2025-04-23 15:28:38.273 [INFO] database P0000048633 T0000000000000048633  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(442) 2025-04-23 15:39:18.028 [INFO] database P0000064327 T0000000000000064327  dmshm2_attach, success, shm id 294913', '(443) 2025-04-23 14:43:31.161 [INFO] database P0000010414 T0000000000000015201  utsk_get_dw_svr_info used 31 seconds', '(444) 2025-04-23 15:04:17.585 [ERROR] database P0000010414 T0000000000000015345  Reached the max session limit.', '(445) 2025-04-23 14:58:51.943 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit.', '(446) 2025-04-23 15:21:31.617 [INFO] database P0000038061 T0000000000000038061  version info: enterprise', '(447) 2025-04-23 14:49:59.226 [WARNING] database P0000010414 T0000000000000134960  socket_err_should_retry errno:38', '(448) 2025-04-23 14:44:01.236 [WARNING] database P0000010414 T0000000000000124418  socket_err_should_retry errno:104', '(449) 2025-04-23 15:42:51.061 [INFO] database P0000069304 T0000000000000069304  INI parameter DW_PORT changed, the original value 0, new value 4566']</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>You are a log anomaly classifier.
-        You will be given a list of log entries, each with a unique index.  
-        Your task is to determine whether each log is **abnormal (1)** or **normal (0)**.  
-        Only output in the following format, without any extra explanation or comments.
-        ## Output Format:
-        (log_idx, status)
-        ## Output Rules:
-        - status must be 1 if the log entry indicates an error, failure, crash, or unusual behavior.
-        - status must be 0 if the log entry is a normal operation or informational message.
-        - Output **only** a list of tuples. No extra text or explanation.
-        ## Input Logs:
-         (450) 2025-04-23 15:53:32.143 [INFO] database P0000084718 T0000000000000084718  dmshm2_attach, success, shm id 294913 (451) 2025-04-23 15:04:57.200 [ERROR] database P0000010414 T0000000000000015325  Reached the max session limit. (452) 2025-04-23 15:27:26.851 [INFO] database P0000046902 T0000000000000046902  INI parameter DPC_2PC changed, the original value 1, new value 0 (453) 2025-04-23 14:59:05.111 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit. (454) 2025-04-23 15:38:06.694 [INFO] database P0000062613 T0000000000000062613  INI parameter DW_PORT changed, the original value 0, new value 4566 (455) 2025-04-23 15:46:24.892 [INFO] database P0000074366 T0000000000000074366  info get from dcr disk, asm_host = localhost, asm_port = -982684112, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (456) 2025-04-23 14:43:00.189 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0 (457) 2025-04-23 15:40:29.234 [INFO] database P0000066033 T0000000000000066033  info get from dcr disk, asm_host = localhost, asm_port = -32346592, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (458) 2025-04-23 15:51:09.085 [INFO] database P0000081263 T0000000000000081263  info get from dcr disk, asm_host = localhost, asm_port = 765973808, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752 (459) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000082807  socket_err_should_retry errno:104 (460) 2025-04-23 15:15:37.478 [ERROR] database P0000010414 T0000000000000015322  Reached the max session limit. (461) 2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000013572  checkpoint begin, used_space[33082880], free_space[8556843520]... (462) 2025-04-23 15:10:32.741 [WARNING] database P0000010414 T0000000000000125500  socket_err_should_retry errno:104 (463) 2025-04-23 15:55:54.132 [INFO] database P0000088185 T0000000000000088185  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (464) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000078503  socket_err_should_retry errno:104 (465) 2025-04-23 15:36:55.607 [INFO] database P0000060808 T0000000000000060808  INI parameter DPC_2PC changed, the original value 1, new value 0 (466) 2025-04-23 15:52:22.133 [INFO] database P0000082963 T0000000000000082963  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351 (467) 2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000080165  socket_err_should_retry errno:104 (468) 2025-04-23 15:41:42.852 [INFO] database P0000067641 T0000000000000067641  version info: enterprise (469) 2025-04-23 15:41:40.701 [INFO] database P0000067641 T0000000000000067641  INI parameter DPC_2PC changed, the original value 1, new value 0 (470) 2025-04-23 14:57:56.527 [ERROR] database P0000010414 T0000000000000015344  Reached the max session limit. (471) 2025-04-23 14:55:41.259 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit. (472) 2025-04-23 15:57:04.142 [INFO] database P0000089970 T0000000000000089970  INI parameter DW_PORT changed, the original value 0, new value 4566 (473) 2025-04-23 15:57:04.145 [INFO] database P0000089970 T0000000000000089970  INI parameter DPC_2PC changed, the original value 1, new value 0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-(239, 1)
-(240, 1)
-(241, 0)
-(242, 0)
-(243, 0)
-(244, 0)
-(245, 1)
-(246, 1)
-(247, 0)
-(248, 1)
-(249, 0)
-(250, 0)
-(251, 0)
-(252, 1)
-(253, 1)
-(254, 0)
-(255, 0)
-(256, 0)
-(257, 0)
-(258, 1)
-(259, 0)
-(260, 0)
-(261, 0)
-(262, 1)
-(263, 1)
-(264, 0)
-(265, 0)
-(266, 0)
-(267, 0)
-(268, 0)
-(269, 0)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>['(450) 2025-04-23 15:53:32.143 [INFO] database P0000084718 T0000000000000084718  dmshm2_attach, success, shm id 294913', '(451) 2025-04-23 15:04:57.200 [ERROR] database P0000010414 T0000000000000015325  Reached the max session limit.', '(452) 2025-04-23 15:27:26.851 [INFO] database P0000046902 T0000000000000046902  INI parameter DPC_2PC changed, the original value 1, new value 0', '(453) 2025-04-23 14:59:05.111 [ERROR] database P0000010414 T0000000000000015299  Reached the max session limit.', '(454) 2025-04-23 15:38:06.694 [INFO] database P0000062613 T0000000000000062613  INI parameter DW_PORT changed, the original value 0, new value 4566', '(455) 2025-04-23 15:46:24.892 [INFO] database P0000074366 T0000000000000074366  info get from dcr disk, asm_host = localhost, asm_port = -982684112, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(456) 2025-04-23 14:43:00.189 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(457) 2025-04-23 15:40:29.234 [INFO] database P0000066033 T0000000000000066033  info get from dcr disk, asm_host = localhost, asm_port = -32346592, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(458) 2025-04-23 15:51:09.085 [INFO] database P0000081263 T0000000000000081263  info get from dcr disk, asm_host = localhost, asm_port = 765973808, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(459) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000082807  socket_err_should_retry errno:104', '(460) 2025-04-23 15:15:37.478 [ERROR] database P0000010414 T0000000000000015322  Reached the max session limit.', '(461) 2025-04-23 14:43:00.157 [INFO] database P0000010414 T0000000000000013572  checkpoint begin, used_space[33082880], free_space[8556843520]...', '(462) 2025-04-23 15:10:32.741 [WARNING] database P0000010414 T0000000000000125500  socket_err_should_retry errno:104', '(463) 2025-04-23 15:55:54.132 [INFO] database P0000088185 T0000000000000088185  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(464) 2025-04-23 15:11:12.952 [WARNING] database P0000010414 T0000000000000078503  socket_err_should_retry errno:104', '(465) 2025-04-23 15:36:55.607 [INFO] database P0000060808 T0000000000000060808  INI parameter DPC_2PC changed, the original value 1, new value 0', '(466) 2025-04-23 15:52:22.133 [INFO] database P0000082963 T0000000000000082963  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(467) 2025-04-23 15:04:26.020 [WARNING] database P0000010414 T0000000000000080165  socket_err_should_retry errno:104', '(468) 2025-04-23 15:41:42.852 [INFO] database P0000067641 T0000000000000067641  version info: enterprise', '(469) 2025-04-23 15:41:40.701 [INFO] database P0000067641 T0000000000000067641  INI parameter DPC_2PC changed, the original value 1, new value 0', '(470) 2025-04-23 14:57:56.527 [ERROR] database P0000010414 T0000000000000015344  Reached the max session limit.', '(471) 2025-04-23 14:55:41.259 [ERROR] database P0000010414 T0000000000000015347  Reached the max session limit.', '(472) 2025-04-23 15:57:04.142 [INFO] database P0000089970 T0000000000000089970  INI parameter DW_PORT changed, the original value 0, new value 4566', '(473) 2025-04-23 15:57:04.145 [INFO] database P0000089970 T0000000000000089970  INI parameter DPC_2PC changed, the original value 1, new value 0']</t>
+          <t>['(457) 2025-04-23 15:27:27.317 [INFO] database P0000046902 T0000000000000046902  version info: enterprise', '(458) 2025-04-23 15:00:18.038 [ERROR] database P0000010414 T0000000000000015351  Reached the max session limit.', '(459) 2025-04-23 15:52:22.141 [INFO] database P0000082963 T0000000000000082963  version info: enterprise', '(460) 2025-04-23 15:49:57.597 [INFO] database P0000079472 T0000000000000079472  INI parameter DW_PORT changed, the original value 0, new value 4566', '(461) 2025-04-23 14:52:56.353 [ERROR] database P0000010414 T0000000000000015341  Reached the max session limit.', '(462) 2025-04-23 14:42:59.176 [INFO] database P0000010414 T0000000000000015201  utsk_dw_udp_bro used 11s, cur_bro_time = 1745390579, last_bro_time = 1745390568', '(463) 2025-04-23 15:58:15.702 [INFO] database P0000091708 T0000000000000091708  info get from dcr disk, asm_host = localhost, asm_port = 1974518400, global_dcr_ep_host = , global_dcr_ep_port = 5236, global_dcr_css_host = 192.168.9.22, global_dcr_css_port = 91362752', '(464) 2025-04-23 15:20:20.266 [INFO] database P0000036263 T0000000000000036263  INI parameter DPC_2PC changed, the original value 1, new value 0', '(465) 2025-04-23 15:10:41.779 [ERROR] database P0000010414 T0000000000000015294  Reached the max session limit.', '(466) 2025-04-23 15:54:42.271 [INFO] database P0000086447 T0000000000000086447  os_asm_env_init success(dest host:localhost, dest port:9351), conn info: comm port:9351, host:localhost, port:9351', '(467) 2025-04-23 15:00:02.184 [ERROR] database P0000010414 T0000000000000015336  Reached the max session limit.', '(468) 2025-04-23 14:48:45.628 [WARNING] database P0000010414 T0000000000000132706  socket_err_should_retry errno:38', '(469) 2025-04-23 15:53:32.143 [INFO] database P0000084718 T0000000000000084718  dmshm2_attach, success, shm id 294913', '(470) 2025-04-23 15:02:45.814 [ERROR] database P0000010414 T0000000000000015329  Reached the max session limit.', '(471) 2025-04-23 14:43:00.168 [INFO] database P0000010414 T0000000000000013572  ckpt2_log_adjust: full_status: 160, ptx_reserved: 0', '(472) 2025-04-23 14:59:25.388 [ERROR] database P0000010414 T0000000000000015346  Reached the max session limit.', '(473) 2025-04-23 15:57:04.142 [INFO] database P0000089970 T0000000000000089970  INI parameter DW_PORT changed, the original value 0, new value 4566']</t>
         </is>
       </c>
     </row>
